--- a/tour_sheets/TourSheet_Complete.xlsx
+++ b/tour_sheets/TourSheet_Complete.xlsx
@@ -2334,6 +2334,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2345,8 +2346,7 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2641,10 +2641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G741"/>
+  <dimension ref="A1:G743"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" activeCellId="1" sqref="D3 B3"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="C222" sqref="C222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -2669,13 +2669,14 @@
       <c r="A3" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="1">
         <v>6</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="D3" s="24">
+      <c r="E3" s="17">
         <v>741</v>
       </c>
     </row>
@@ -2689,10 +2690,10 @@
       <c r="C5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="18" t="s">
         <v>53</v>
       </c>
       <c r="F5" s="15" t="s">
@@ -2712,10 +2713,10 @@
       <c r="C6" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="19">
         <v>4899485</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="19">
         <v>1212282</v>
       </c>
       <c r="F6" s="3">
@@ -2735,10 +2736,10 @@
       <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="19">
         <v>4898982</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="19">
         <v>1213876</v>
       </c>
       <c r="F7" s="3">
@@ -2758,10 +2759,10 @@
       <c r="C8" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="19">
         <v>4898250</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="19">
         <v>1211797</v>
       </c>
       <c r="F8" s="3">
@@ -2781,10 +2782,10 @@
       <c r="C9" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="19">
         <v>4898506</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="19">
         <v>1211104</v>
       </c>
       <c r="F9" s="3">
@@ -2804,10 +2805,10 @@
       <c r="C10" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="19">
         <v>4898260</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="19">
         <v>1211191</v>
       </c>
       <c r="F10" s="3">
@@ -2827,10 +2828,10 @@
       <c r="C11" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="19">
         <v>4898320</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="19">
         <v>1210767</v>
       </c>
       <c r="F11" s="3">
@@ -2850,10 +2851,10 @@
       <c r="C12" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="19">
         <v>4898347</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="19">
         <v>1210532</v>
       </c>
       <c r="F12" s="3">
@@ -2873,10 +2874,10 @@
       <c r="C13" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="19">
         <v>4898581</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="19">
         <v>1210090</v>
       </c>
       <c r="F13" s="3">
@@ -2896,10 +2897,10 @@
       <c r="C14" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="19">
         <v>4897773</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="19">
         <v>1209504</v>
       </c>
       <c r="F14" s="3">
@@ -2919,10 +2920,10 @@
       <c r="C15" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="19">
         <v>4897897</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="19">
         <v>1209612</v>
       </c>
       <c r="F15" s="3">
@@ -2942,10 +2943,10 @@
       <c r="C16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="19">
         <v>4898041</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="19">
         <v>1209117</v>
       </c>
       <c r="F16" s="3">
@@ -2965,10 +2966,10 @@
       <c r="C17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="19">
         <v>4898235</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="19">
         <v>1209165</v>
       </c>
       <c r="F17" s="3">
@@ -2988,10 +2989,10 @@
       <c r="C18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="19">
         <v>4898272</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="19">
         <v>1208833</v>
       </c>
       <c r="F18" s="3">
@@ -3011,10 +3012,10 @@
       <c r="C19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="19">
         <v>4898616</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="19">
         <v>1208014</v>
       </c>
       <c r="F19" s="3">
@@ -3034,10 +3035,10 @@
       <c r="C20" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="19">
         <v>4898866</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="19">
         <v>1207068</v>
       </c>
       <c r="F20" s="3">
@@ -3057,10 +3058,10 @@
       <c r="C21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="19">
         <v>4898516</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="19">
         <v>1207532</v>
       </c>
       <c r="F21" s="3">
@@ -3080,10 +3081,10 @@
       <c r="C22" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="19">
         <v>4898840</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="19">
         <v>1207189</v>
       </c>
       <c r="F22" s="3">
@@ -3103,10 +3104,10 @@
       <c r="C23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="19">
         <v>4898814</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="19">
         <v>1207703</v>
       </c>
       <c r="F23" s="3">
@@ -3126,10 +3127,10 @@
       <c r="C24" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="19">
         <v>4900106</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="19">
         <v>1208835</v>
       </c>
       <c r="F24" s="3">
@@ -3149,10 +3150,10 @@
       <c r="C25" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="19">
         <v>4900097</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="19">
         <v>1208796</v>
       </c>
       <c r="F25" s="3">
@@ -3172,10 +3173,10 @@
       <c r="C26" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="19">
         <v>4900094</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="19">
         <v>1208595</v>
       </c>
       <c r="F26" s="3">
@@ -3195,10 +3196,10 @@
       <c r="C27" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="19">
         <v>4899686</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="19">
         <v>1208203</v>
       </c>
       <c r="F27" s="3">
@@ -3218,10 +3219,10 @@
       <c r="C28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="19">
         <v>4899660</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="19">
         <v>1208140</v>
       </c>
       <c r="F28" s="3">
@@ -3241,10 +3242,10 @@
       <c r="C29" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="19">
         <v>4899794</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="19">
         <v>1208441</v>
       </c>
       <c r="F29" s="3">
@@ -3264,10 +3265,10 @@
       <c r="C30" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="19">
         <v>4899729</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="19">
         <v>1208454</v>
       </c>
       <c r="F30" s="3">
@@ -3287,10 +3288,10 @@
       <c r="C31" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="19">
         <v>4899471</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="19">
         <v>1208526</v>
       </c>
       <c r="F31" s="3">
@@ -3310,10 +3311,10 @@
       <c r="C32" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="19">
         <v>4899301</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="19">
         <v>1208856</v>
       </c>
       <c r="F32" s="3">
@@ -3333,10 +3334,10 @@
       <c r="C33" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="20">
         <v>4899194</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="20">
         <v>1208397</v>
       </c>
       <c r="F33" s="5">
@@ -3356,10 +3357,10 @@
       <c r="C34" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="19">
         <v>4899200</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="19">
         <v>1208204</v>
       </c>
       <c r="F34" s="3">
@@ -3379,10 +3380,10 @@
       <c r="C35" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="19">
         <v>4899449</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="19">
         <v>1208311</v>
       </c>
       <c r="F35" s="3">
@@ -3402,10 +3403,10 @@
       <c r="C36" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="19">
         <v>4899491</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="19">
         <v>1208047</v>
       </c>
       <c r="F36" s="3">
@@ -3425,10 +3426,10 @@
       <c r="C37" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="19">
         <v>4899555</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="19">
         <v>1207988</v>
       </c>
       <c r="F37" s="3">
@@ -3448,10 +3449,10 @@
       <c r="C38" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D38" s="19">
         <v>4899820</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E38" s="19">
         <v>1207893</v>
       </c>
       <c r="F38" s="3">
@@ -3471,10 +3472,10 @@
       <c r="C39" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D39" s="19">
         <v>4899560</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E39" s="19">
         <v>1207758</v>
       </c>
       <c r="F39" s="3">
@@ -3494,10 +3495,10 @@
       <c r="C40" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D40" s="19">
         <v>4899533</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E40" s="19">
         <v>1207467</v>
       </c>
       <c r="F40" s="3">
@@ -3517,10 +3518,10 @@
       <c r="C41" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D41" s="18">
+      <c r="D41" s="19">
         <v>4899472</v>
       </c>
-      <c r="E41" s="18">
+      <c r="E41" s="19">
         <v>1207736</v>
       </c>
       <c r="F41" s="3">
@@ -3540,10 +3541,10 @@
       <c r="C42" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D42" s="18">
+      <c r="D42" s="19">
         <v>4899490</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E42" s="19">
         <v>1207588</v>
       </c>
       <c r="F42" s="3">
@@ -3563,10 +3564,10 @@
       <c r="C43" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D43" s="19">
         <v>4899403</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E43" s="19">
         <v>1207504</v>
       </c>
       <c r="F43" s="3">
@@ -3586,10 +3587,10 @@
       <c r="C44" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="19">
+      <c r="D44" s="20">
         <v>4899345</v>
       </c>
-      <c r="E44" s="19">
+      <c r="E44" s="20">
         <v>1207139</v>
       </c>
       <c r="F44" s="5">
@@ -3609,10 +3610,10 @@
       <c r="C45" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D45" s="18">
+      <c r="D45" s="19">
         <v>4899505</v>
       </c>
-      <c r="E45" s="18">
+      <c r="E45" s="19">
         <v>1207080</v>
       </c>
       <c r="F45" s="3">
@@ -3632,10 +3633,10 @@
       <c r="C46" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D46" s="18">
+      <c r="D46" s="19">
         <v>4899580</v>
       </c>
-      <c r="E46" s="18">
+      <c r="E46" s="19">
         <v>1207168</v>
       </c>
       <c r="F46" s="3">
@@ -3655,10 +3656,10 @@
       <c r="C47" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D47" s="18">
+      <c r="D47" s="19">
         <v>4899659</v>
       </c>
-      <c r="E47" s="18">
+      <c r="E47" s="19">
         <v>1207264</v>
       </c>
       <c r="F47" s="3">
@@ -3678,10 +3679,10 @@
       <c r="C48" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="D48" s="18">
+      <c r="D48" s="19">
         <v>4899772</v>
       </c>
-      <c r="E48" s="18">
+      <c r="E48" s="19">
         <v>1207613</v>
       </c>
       <c r="F48" s="3">
@@ -3701,10 +3702,10 @@
       <c r="C49" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D49" s="18">
+      <c r="D49" s="19">
         <v>4899993</v>
       </c>
-      <c r="E49" s="18">
+      <c r="E49" s="19">
         <v>1207948</v>
       </c>
       <c r="F49" s="3">
@@ -3724,10 +3725,10 @@
       <c r="C50" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="D50" s="18">
+      <c r="D50" s="19">
         <v>4900044</v>
       </c>
-      <c r="E50" s="18">
+      <c r="E50" s="19">
         <v>1208167</v>
       </c>
       <c r="F50" s="3">
@@ -3747,10 +3748,10 @@
       <c r="C51" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D51" s="18">
+      <c r="D51" s="19">
         <v>4900222</v>
       </c>
-      <c r="E51" s="18">
+      <c r="E51" s="19">
         <v>1208373</v>
       </c>
       <c r="F51" s="3">
@@ -3770,10 +3771,10 @@
       <c r="C52" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D52" s="18">
+      <c r="D52" s="19">
         <v>4900407</v>
       </c>
-      <c r="E52" s="18">
+      <c r="E52" s="19">
         <v>1208325</v>
       </c>
       <c r="F52" s="3">
@@ -3793,10 +3794,10 @@
       <c r="C53" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D53" s="18">
+      <c r="D53" s="19">
         <v>4900358</v>
       </c>
-      <c r="E53" s="18">
+      <c r="E53" s="19">
         <v>1208367</v>
       </c>
       <c r="F53" s="3">
@@ -3816,10 +3817,10 @@
       <c r="C54" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D54" s="18">
+      <c r="D54" s="19">
         <v>4900267</v>
       </c>
-      <c r="E54" s="18">
+      <c r="E54" s="19">
         <v>1208703</v>
       </c>
       <c r="F54" s="3">
@@ -3839,10 +3840,10 @@
       <c r="C55" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D55" s="18">
+      <c r="D55" s="19">
         <v>4900667</v>
       </c>
-      <c r="E55" s="18">
+      <c r="E55" s="19">
         <v>1208995</v>
       </c>
       <c r="F55" s="3">
@@ -3862,10 +3863,10 @@
       <c r="C56" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="D56" s="18">
+      <c r="D56" s="19">
         <v>4900503</v>
       </c>
-      <c r="E56" s="18">
+      <c r="E56" s="19">
         <v>1209102</v>
       </c>
       <c r="F56" s="3">
@@ -3885,10 +3886,10 @@
       <c r="C57" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D57" s="18">
+      <c r="D57" s="19">
         <v>4900277</v>
       </c>
-      <c r="E57" s="18">
+      <c r="E57" s="19">
         <v>1209166</v>
       </c>
       <c r="F57" s="3">
@@ -3908,10 +3909,10 @@
       <c r="C58" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="D58" s="19">
+      <c r="D58" s="20">
         <v>4900711</v>
       </c>
-      <c r="E58" s="19">
+      <c r="E58" s="20">
         <v>1209385</v>
       </c>
       <c r="F58" s="5">
@@ -3931,10 +3932,10 @@
       <c r="C59" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D59" s="18">
+      <c r="D59" s="19">
         <v>4900686</v>
       </c>
-      <c r="E59" s="18">
+      <c r="E59" s="19">
         <v>1209222</v>
       </c>
       <c r="F59" s="3">
@@ -3954,10 +3955,10 @@
       <c r="C60" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D60" s="18">
+      <c r="D60" s="19">
         <v>4900548</v>
       </c>
-      <c r="E60" s="18">
+      <c r="E60" s="19">
         <v>1209832</v>
       </c>
       <c r="F60" s="3">
@@ -3977,10 +3978,10 @@
       <c r="C61" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D61" s="18">
+      <c r="D61" s="19">
         <v>4900719</v>
       </c>
-      <c r="E61" s="18">
+      <c r="E61" s="19">
         <v>1209762</v>
       </c>
       <c r="F61" s="3">
@@ -4000,10 +4001,10 @@
       <c r="C62" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D62" s="18">
+      <c r="D62" s="19">
         <v>4900825</v>
       </c>
-      <c r="E62" s="18">
+      <c r="E62" s="19">
         <v>1209389</v>
       </c>
       <c r="F62" s="3">
@@ -4023,10 +4024,10 @@
       <c r="C63" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D63" s="19">
+      <c r="D63" s="20">
         <v>4900746</v>
       </c>
-      <c r="E63" s="19">
+      <c r="E63" s="20">
         <v>1209398</v>
       </c>
       <c r="F63" s="5">
@@ -4046,10 +4047,10 @@
       <c r="C64" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D64" s="18">
+      <c r="D64" s="19">
         <v>4900916</v>
       </c>
-      <c r="E64" s="18">
+      <c r="E64" s="19">
         <v>1209295</v>
       </c>
       <c r="F64" s="3">
@@ -4069,10 +4070,10 @@
       <c r="C65" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="D65" s="19">
+      <c r="D65" s="20">
         <v>4900836</v>
       </c>
-      <c r="E65" s="19">
+      <c r="E65" s="20">
         <v>1209238</v>
       </c>
       <c r="F65" s="5">
@@ -4092,10 +4093,10 @@
       <c r="C66" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="D66" s="19">
+      <c r="D66" s="20">
         <v>4900825</v>
       </c>
-      <c r="E66" s="19">
+      <c r="E66" s="20">
         <v>1209154</v>
       </c>
       <c r="F66" s="5">
@@ -4115,10 +4116,10 @@
       <c r="C67" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D67" s="18">
+      <c r="D67" s="19">
         <v>4900850</v>
       </c>
-      <c r="E67" s="18">
+      <c r="E67" s="19">
         <v>1209116</v>
       </c>
       <c r="F67" s="3">
@@ -4138,10 +4139,10 @@
       <c r="C68" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="D68" s="19">
+      <c r="D68" s="20">
         <v>4900805</v>
       </c>
-      <c r="E68" s="19">
+      <c r="E68" s="20">
         <v>1208850</v>
       </c>
       <c r="F68" s="5">
@@ -4161,10 +4162,10 @@
       <c r="C69" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="D69" s="19">
+      <c r="D69" s="20">
         <v>4900771</v>
       </c>
-      <c r="E69" s="19">
+      <c r="E69" s="20">
         <v>1209015</v>
       </c>
       <c r="F69" s="5">
@@ -4184,10 +4185,10 @@
       <c r="C70" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="D70" s="19">
+      <c r="D70" s="20">
         <v>4900702</v>
       </c>
-      <c r="E70" s="19">
+      <c r="E70" s="20">
         <v>1209108</v>
       </c>
       <c r="F70" s="5">
@@ -4207,10 +4208,10 @@
       <c r="C71" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="D71" s="19">
+      <c r="D71" s="20">
         <v>4900709</v>
       </c>
-      <c r="E71" s="19">
+      <c r="E71" s="20">
         <v>1209161</v>
       </c>
       <c r="F71" s="5">
@@ -4230,10 +4231,10 @@
       <c r="C72" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D72" s="18">
+      <c r="D72" s="19">
         <v>4900495</v>
       </c>
-      <c r="E72" s="18">
+      <c r="E72" s="19">
         <v>1208771</v>
       </c>
       <c r="F72" s="3">
@@ -4253,10 +4254,10 @@
       <c r="C73" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="D73" s="18">
+      <c r="D73" s="19">
         <v>4900461</v>
       </c>
-      <c r="E73" s="18">
+      <c r="E73" s="19">
         <v>1208567</v>
       </c>
       <c r="F73" s="3">
@@ -4276,10 +4277,10 @@
       <c r="C74" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="D74" s="18">
+      <c r="D74" s="19">
         <v>4900660</v>
       </c>
-      <c r="E74" s="18">
+      <c r="E74" s="19">
         <v>1208760</v>
       </c>
       <c r="F74" s="3">
@@ -4299,10 +4300,10 @@
       <c r="C75" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="D75" s="18">
+      <c r="D75" s="19">
         <v>4900726</v>
       </c>
-      <c r="E75" s="18">
+      <c r="E75" s="19">
         <v>1208679</v>
       </c>
       <c r="F75" s="3">
@@ -4322,10 +4323,10 @@
       <c r="C76" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D76" s="18">
+      <c r="D76" s="19">
         <v>4900611</v>
       </c>
-      <c r="E76" s="18">
+      <c r="E76" s="19">
         <v>1208453</v>
       </c>
       <c r="F76" s="3">
@@ -4345,10 +4346,10 @@
       <c r="C77" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="D77" s="19">
+      <c r="D77" s="20">
         <v>4900608</v>
       </c>
-      <c r="E77" s="19">
+      <c r="E77" s="20">
         <v>1208567</v>
       </c>
       <c r="F77" s="5">
@@ -4368,10 +4369,10 @@
       <c r="C78" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="D78" s="18">
+      <c r="D78" s="19">
         <v>4900926</v>
       </c>
-      <c r="E78" s="18">
+      <c r="E78" s="19">
         <v>1208427</v>
       </c>
       <c r="F78" s="3">
@@ -4391,10 +4392,10 @@
       <c r="C79" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D79" s="18">
+      <c r="D79" s="19">
         <v>4900232</v>
       </c>
-      <c r="E79" s="18">
+      <c r="E79" s="19">
         <v>1207895</v>
       </c>
       <c r="F79" s="3">
@@ -4414,10 +4415,10 @@
       <c r="C80" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D80" s="18">
+      <c r="D80" s="19">
         <v>4900506</v>
       </c>
-      <c r="E80" s="18">
+      <c r="E80" s="19">
         <v>1207553</v>
       </c>
       <c r="F80" s="3">
@@ -4437,10 +4438,10 @@
       <c r="C81" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D81" s="18">
+      <c r="D81" s="19">
         <v>4900720</v>
       </c>
-      <c r="E81" s="18">
+      <c r="E81" s="19">
         <v>1207929</v>
       </c>
       <c r="F81" s="3">
@@ -4460,10 +4461,10 @@
       <c r="C82" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D82" s="18">
+      <c r="D82" s="19">
         <v>4900881</v>
       </c>
-      <c r="E82" s="18">
+      <c r="E82" s="19">
         <v>1208089</v>
       </c>
       <c r="F82" s="3">
@@ -4483,10 +4484,10 @@
       <c r="C83" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D83" s="18">
+      <c r="D83" s="19">
         <v>4900934</v>
       </c>
-      <c r="E83" s="18">
+      <c r="E83" s="19">
         <v>1207972</v>
       </c>
       <c r="F83" s="3">
@@ -4506,10 +4507,10 @@
       <c r="C84" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="D84" s="18">
+      <c r="D84" s="19">
         <v>4900969</v>
       </c>
-      <c r="E84" s="18">
+      <c r="E84" s="19">
         <v>1207743</v>
       </c>
       <c r="F84" s="3">
@@ -4529,10 +4530,10 @@
       <c r="C85" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D85" s="19">
+      <c r="D85" s="20">
         <v>4900966</v>
       </c>
-      <c r="E85" s="19">
+      <c r="E85" s="20">
         <v>1207631</v>
       </c>
       <c r="F85" s="5">
@@ -4552,10 +4553,10 @@
       <c r="C86" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D86" s="18">
+      <c r="D86" s="19">
         <v>4900799</v>
       </c>
-      <c r="E86" s="18">
+      <c r="E86" s="19">
         <v>1207779</v>
       </c>
       <c r="F86" s="3">
@@ -4575,10 +4576,10 @@
       <c r="C87" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D87" s="18">
+      <c r="D87" s="19">
         <v>4900817</v>
       </c>
-      <c r="E87" s="18">
+      <c r="E87" s="19">
         <v>1207524</v>
       </c>
       <c r="F87" s="3">
@@ -4598,10 +4599,10 @@
       <c r="C88" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D88" s="19">
+      <c r="D88" s="20">
         <v>4901017</v>
       </c>
-      <c r="E88" s="19">
+      <c r="E88" s="20">
         <v>1207354</v>
       </c>
       <c r="F88" s="5">
@@ -4621,10 +4622,10 @@
       <c r="C89" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="D89" s="18">
+      <c r="D89" s="19">
         <v>4900982</v>
       </c>
-      <c r="E89" s="18">
+      <c r="E89" s="19">
         <v>1207335</v>
       </c>
       <c r="F89" s="3">
@@ -4644,10 +4645,10 @@
       <c r="C90" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="D90" s="18">
+      <c r="D90" s="19">
         <v>4900980</v>
       </c>
-      <c r="E90" s="18">
+      <c r="E90" s="19">
         <v>1207305</v>
       </c>
       <c r="F90" s="3">
@@ -4667,10 +4668,10 @@
       <c r="C91" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D91" s="19">
+      <c r="D91" s="20">
         <v>4900863</v>
       </c>
-      <c r="E91" s="19">
+      <c r="E91" s="20">
         <v>1207346</v>
       </c>
       <c r="F91" s="5">
@@ -4690,10 +4691,10 @@
       <c r="C92" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D92" s="19">
+      <c r="D92" s="20">
         <v>4900790</v>
       </c>
-      <c r="E92" s="19">
+      <c r="E92" s="20">
         <v>1207359</v>
       </c>
       <c r="F92" s="5">
@@ -4713,10 +4714,10 @@
       <c r="C93" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="D93" s="19">
+      <c r="D93" s="20">
         <v>4900816</v>
       </c>
-      <c r="E93" s="19">
+      <c r="E93" s="20">
         <v>1207354</v>
       </c>
       <c r="F93" s="5">
@@ -4736,10 +4737,10 @@
       <c r="C94" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="D94" s="19">
+      <c r="D94" s="20">
         <v>4900743</v>
       </c>
-      <c r="E94" s="19">
+      <c r="E94" s="20">
         <v>1207187</v>
       </c>
       <c r="F94" s="5">
@@ -4759,10 +4760,10 @@
       <c r="C95" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D95" s="19">
+      <c r="D95" s="20">
         <v>4900764</v>
       </c>
-      <c r="E95" s="19">
+      <c r="E95" s="20">
         <v>1207142</v>
       </c>
       <c r="F95" s="5">
@@ -4782,10 +4783,10 @@
       <c r="C96" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="D96" s="19">
+      <c r="D96" s="20">
         <v>4900854</v>
       </c>
-      <c r="E96" s="19">
+      <c r="E96" s="20">
         <v>1206788</v>
       </c>
       <c r="F96" s="5">
@@ -4805,10 +4806,10 @@
       <c r="C97" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D97" s="19">
+      <c r="D97" s="20">
         <v>4900827</v>
       </c>
-      <c r="E97" s="19">
+      <c r="E97" s="20">
         <v>1206770</v>
       </c>
       <c r="F97" s="5">
@@ -4828,10 +4829,10 @@
       <c r="C98" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D98" s="19">
+      <c r="D98" s="20">
         <v>4900854</v>
       </c>
-      <c r="E98" s="19">
+      <c r="E98" s="20">
         <v>1206644</v>
       </c>
       <c r="F98" s="5">
@@ -4851,10 +4852,10 @@
       <c r="C99" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="D99" s="19">
+      <c r="D99" s="20">
         <v>4900726</v>
       </c>
-      <c r="E99" s="19">
+      <c r="E99" s="20">
         <v>1206711</v>
       </c>
       <c r="F99" s="5">
@@ -4874,10 +4875,10 @@
       <c r="C100" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="D100" s="19">
+      <c r="D100" s="20">
         <v>4900684</v>
       </c>
-      <c r="E100" s="19">
+      <c r="E100" s="20">
         <v>1207030</v>
       </c>
       <c r="F100" s="5">
@@ -4897,10 +4898,10 @@
       <c r="C101" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D101" s="19">
+      <c r="D101" s="20">
         <v>4900657</v>
       </c>
-      <c r="E101" s="19">
+      <c r="E101" s="20">
         <v>1206787</v>
       </c>
       <c r="F101" s="5">
@@ -4920,10 +4921,10 @@
       <c r="C102" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="D102" s="19">
+      <c r="D102" s="20">
         <v>4900617</v>
       </c>
-      <c r="E102" s="19">
+      <c r="E102" s="20">
         <v>1206856</v>
       </c>
       <c r="F102" s="5">
@@ -4943,10 +4944,10 @@
       <c r="C103" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="D103" s="19">
+      <c r="D103" s="20">
         <v>4900796</v>
       </c>
-      <c r="E103" s="19">
+      <c r="E103" s="20">
         <v>1207033</v>
       </c>
       <c r="F103" s="5">
@@ -4966,10 +4967,10 @@
       <c r="C104" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D104" s="18">
+      <c r="D104" s="19">
         <v>4900603</v>
       </c>
-      <c r="E104" s="18">
+      <c r="E104" s="19">
         <v>1206457</v>
       </c>
       <c r="F104" s="3">
@@ -4989,10 +4990,10 @@
       <c r="C105" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D105" s="18">
+      <c r="D105" s="19">
         <v>4900517</v>
       </c>
-      <c r="E105" s="18">
+      <c r="E105" s="19">
         <v>1206658</v>
       </c>
       <c r="F105" s="3">
@@ -5012,10 +5013,10 @@
       <c r="C106" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="D106" s="19">
+      <c r="D106" s="20">
         <v>4900413</v>
       </c>
-      <c r="E106" s="19">
+      <c r="E106" s="20">
         <v>1206690</v>
       </c>
       <c r="F106" s="5">
@@ -5035,10 +5036,10 @@
       <c r="C107" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="D107" s="18">
+      <c r="D107" s="19">
         <v>4900254</v>
       </c>
-      <c r="E107" s="18">
+      <c r="E107" s="19">
         <v>1207123</v>
       </c>
       <c r="F107" s="3">
@@ -5058,10 +5059,10 @@
       <c r="C108" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D108" s="18">
+      <c r="D108" s="19">
         <v>4900893</v>
       </c>
-      <c r="E108" s="18">
+      <c r="E108" s="19">
         <v>1206198</v>
       </c>
       <c r="F108" s="3">
@@ -5081,10 +5082,10 @@
       <c r="C109" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="D109" s="18">
+      <c r="D109" s="19">
         <v>4900128</v>
       </c>
-      <c r="E109" s="18">
+      <c r="E109" s="19">
         <v>1207136</v>
       </c>
       <c r="F109" s="3">
@@ -5104,10 +5105,10 @@
       <c r="C110" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="D110" s="18">
+      <c r="D110" s="19">
         <v>4900094</v>
       </c>
-      <c r="E110" s="18">
+      <c r="E110" s="19">
         <v>1207897</v>
       </c>
       <c r="F110" s="3">
@@ -5127,10 +5128,10 @@
       <c r="C111" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D111" s="18">
+      <c r="D111" s="19">
         <v>4899933</v>
       </c>
-      <c r="E111" s="18">
+      <c r="E111" s="19">
         <v>1207417</v>
       </c>
       <c r="F111" s="3">
@@ -5150,10 +5151,10 @@
       <c r="C112" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D112" s="18">
+      <c r="D112" s="19">
         <v>4899917</v>
       </c>
-      <c r="E112" s="18">
+      <c r="E112" s="19">
         <v>1207451</v>
       </c>
       <c r="F112" s="3">
@@ -5173,10 +5174,10 @@
       <c r="C113" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D113" s="18">
+      <c r="D113" s="19">
         <v>4899858</v>
       </c>
-      <c r="E113" s="18">
+      <c r="E113" s="19">
         <v>1207354</v>
       </c>
       <c r="F113" s="3">
@@ -5196,10 +5197,10 @@
       <c r="C114" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D114" s="18">
+      <c r="D114" s="19">
         <v>4899817</v>
       </c>
-      <c r="E114" s="18">
+      <c r="E114" s="19">
         <v>1207303</v>
       </c>
       <c r="F114" s="3">
@@ -5219,10 +5220,10 @@
       <c r="C115" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D115" s="19">
+      <c r="D115" s="20">
         <v>4899861</v>
       </c>
-      <c r="E115" s="19">
+      <c r="E115" s="20">
         <v>1207185</v>
       </c>
       <c r="F115" s="5">
@@ -5242,10 +5243,10 @@
       <c r="C116" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D116" s="19">
+      <c r="D116" s="20">
         <v>4899752</v>
       </c>
-      <c r="E116" s="19">
+      <c r="E116" s="20">
         <v>1206863</v>
       </c>
       <c r="F116" s="5">
@@ -5265,10 +5266,10 @@
       <c r="C117" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D117" s="18">
+      <c r="D117" s="19">
         <v>4899702</v>
       </c>
-      <c r="E117" s="18">
+      <c r="E117" s="19">
         <v>1206921</v>
       </c>
       <c r="F117" s="3">
@@ -5288,10 +5289,10 @@
       <c r="C118" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D118" s="18">
+      <c r="D118" s="19">
         <v>4899731</v>
       </c>
-      <c r="E118" s="18">
+      <c r="E118" s="19">
         <v>1206981</v>
       </c>
       <c r="F118" s="3">
@@ -5311,10 +5312,10 @@
       <c r="C119" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="D119" s="18">
+      <c r="D119" s="19">
         <v>4899478</v>
       </c>
-      <c r="E119" s="18">
+      <c r="E119" s="19">
         <v>1206720</v>
       </c>
       <c r="F119" s="3">
@@ -5334,10 +5335,10 @@
       <c r="C120" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="D120" s="19">
+      <c r="D120" s="20">
         <v>4899213</v>
       </c>
-      <c r="E120" s="19">
+      <c r="E120" s="20">
         <v>1206827</v>
       </c>
       <c r="F120" s="5">
@@ -5357,10 +5358,10 @@
       <c r="C121" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="D121" s="18">
+      <c r="D121" s="19">
         <v>4899270</v>
       </c>
-      <c r="E121" s="18">
+      <c r="E121" s="19">
         <v>1206967</v>
       </c>
       <c r="F121" s="3">
@@ -5380,10 +5381,10 @@
       <c r="C122" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="D122" s="18">
+      <c r="D122" s="19">
         <v>4899555</v>
       </c>
-      <c r="E122" s="18">
+      <c r="E122" s="19">
         <v>1206492</v>
       </c>
       <c r="F122" s="3">
@@ -5403,10 +5404,10 @@
       <c r="C123" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D123" s="19">
+      <c r="D123" s="20">
         <v>4899840</v>
       </c>
-      <c r="E123" s="19">
+      <c r="E123" s="20">
         <v>1206709</v>
       </c>
       <c r="F123" s="5">
@@ -5426,10 +5427,10 @@
       <c r="C124" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D124" s="18">
+      <c r="D124" s="19">
         <v>4899853</v>
       </c>
-      <c r="E124" s="18">
+      <c r="E124" s="19">
         <v>1206715</v>
       </c>
       <c r="F124" s="3">
@@ -5449,10 +5450,10 @@
       <c r="C125" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D125" s="19">
+      <c r="D125" s="20">
         <v>4899934</v>
       </c>
-      <c r="E125" s="19">
+      <c r="E125" s="20">
         <v>1206756</v>
       </c>
       <c r="F125" s="5">
@@ -5472,10 +5473,10 @@
       <c r="C126" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D126" s="19">
+      <c r="D126" s="20">
         <v>4899941</v>
       </c>
-      <c r="E126" s="19">
+      <c r="E126" s="20">
         <v>1207016</v>
       </c>
       <c r="F126" s="5">
@@ -5495,10 +5496,10 @@
       <c r="C127" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D127" s="18">
+      <c r="D127" s="19">
         <v>4900007</v>
       </c>
-      <c r="E127" s="18">
+      <c r="E127" s="19">
         <v>1206834</v>
       </c>
       <c r="F127" s="3">
@@ -5518,10 +5519,10 @@
       <c r="C128" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D128" s="19">
+      <c r="D128" s="20">
         <v>4899869</v>
       </c>
-      <c r="E128" s="19">
+      <c r="E128" s="20">
         <v>1206725</v>
       </c>
       <c r="F128" s="5">
@@ -5541,10 +5542,10 @@
       <c r="C129" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D129" s="19">
+      <c r="D129" s="20">
         <v>4899745</v>
       </c>
-      <c r="E129" s="19">
+      <c r="E129" s="20">
         <v>1206785</v>
       </c>
       <c r="F129" s="5">
@@ -5564,10 +5565,10 @@
       <c r="C130" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D130" s="19">
+      <c r="D130" s="20">
         <v>4900023</v>
       </c>
-      <c r="E130" s="19">
+      <c r="E130" s="20">
         <v>1207012</v>
       </c>
       <c r="F130" s="5">
@@ -5587,10 +5588,10 @@
       <c r="C131" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D131" s="18">
+      <c r="D131" s="19">
         <v>4900130</v>
       </c>
-      <c r="E131" s="18">
+      <c r="E131" s="19">
         <v>1206987</v>
       </c>
       <c r="F131" s="3">
@@ -5610,10 +5611,10 @@
       <c r="C132" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="D132" s="18">
+      <c r="D132" s="19">
         <v>4899787</v>
       </c>
-      <c r="E132" s="18">
+      <c r="E132" s="19">
         <v>1206453</v>
       </c>
       <c r="F132" s="3">
@@ -5633,10 +5634,10 @@
       <c r="C133" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D133" s="18">
+      <c r="D133" s="19">
         <v>4900358</v>
       </c>
-      <c r="E133" s="18">
+      <c r="E133" s="19">
         <v>1206097</v>
       </c>
       <c r="F133" s="3">
@@ -5656,10 +5657,10 @@
       <c r="C134" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="D134" s="18">
+      <c r="D134" s="19">
         <v>4900567</v>
       </c>
-      <c r="E134" s="18">
+      <c r="E134" s="19">
         <v>1205980</v>
       </c>
       <c r="F134" s="3">
@@ -5679,10 +5680,10 @@
       <c r="C135" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="D135" s="18">
+      <c r="D135" s="19">
         <v>4900702</v>
       </c>
-      <c r="E135" s="18">
+      <c r="E135" s="19">
         <v>1205860</v>
       </c>
       <c r="F135" s="3">
@@ -5702,10 +5703,10 @@
       <c r="C136" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="D136" s="18">
+      <c r="D136" s="19">
         <v>4900720</v>
       </c>
-      <c r="E136" s="18">
+      <c r="E136" s="19">
         <v>1205898</v>
       </c>
       <c r="F136" s="3">
@@ -5725,10 +5726,10 @@
       <c r="C137" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="D137" s="18">
+      <c r="D137" s="19">
         <v>4900722</v>
       </c>
-      <c r="E137" s="18">
+      <c r="E137" s="19">
         <v>1205793</v>
       </c>
       <c r="F137" s="3">
@@ -5748,10 +5749,10 @@
       <c r="C138" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D138" s="18">
+      <c r="D138" s="19">
         <v>4900854</v>
       </c>
-      <c r="E138" s="18">
+      <c r="E138" s="19">
         <v>1205765</v>
       </c>
       <c r="F138" s="3">
@@ -5771,10 +5772,10 @@
       <c r="C139" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D139" s="18">
+      <c r="D139" s="19">
         <v>4900906</v>
       </c>
-      <c r="E139" s="18">
+      <c r="E139" s="19">
         <v>1205731</v>
       </c>
       <c r="F139" s="3">
@@ -5794,10 +5795,10 @@
       <c r="C140" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D140" s="18">
+      <c r="D140" s="19">
         <v>4900836</v>
       </c>
-      <c r="E140" s="18">
+      <c r="E140" s="19">
         <v>1205615</v>
       </c>
       <c r="F140" s="3">
@@ -5817,10 +5818,10 @@
       <c r="C141" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D141" s="18">
+      <c r="D141" s="19">
         <v>4900812</v>
       </c>
-      <c r="E141" s="18">
+      <c r="E141" s="19">
         <v>1205338</v>
       </c>
       <c r="F141" s="3">
@@ -5840,10 +5841,10 @@
       <c r="C142" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D142" s="18">
+      <c r="D142" s="19">
         <v>4900986</v>
       </c>
-      <c r="E142" s="18">
+      <c r="E142" s="19">
         <v>1205437</v>
       </c>
       <c r="F142" s="3">
@@ -5863,10 +5864,10 @@
       <c r="C143" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D143" s="18">
+      <c r="D143" s="19">
         <v>4901058</v>
       </c>
-      <c r="E143" s="18">
+      <c r="E143" s="19">
         <v>1205057</v>
       </c>
       <c r="F143" s="3">
@@ -5886,10 +5887,10 @@
       <c r="C144" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D144" s="18">
+      <c r="D144" s="19">
         <v>4901170</v>
       </c>
-      <c r="E144" s="18">
+      <c r="E144" s="19">
         <v>1205084</v>
       </c>
       <c r="F144" s="3">
@@ -5909,10 +5910,10 @@
       <c r="C145" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D145" s="18">
+      <c r="D145" s="19">
         <v>4901135</v>
       </c>
-      <c r="E145" s="18">
+      <c r="E145" s="19">
         <v>1205466</v>
       </c>
       <c r="F145" s="3">
@@ -5932,10 +5933,10 @@
       <c r="C146" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D146" s="18">
+      <c r="D146" s="19">
         <v>4902102</v>
       </c>
-      <c r="E146" s="18">
+      <c r="E146" s="19">
         <v>1207117</v>
       </c>
       <c r="F146" s="3">
@@ -5955,10 +5956,10 @@
       <c r="C147" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D147" s="19">
+      <c r="D147" s="20">
         <v>4900441</v>
       </c>
-      <c r="E147" s="19">
+      <c r="E147" s="20">
         <v>1207386</v>
       </c>
       <c r="F147" s="5">
@@ -5978,10 +5979,10 @@
       <c r="C148" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="D148" s="19">
+      <c r="D148" s="20">
         <v>4899546</v>
       </c>
-      <c r="E148" s="19">
+      <c r="E148" s="20">
         <v>1207555</v>
       </c>
       <c r="F148" s="5">
@@ -6001,10 +6002,10 @@
       <c r="C149" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D149" s="18">
+      <c r="D149" s="19">
         <v>4900055</v>
       </c>
-      <c r="E149" s="18">
+      <c r="E149" s="19">
         <v>1207460</v>
       </c>
       <c r="F149" s="3">
@@ -6024,10 +6025,10 @@
       <c r="C150" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D150" s="18">
+      <c r="D150" s="19">
         <v>4900524</v>
       </c>
-      <c r="E150" s="18">
+      <c r="E150" s="19">
         <v>1208144</v>
       </c>
       <c r="F150" s="3">
@@ -6047,10 +6048,10 @@
       <c r="C151" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D151" s="18">
+      <c r="D151" s="19">
         <v>4898718</v>
       </c>
-      <c r="E151" s="18">
+      <c r="E151" s="19">
         <v>1216508</v>
       </c>
       <c r="F151" s="3">
@@ -6070,10 +6071,10 @@
       <c r="C152" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D152" s="23">
+      <c r="D152" s="24">
         <v>4898487</v>
       </c>
-      <c r="E152" s="18">
+      <c r="E152" s="19">
         <v>1216804</v>
       </c>
       <c r="F152" s="3">
@@ -6093,10 +6094,10 @@
       <c r="C153" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D153" s="18">
+      <c r="D153" s="19">
         <v>4898467</v>
       </c>
-      <c r="E153" s="18">
+      <c r="E153" s="19">
         <v>1217069</v>
       </c>
       <c r="F153" s="3">
@@ -6116,10 +6117,10 @@
       <c r="C154" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D154" s="18">
+      <c r="D154" s="19">
         <v>4898682</v>
       </c>
-      <c r="E154" s="18">
+      <c r="E154" s="19">
         <v>1216929</v>
       </c>
       <c r="F154" s="3">
@@ -6139,10 +6140,10 @@
       <c r="C155" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D155" s="18">
+      <c r="D155" s="19">
         <v>4898561</v>
       </c>
-      <c r="E155" s="18">
+      <c r="E155" s="19">
         <v>1217584</v>
       </c>
       <c r="F155" s="3">
@@ -6162,10 +6163,10 @@
       <c r="C156" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D156" s="18">
+      <c r="D156" s="19">
         <v>4898690</v>
       </c>
-      <c r="E156" s="18">
+      <c r="E156" s="19">
         <v>1217432</v>
       </c>
       <c r="F156" s="3">
@@ -6185,10 +6186,10 @@
       <c r="C157" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D157" s="18">
+      <c r="D157" s="19">
         <v>4898823</v>
       </c>
-      <c r="E157" s="18">
+      <c r="E157" s="19">
         <v>1217265</v>
       </c>
       <c r="F157" s="3">
@@ -6208,10 +6209,10 @@
       <c r="C158" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D158" s="18">
+      <c r="D158" s="19">
         <v>4900144</v>
       </c>
-      <c r="E158" s="18">
+      <c r="E158" s="19">
         <v>1216679</v>
       </c>
       <c r="F158" s="3">
@@ -6231,10 +6232,10 @@
       <c r="C159" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="D159" s="18">
+      <c r="D159" s="19">
         <v>4900324</v>
       </c>
-      <c r="E159" s="18">
+      <c r="E159" s="19">
         <v>1216517</v>
       </c>
       <c r="F159" s="3">
@@ -6254,10 +6255,10 @@
       <c r="C160" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="D160" s="18">
+      <c r="D160" s="19">
         <v>4901162</v>
       </c>
-      <c r="E160" s="18">
+      <c r="E160" s="19">
         <v>1216124</v>
       </c>
       <c r="F160" s="3">
@@ -6277,10 +6278,10 @@
       <c r="C161" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D161" s="18">
+      <c r="D161" s="19">
         <v>4900713</v>
       </c>
-      <c r="E161" s="18">
+      <c r="E161" s="19">
         <v>1217833</v>
       </c>
       <c r="F161" s="3">
@@ -6300,10 +6301,10 @@
       <c r="C162" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="D162" s="18">
+      <c r="D162" s="19">
         <v>4899782</v>
       </c>
-      <c r="E162" s="18">
+      <c r="E162" s="19">
         <v>1210113</v>
       </c>
       <c r="F162" s="3">
@@ -6323,10 +6324,10 @@
       <c r="C163" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="D163" s="19">
+      <c r="D163" s="20">
         <v>4899901</v>
       </c>
-      <c r="E163" s="19">
+      <c r="E163" s="20">
         <v>1210210</v>
       </c>
       <c r="F163" s="5">
@@ -6346,10 +6347,10 @@
       <c r="C164" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="D164" s="19">
+      <c r="D164" s="20">
         <v>4899899</v>
       </c>
-      <c r="E164" s="19">
+      <c r="E164" s="20">
         <v>1210070</v>
       </c>
       <c r="F164" s="5">
@@ -6369,10 +6370,10 @@
       <c r="C165" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="D165" s="19">
+      <c r="D165" s="20">
         <v>4900885</v>
       </c>
-      <c r="E165" s="19">
+      <c r="E165" s="20">
         <v>1210151</v>
       </c>
       <c r="F165" s="5">
@@ -6392,10 +6393,10 @@
       <c r="C166" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="D166" s="18">
+      <c r="D166" s="19">
         <v>4901061</v>
       </c>
-      <c r="E166" s="18">
+      <c r="E166" s="19">
         <v>1210891</v>
       </c>
       <c r="F166" s="3">
@@ -6415,10 +6416,10 @@
       <c r="C167" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="D167" s="19">
+      <c r="D167" s="20">
         <v>4901005</v>
       </c>
-      <c r="E167" s="19">
+      <c r="E167" s="20">
         <v>1210937</v>
       </c>
       <c r="F167" s="5">
@@ -6438,10 +6439,10 @@
       <c r="C168" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="D168" s="18">
+      <c r="D168" s="19">
         <v>4901041</v>
       </c>
-      <c r="E168" s="18">
+      <c r="E168" s="19">
         <v>1210559</v>
       </c>
       <c r="F168" s="3">
@@ -6461,10 +6462,10 @@
       <c r="C169" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="D169" s="18">
+      <c r="D169" s="19">
         <v>4901084</v>
       </c>
-      <c r="E169" s="18">
+      <c r="E169" s="19">
         <v>1210381</v>
       </c>
       <c r="F169" s="3">
@@ -6484,10 +6485,10 @@
       <c r="C170" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="D170" s="18">
+      <c r="D170" s="19">
         <v>4900742</v>
       </c>
-      <c r="E170" s="18">
+      <c r="E170" s="19">
         <v>1211659</v>
       </c>
       <c r="F170" s="3">
@@ -6507,10 +6508,10 @@
       <c r="C171" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D171" s="19">
+      <c r="D171" s="20">
         <v>4900959</v>
       </c>
-      <c r="E171" s="19">
+      <c r="E171" s="20">
         <v>1210789</v>
       </c>
       <c r="F171" s="5">
@@ -6530,10 +6531,10 @@
       <c r="C172" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="D172" s="18">
+      <c r="D172" s="19">
         <v>4900769</v>
       </c>
-      <c r="E172" s="18">
+      <c r="E172" s="19">
         <v>1210022</v>
       </c>
       <c r="F172" s="3">
@@ -6553,10 +6554,10 @@
       <c r="C173" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D173" s="18">
+      <c r="D173" s="19">
         <v>4900780</v>
       </c>
-      <c r="E173" s="18">
+      <c r="E173" s="19">
         <v>1210902</v>
       </c>
       <c r="F173" s="3">
@@ -6576,10 +6577,10 @@
       <c r="C174" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="D174" s="18">
+      <c r="D174" s="19">
         <v>4900937</v>
       </c>
-      <c r="E174" s="18">
+      <c r="E174" s="19">
         <v>1210596</v>
       </c>
       <c r="F174" s="3">
@@ -6599,10 +6600,10 @@
       <c r="C175" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="D175" s="18">
+      <c r="D175" s="19">
         <v>4900713</v>
       </c>
-      <c r="E175" s="18">
+      <c r="E175" s="19">
         <v>1210564</v>
       </c>
       <c r="F175" s="3">
@@ -6622,10 +6623,10 @@
       <c r="C176" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="D176" s="19">
+      <c r="D176" s="20">
         <v>4900682</v>
       </c>
-      <c r="E176" s="19">
+      <c r="E176" s="20">
         <v>1210414</v>
       </c>
       <c r="F176" s="5">
@@ -6645,10 +6646,10 @@
       <c r="C177" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="D177" s="18">
+      <c r="D177" s="19">
         <v>4900565</v>
       </c>
-      <c r="E177" s="18">
+      <c r="E177" s="19">
         <v>1210229</v>
       </c>
       <c r="F177" s="3">
@@ -6668,10 +6669,10 @@
       <c r="C178" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="D178" s="18">
+      <c r="D178" s="19">
         <v>4900369</v>
       </c>
-      <c r="E178" s="18">
+      <c r="E178" s="19">
         <v>1210238</v>
       </c>
       <c r="F178" s="3">
@@ -6691,10 +6692,10 @@
       <c r="C179" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="D179" s="19">
+      <c r="D179" s="20">
         <v>4900319</v>
       </c>
-      <c r="E179" s="19">
+      <c r="E179" s="20">
         <v>1210508</v>
       </c>
       <c r="F179" s="5">
@@ -6714,10 +6715,10 @@
       <c r="C180" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D180" s="19">
+      <c r="D180" s="20">
         <v>4900406</v>
       </c>
-      <c r="E180" s="19">
+      <c r="E180" s="20">
         <v>1210734</v>
       </c>
       <c r="F180" s="5">
@@ -6737,10 +6738,10 @@
       <c r="C181" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="D181" s="18">
+      <c r="D181" s="19">
         <v>4900515</v>
       </c>
-      <c r="E181" s="18">
+      <c r="E181" s="19">
         <v>1210551</v>
       </c>
       <c r="F181" s="3">
@@ -6760,10 +6761,10 @@
       <c r="C182" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="D182" s="19">
+      <c r="D182" s="20">
         <v>4900516</v>
       </c>
-      <c r="E182" s="19">
+      <c r="E182" s="20">
         <v>1210444</v>
       </c>
       <c r="F182" s="5">
@@ -6783,10 +6784,10 @@
       <c r="C183" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D183" s="19">
+      <c r="D183" s="20">
         <v>4900622</v>
       </c>
-      <c r="E183" s="19">
+      <c r="E183" s="20">
         <v>1210821</v>
       </c>
       <c r="F183" s="5">
@@ -6806,10 +6807,10 @@
       <c r="C184" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="D184" s="19">
+      <c r="D184" s="20">
         <v>4900634</v>
       </c>
-      <c r="E184" s="19">
+      <c r="E184" s="20">
         <v>1210823</v>
       </c>
       <c r="F184" s="5">
@@ -6829,10 +6830,10 @@
       <c r="C185" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="D185" s="18">
+      <c r="D185" s="19">
         <v>4900613</v>
       </c>
-      <c r="E185" s="18">
+      <c r="E185" s="19">
         <v>1210961</v>
       </c>
       <c r="F185" s="3">
@@ -6852,10 +6853,10 @@
       <c r="C186" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="D186" s="19">
+      <c r="D186" s="20">
         <v>4900543</v>
       </c>
-      <c r="E186" s="19">
+      <c r="E186" s="20">
         <v>1210544</v>
       </c>
       <c r="F186" s="5">
@@ -6875,10 +6876,10 @@
       <c r="C187" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="D187" s="19">
+      <c r="D187" s="20">
         <v>4900558</v>
       </c>
-      <c r="E187" s="19">
+      <c r="E187" s="20">
         <v>1210589</v>
       </c>
       <c r="F187" s="5">
@@ -6898,10 +6899,10 @@
       <c r="C188" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="D188" s="18">
+      <c r="D188" s="19">
         <v>4900127</v>
       </c>
-      <c r="E188" s="18">
+      <c r="E188" s="19">
         <v>1210678</v>
       </c>
       <c r="F188" s="3">
@@ -6921,10 +6922,10 @@
       <c r="C189" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="D189" s="19">
+      <c r="D189" s="20">
         <v>4900019</v>
       </c>
-      <c r="E189" s="19">
+      <c r="E189" s="20">
         <v>1210748</v>
       </c>
       <c r="F189" s="5">
@@ -6944,10 +6945,10 @@
       <c r="C190" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="D190" s="18">
+      <c r="D190" s="19">
         <v>4899554</v>
       </c>
-      <c r="E190" s="18">
+      <c r="E190" s="19">
         <v>1210407</v>
       </c>
       <c r="F190" s="3">
@@ -6967,10 +6968,10 @@
       <c r="C191" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="D191" s="19">
+      <c r="D191" s="20">
         <v>4899417</v>
       </c>
-      <c r="E191" s="19">
+      <c r="E191" s="20">
         <v>1210527</v>
       </c>
       <c r="F191" s="5">
@@ -6990,10 +6991,10 @@
       <c r="C192" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="D192" s="19">
+      <c r="D192" s="20">
         <v>4899562</v>
       </c>
-      <c r="E192" s="19">
+      <c r="E192" s="20">
         <v>1210470</v>
       </c>
       <c r="F192" s="5">
@@ -7013,10 +7014,10 @@
       <c r="C193" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="D193" s="19">
+      <c r="D193" s="20">
         <v>4899596</v>
       </c>
-      <c r="E193" s="19">
+      <c r="E193" s="20">
         <v>1210701</v>
       </c>
       <c r="F193" s="5">
@@ -7036,10 +7037,10 @@
       <c r="C194" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="D194" s="18">
+      <c r="D194" s="19">
         <v>4899605</v>
       </c>
-      <c r="E194" s="18">
+      <c r="E194" s="19">
         <v>1210741</v>
       </c>
       <c r="F194" s="3">
@@ -7059,10 +7060,10 @@
       <c r="C195" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="D195" s="19">
+      <c r="D195" s="20">
         <v>4899619</v>
       </c>
-      <c r="E195" s="19">
+      <c r="E195" s="20">
         <v>1210806</v>
       </c>
       <c r="F195" s="5">
@@ -7082,10 +7083,10 @@
       <c r="C196" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="D196" s="19">
+      <c r="D196" s="20">
         <v>4899688</v>
       </c>
-      <c r="E196" s="19">
+      <c r="E196" s="20">
         <v>1210938</v>
       </c>
       <c r="F196" s="5">
@@ -7105,10 +7106,10 @@
       <c r="C197" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D197" s="18">
+      <c r="D197" s="19">
         <v>4899693</v>
       </c>
-      <c r="E197" s="18">
+      <c r="E197" s="19">
         <v>1210961</v>
       </c>
       <c r="F197" s="3">
@@ -7128,10 +7129,10 @@
       <c r="C198" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D198" s="18">
+      <c r="D198" s="19">
         <v>4900111</v>
       </c>
-      <c r="E198" s="18">
+      <c r="E198" s="19">
         <v>1211057</v>
       </c>
       <c r="F198" s="3">
@@ -7151,10 +7152,10 @@
       <c r="C199" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D199" s="18">
+      <c r="D199" s="19">
         <v>4900105</v>
       </c>
-      <c r="E199" s="18">
+      <c r="E199" s="19">
         <v>1211217</v>
       </c>
       <c r="F199" s="3">
@@ -7174,10 +7175,10 @@
       <c r="C200" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D200" s="18">
+      <c r="D200" s="19">
         <v>4899684</v>
       </c>
-      <c r="E200" s="18">
+      <c r="E200" s="19">
         <v>1211156</v>
       </c>
       <c r="F200" s="3">
@@ -7197,10 +7198,10 @@
       <c r="C201" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D201" s="18">
+      <c r="D201" s="19">
         <v>4899881</v>
       </c>
-      <c r="E201" s="18">
+      <c r="E201" s="19">
         <v>1211266</v>
       </c>
       <c r="F201" s="3">
@@ -7220,10 +7221,10 @@
       <c r="C202" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D202" s="18">
+      <c r="D202" s="19">
         <v>4899760</v>
       </c>
-      <c r="E202" s="18">
+      <c r="E202" s="19">
         <v>1211442</v>
       </c>
       <c r="F202" s="3">
@@ -7243,10 +7244,10 @@
       <c r="C203" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="D203" s="19">
+      <c r="D203" s="20">
         <v>4900108</v>
       </c>
-      <c r="E203" s="19">
+      <c r="E203" s="20">
         <v>1211781</v>
       </c>
       <c r="F203" s="5">
@@ -7266,10 +7267,10 @@
       <c r="C204" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="D204" s="19">
+      <c r="D204" s="20">
         <v>4900089</v>
       </c>
-      <c r="E204" s="19">
+      <c r="E204" s="20">
         <v>1211856</v>
       </c>
       <c r="F204" s="5">
@@ -7289,10 +7290,10 @@
       <c r="C205" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="D205" s="19">
+      <c r="D205" s="20">
         <v>4900035</v>
       </c>
-      <c r="E205" s="19">
+      <c r="E205" s="20">
         <v>1212122</v>
       </c>
       <c r="F205" s="5">
@@ -7312,10 +7313,10 @@
       <c r="C206" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="D206" s="18">
+      <c r="D206" s="19">
         <v>4900105</v>
       </c>
-      <c r="E206" s="18">
+      <c r="E206" s="19">
         <v>1211738</v>
       </c>
       <c r="F206" s="3">
@@ -7335,10 +7336,10 @@
       <c r="C207" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D207" s="18">
+      <c r="D207" s="19">
         <v>4899878</v>
       </c>
-      <c r="E207" s="18">
+      <c r="E207" s="19">
         <v>1211738</v>
       </c>
       <c r="F207" s="3">
@@ -7358,10 +7359,10 @@
       <c r="C208" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="D208" s="18">
+      <c r="D208" s="19">
         <v>4899887</v>
       </c>
-      <c r="E208" s="18">
+      <c r="E208" s="19">
         <v>1211895</v>
       </c>
       <c r="F208" s="3">
@@ -7381,10 +7382,10 @@
       <c r="C209" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="D209" s="19">
+      <c r="D209" s="20">
         <v>4899757</v>
       </c>
-      <c r="E209" s="19">
+      <c r="E209" s="20">
         <v>1212794</v>
       </c>
       <c r="F209" s="5">
@@ -7404,10 +7405,10 @@
       <c r="C210" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="D210" s="18">
+      <c r="D210" s="19">
         <v>4899703</v>
       </c>
-      <c r="E210" s="18">
+      <c r="E210" s="19">
         <v>1212650</v>
       </c>
       <c r="F210" s="3">
@@ -7427,10 +7428,10 @@
       <c r="C211" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="D211" s="18">
+      <c r="D211" s="19">
         <v>4899736</v>
       </c>
-      <c r="E211" s="18">
+      <c r="E211" s="19">
         <v>1213133</v>
       </c>
       <c r="F211" s="3">
@@ -7450,10 +7451,10 @@
       <c r="C212" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="D212" s="19">
+      <c r="D212" s="20">
         <v>4899849</v>
       </c>
-      <c r="E212" s="19">
+      <c r="E212" s="20">
         <v>1213179</v>
       </c>
       <c r="F212" s="5">
@@ -7473,10 +7474,10 @@
       <c r="C213" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D213" s="19">
+      <c r="D213" s="20">
         <v>4900247</v>
       </c>
-      <c r="E213" s="19">
+      <c r="E213" s="20">
         <v>1212249</v>
       </c>
       <c r="F213" s="5">
@@ -7496,11 +7497,11 @@
       <c r="C214" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="D214" s="19">
-        <v>4900276</v>
-      </c>
-      <c r="E214" s="19">
-        <v>4900276</v>
+      <c r="D214" s="20">
+        <v>4900283</v>
+      </c>
+      <c r="E214" s="20">
+        <v>1212214</v>
       </c>
       <c r="F214" s="5">
         <v>3</v>
@@ -7519,10 +7520,10 @@
       <c r="C215" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D215" s="18">
+      <c r="D215" s="19">
         <v>4900323</v>
       </c>
-      <c r="E215" s="18">
+      <c r="E215" s="19">
         <v>1211902</v>
       </c>
       <c r="F215" s="3">
@@ -7542,10 +7543,10 @@
       <c r="C216" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="D216" s="18">
+      <c r="D216" s="19">
         <v>4900441</v>
       </c>
-      <c r="E216" s="18">
+      <c r="E216" s="19">
         <v>1211771</v>
       </c>
       <c r="F216" s="3">
@@ -7565,10 +7566,10 @@
       <c r="C217" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="D217" s="19">
+      <c r="D217" s="20">
         <v>4900399</v>
       </c>
-      <c r="E217" s="19">
+      <c r="E217" s="20">
         <v>1211706</v>
       </c>
       <c r="F217" s="5">
@@ -7588,10 +7589,10 @@
       <c r="C218" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="D218" s="19">
+      <c r="D218" s="20">
         <v>4900351</v>
       </c>
-      <c r="E218" s="19">
+      <c r="E218" s="20">
         <v>1211904</v>
       </c>
       <c r="F218" s="5">
@@ -7611,10 +7612,10 @@
       <c r="C219" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="D219" s="19">
+      <c r="D219" s="20">
         <v>4900497</v>
       </c>
-      <c r="E219" s="19">
+      <c r="E219" s="20">
         <v>1211970</v>
       </c>
       <c r="F219" s="5">
@@ -7634,10 +7635,10 @@
       <c r="C220" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="D220" s="19">
+      <c r="D220" s="20">
         <v>4900193</v>
       </c>
-      <c r="E220" s="19">
+      <c r="E220" s="20">
         <v>1212288</v>
       </c>
       <c r="F220" s="5">
@@ -7657,10 +7658,10 @@
       <c r="C221" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="D221" s="19">
+      <c r="D221" s="20">
         <v>4900420</v>
       </c>
-      <c r="E221" s="19">
+      <c r="E221" s="20">
         <v>1211535</v>
       </c>
       <c r="F221" s="5">
@@ -7680,10 +7681,10 @@
       <c r="C222" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="D222" s="18">
+      <c r="D222" s="19">
         <v>4900330</v>
       </c>
-      <c r="E222" s="18">
+      <c r="E222" s="19">
         <v>1211614</v>
       </c>
       <c r="F222" s="3">
@@ -7703,10 +7704,10 @@
       <c r="C223" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="D223" s="18">
+      <c r="D223" s="19">
         <v>4900394</v>
       </c>
-      <c r="E223" s="18">
+      <c r="E223" s="19">
         <v>1211524</v>
       </c>
       <c r="F223" s="3">
@@ -7726,10 +7727,10 @@
       <c r="C224" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="D224" s="18">
+      <c r="D224" s="19">
         <v>4900466</v>
       </c>
-      <c r="E224" s="18">
+      <c r="E224" s="19">
         <v>1211249</v>
       </c>
       <c r="F224" s="3">
@@ -7749,10 +7750,10 @@
       <c r="C225" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="D225" s="19">
+      <c r="D225" s="20">
         <v>4900626</v>
       </c>
-      <c r="E225" s="19">
+      <c r="E225" s="20">
         <v>1211376</v>
       </c>
       <c r="F225" s="5">
@@ -7772,10 +7773,10 @@
       <c r="C226" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="D226" s="19">
+      <c r="D226" s="20">
         <v>4900703</v>
       </c>
-      <c r="E226" s="19">
+      <c r="E226" s="20">
         <v>1211509</v>
       </c>
       <c r="F226" s="5">
@@ -7786,25 +7787,25 @@
       </c>
     </row>
     <row r="227" spans="1:7">
-      <c r="A227" s="6">
-        <v>4</v>
-      </c>
-      <c r="B227" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C227" s="3" t="s">
+      <c r="A227" s="7">
+        <v>4</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C227" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="D227" s="18">
+      <c r="D227" s="20">
         <v>4900574</v>
       </c>
-      <c r="E227" s="18">
+      <c r="E227" s="20">
         <v>1211174</v>
       </c>
-      <c r="F227" s="3">
+      <c r="F227" s="5">
         <v>2</v>
       </c>
-      <c r="G227" s="3" t="s">
+      <c r="G227" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -7818,10 +7819,10 @@
       <c r="C228" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="D228" s="19">
+      <c r="D228" s="20">
         <v>4900682</v>
       </c>
-      <c r="E228" s="19">
+      <c r="E228" s="20">
         <v>1211274</v>
       </c>
       <c r="F228" s="5">
@@ -7841,10 +7842,10 @@
       <c r="C229" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="D229" s="19">
+      <c r="D229" s="20">
         <v>4900574</v>
       </c>
-      <c r="E229" s="19">
+      <c r="E229" s="20">
         <v>1211212</v>
       </c>
       <c r="F229" s="5">
@@ -7864,10 +7865,10 @@
       <c r="C230" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="D230" s="19">
+      <c r="D230" s="20">
         <v>4900595</v>
       </c>
-      <c r="E230" s="19">
+      <c r="E230" s="20">
         <v>1211247</v>
       </c>
       <c r="F230" s="5">
@@ -7887,10 +7888,10 @@
       <c r="C231" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="D231" s="19">
+      <c r="D231" s="20">
         <v>4900682</v>
       </c>
-      <c r="E231" s="19">
+      <c r="E231" s="20">
         <v>1211333</v>
       </c>
       <c r="F231" s="5">
@@ -7910,10 +7911,10 @@
       <c r="C232" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="D232" s="18">
+      <c r="D232" s="19">
         <v>4900532</v>
       </c>
-      <c r="E232" s="18">
+      <c r="E232" s="19">
         <v>1211003</v>
       </c>
       <c r="F232" s="3">
@@ -7933,10 +7934,10 @@
       <c r="C233" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="D233" s="18">
+      <c r="D233" s="19">
         <v>4900650</v>
       </c>
-      <c r="E233" s="18">
+      <c r="E233" s="19">
         <v>1211131</v>
       </c>
       <c r="F233" s="3">
@@ -7956,10 +7957,10 @@
       <c r="C234" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="D234" s="19">
+      <c r="D234" s="20">
         <v>4900800</v>
       </c>
-      <c r="E234" s="19">
+      <c r="E234" s="20">
         <v>1211156</v>
       </c>
       <c r="F234" s="5">
@@ -7979,10 +7980,10 @@
       <c r="C235" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="D235" s="19">
+      <c r="D235" s="20">
         <v>4900689</v>
       </c>
-      <c r="E235" s="19">
+      <c r="E235" s="20">
         <v>1211167</v>
       </c>
       <c r="F235" s="5">
@@ -8002,10 +8003,10 @@
       <c r="C236" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="D236" s="19">
+      <c r="D236" s="20">
         <v>4900794</v>
       </c>
-      <c r="E236" s="19">
+      <c r="E236" s="20">
         <v>1211120</v>
       </c>
       <c r="F236" s="5">
@@ -8025,10 +8026,10 @@
       <c r="C237" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="D237" s="19">
+      <c r="D237" s="20">
         <v>4900723</v>
       </c>
-      <c r="E237" s="19">
+      <c r="E237" s="20">
         <v>1211057</v>
       </c>
       <c r="F237" s="5">
@@ -8048,10 +8049,10 @@
       <c r="C238" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="D238" s="19">
+      <c r="D238" s="20">
         <v>4900979</v>
       </c>
-      <c r="E238" s="19">
+      <c r="E238" s="20">
         <v>1211096</v>
       </c>
       <c r="F238" s="5">
@@ -8071,10 +8072,10 @@
       <c r="C239" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="D239" s="18">
+      <c r="D239" s="19">
         <v>4900229</v>
       </c>
-      <c r="E239" s="18">
+      <c r="E239" s="19">
         <v>1210988</v>
       </c>
       <c r="F239" s="3">
@@ -8094,10 +8095,10 @@
       <c r="C240" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="D240" s="19">
+      <c r="D240" s="20">
         <v>4900959</v>
       </c>
-      <c r="E240" s="19">
+      <c r="E240" s="20">
         <v>1211777</v>
       </c>
       <c r="F240" s="5">
@@ -8117,10 +8118,10 @@
       <c r="C241" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="D241" s="19">
+      <c r="D241" s="20">
         <v>4900776</v>
       </c>
-      <c r="E241" s="19">
+      <c r="E241" s="20">
         <v>1212032</v>
       </c>
       <c r="F241" s="5">
@@ -8140,10 +8141,10 @@
       <c r="C242" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="D242" s="18">
+      <c r="D242" s="19">
         <v>4900742</v>
       </c>
-      <c r="E242" s="18">
+      <c r="E242" s="19">
         <v>1212013</v>
       </c>
       <c r="F242" s="3">
@@ -8163,10 +8164,10 @@
       <c r="C243" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D243" s="18">
+      <c r="D243" s="19">
         <v>4898493</v>
       </c>
-      <c r="E243" s="18">
+      <c r="E243" s="19">
         <v>1216796</v>
       </c>
       <c r="F243" s="3">
@@ -8186,10 +8187,10 @@
       <c r="C244" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="D244" s="19">
+      <c r="D244" s="20">
         <v>4900865</v>
       </c>
-      <c r="E244" s="19">
+      <c r="E244" s="20">
         <v>1211839</v>
       </c>
       <c r="F244" s="5">
@@ -8209,10 +8210,10 @@
       <c r="C245" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="D245" s="19">
+      <c r="D245" s="20">
         <v>4900857</v>
       </c>
-      <c r="E245" s="19">
+      <c r="E245" s="20">
         <v>1211955</v>
       </c>
       <c r="F245" s="5">
@@ -8232,10 +8233,10 @@
       <c r="C246" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="D246" s="19">
+      <c r="D246" s="20">
         <v>4900735</v>
       </c>
-      <c r="E246" s="19">
+      <c r="E246" s="20">
         <v>1212035</v>
       </c>
       <c r="F246" s="5">
@@ -8255,10 +8256,10 @@
       <c r="C247" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="D247" s="18">
+      <c r="D247" s="19">
         <v>4900793</v>
       </c>
-      <c r="E247" s="18">
+      <c r="E247" s="19">
         <v>1212355</v>
       </c>
       <c r="F247" s="3">
@@ -8278,10 +8279,10 @@
       <c r="C248" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="D248" s="19">
+      <c r="D248" s="20">
         <v>4900700</v>
       </c>
-      <c r="E248" s="19">
+      <c r="E248" s="20">
         <v>1212282</v>
       </c>
       <c r="F248" s="5">
@@ -8301,10 +8302,10 @@
       <c r="C249" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="D249" s="18">
+      <c r="D249" s="19">
         <v>4900869</v>
       </c>
-      <c r="E249" s="18">
+      <c r="E249" s="19">
         <v>1212190</v>
       </c>
       <c r="F249" s="3">
@@ -8324,10 +8325,10 @@
       <c r="C250" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="D250" s="19">
+      <c r="D250" s="20">
         <v>4900886</v>
       </c>
-      <c r="E250" s="19">
+      <c r="E250" s="20">
         <v>1212154</v>
       </c>
       <c r="F250" s="5">
@@ -8347,10 +8348,10 @@
       <c r="C251" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="D251" s="19">
+      <c r="D251" s="20">
         <v>4900925</v>
       </c>
-      <c r="E251" s="19">
+      <c r="E251" s="20">
         <v>1212020</v>
       </c>
       <c r="F251" s="5">
@@ -8370,10 +8371,10 @@
       <c r="C252" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="D252" s="19">
+      <c r="D252" s="20">
         <v>4900937</v>
       </c>
-      <c r="E252" s="19">
+      <c r="E252" s="20">
         <v>1212078</v>
       </c>
       <c r="F252" s="5">
@@ -8393,10 +8394,10 @@
       <c r="C253" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="D253" s="19">
+      <c r="D253" s="20">
         <v>4900904</v>
       </c>
-      <c r="E253" s="19">
+      <c r="E253" s="20">
         <v>1212188</v>
       </c>
       <c r="F253" s="5">
@@ -8416,10 +8417,10 @@
       <c r="C254" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="D254" s="19">
+      <c r="D254" s="20">
         <v>4901034</v>
       </c>
-      <c r="E254" s="19">
+      <c r="E254" s="20">
         <v>1211946</v>
       </c>
       <c r="F254" s="5">
@@ -8439,10 +8440,10 @@
       <c r="C255" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="D255" s="18">
+      <c r="D255" s="19">
         <v>4901062</v>
       </c>
-      <c r="E255" s="18">
+      <c r="E255" s="19">
         <v>1211866</v>
       </c>
       <c r="F255" s="3">
@@ -8462,10 +8463,10 @@
       <c r="C256" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="D256" s="19">
+      <c r="D256" s="20">
         <v>4901119</v>
       </c>
-      <c r="E256" s="19">
+      <c r="E256" s="20">
         <v>1211244</v>
       </c>
       <c r="F256" s="5">
@@ -8485,10 +8486,10 @@
       <c r="C257" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="D257" s="19">
+      <c r="D257" s="20">
         <v>4901099</v>
       </c>
-      <c r="E257" s="19">
+      <c r="E257" s="20">
         <v>1211540</v>
       </c>
       <c r="F257" s="5">
@@ -8508,10 +8509,10 @@
       <c r="C258" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="D258" s="18">
+      <c r="D258" s="19">
         <v>4901117</v>
       </c>
-      <c r="E258" s="18">
+      <c r="E258" s="19">
         <v>1211319</v>
       </c>
       <c r="F258" s="3">
@@ -8531,10 +8532,10 @@
       <c r="C259" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="D259" s="19">
+      <c r="D259" s="20">
         <v>4901016</v>
       </c>
-      <c r="E259" s="19">
+      <c r="E259" s="20">
         <v>1211763</v>
       </c>
       <c r="F259" s="5">
@@ -8554,10 +8555,10 @@
       <c r="C260" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="D260" s="18">
+      <c r="D260" s="19">
         <v>4901033</v>
       </c>
-      <c r="E260" s="18">
+      <c r="E260" s="19">
         <v>1211670</v>
       </c>
       <c r="F260" s="3">
@@ -8577,10 +8578,10 @@
       <c r="C261" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="D261" s="19">
+      <c r="D261" s="20">
         <v>4900869</v>
       </c>
-      <c r="E261" s="19">
+      <c r="E261" s="20">
         <v>1211275</v>
       </c>
       <c r="F261" s="5">
@@ -8600,10 +8601,10 @@
       <c r="C262" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="D262" s="18">
+      <c r="D262" s="19">
         <v>4900906</v>
       </c>
-      <c r="E262" s="18">
+      <c r="E262" s="19">
         <v>1211336</v>
       </c>
       <c r="F262" s="3">
@@ -8623,10 +8624,10 @@
       <c r="C263" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="D263" s="19">
+      <c r="D263" s="20">
         <v>4901292</v>
       </c>
-      <c r="E263" s="19">
+      <c r="E263" s="20">
         <v>1211249</v>
       </c>
       <c r="F263" s="5">
@@ -8646,10 +8647,10 @@
       <c r="C264" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="D264" s="18">
+      <c r="D264" s="19">
         <v>4901315</v>
       </c>
-      <c r="E264" s="18">
+      <c r="E264" s="19">
         <v>1211270</v>
       </c>
       <c r="F264" s="3">
@@ -8669,10 +8670,10 @@
       <c r="C265" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D265" s="18">
+      <c r="D265" s="19">
         <v>4901217</v>
       </c>
-      <c r="E265" s="18">
+      <c r="E265" s="19">
         <v>1211098</v>
       </c>
       <c r="F265" s="3">
@@ -8692,10 +8693,10 @@
       <c r="C266" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D266" s="18">
+      <c r="D266" s="19">
         <v>4901425</v>
       </c>
-      <c r="E266" s="18">
+      <c r="E266" s="19">
         <v>1211946</v>
       </c>
       <c r="F266" s="3">
@@ -8715,10 +8716,10 @@
       <c r="C267" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="D267" s="19">
+      <c r="D267" s="20">
         <v>4901457</v>
       </c>
-      <c r="E267" s="19">
+      <c r="E267" s="20">
         <v>1212213</v>
       </c>
       <c r="F267" s="5">
@@ -8738,10 +8739,10 @@
       <c r="C268" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="D268" s="19">
+      <c r="D268" s="20">
         <v>4901481</v>
       </c>
-      <c r="E268" s="19">
+      <c r="E268" s="20">
         <v>1212069</v>
       </c>
       <c r="F268" s="5">
@@ -8761,10 +8762,10 @@
       <c r="C269" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="D269" s="19">
+      <c r="D269" s="20">
         <v>4901368</v>
       </c>
-      <c r="E269" s="19">
+      <c r="E269" s="20">
         <v>1212244</v>
       </c>
       <c r="F269" s="5">
@@ -8784,10 +8785,10 @@
       <c r="C270" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="D270" s="19">
+      <c r="D270" s="20">
         <v>4901289</v>
       </c>
-      <c r="E270" s="19">
+      <c r="E270" s="20">
         <v>1212199</v>
       </c>
       <c r="F270" s="5">
@@ -8807,10 +8808,10 @@
       <c r="C271" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="D271" s="18">
+      <c r="D271" s="19">
         <v>4901231</v>
       </c>
-      <c r="E271" s="18">
+      <c r="E271" s="19">
         <v>1212128</v>
       </c>
       <c r="F271" s="3">
@@ -8830,10 +8831,10 @@
       <c r="C272" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="D272" s="18">
+      <c r="D272" s="19">
         <v>4901286</v>
       </c>
-      <c r="E272" s="18">
+      <c r="E272" s="19">
         <v>1212497</v>
       </c>
       <c r="F272" s="3">
@@ -8853,10 +8854,10 @@
       <c r="C273" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="D273" s="19">
+      <c r="D273" s="20">
         <v>4901375</v>
       </c>
-      <c r="E273" s="19">
+      <c r="E273" s="20">
         <v>1212396</v>
       </c>
       <c r="F273" s="5">
@@ -8876,10 +8877,10 @@
       <c r="C274" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="D274" s="19">
+      <c r="D274" s="20">
         <v>4901288</v>
       </c>
-      <c r="E274" s="19">
+      <c r="E274" s="20">
         <v>1213331</v>
       </c>
       <c r="F274" s="5">
@@ -8899,10 +8900,10 @@
       <c r="C275" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D275" s="18">
+      <c r="D275" s="19">
         <v>4901111</v>
       </c>
-      <c r="E275" s="18">
+      <c r="E275" s="19">
         <v>1213257</v>
       </c>
       <c r="F275" s="3">
@@ -8922,10 +8923,10 @@
       <c r="C276" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="D276" s="18">
+      <c r="D276" s="19">
         <v>4901227</v>
       </c>
-      <c r="E276" s="18">
+      <c r="E276" s="19">
         <v>1213465</v>
       </c>
       <c r="F276" s="3">
@@ -8945,10 +8946,10 @@
       <c r="C277" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="D277" s="18">
+      <c r="D277" s="19">
         <v>4901176</v>
       </c>
-      <c r="E277" s="18">
+      <c r="E277" s="19">
         <v>1213759</v>
       </c>
       <c r="F277" s="3">
@@ -8968,10 +8969,10 @@
       <c r="C278" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D278" s="18">
+      <c r="D278" s="19">
         <v>4900983</v>
       </c>
-      <c r="E278" s="18">
+      <c r="E278" s="19">
         <v>1213624</v>
       </c>
       <c r="F278" s="3">
@@ -8991,10 +8992,10 @@
       <c r="C279" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="D279" s="19">
+      <c r="D279" s="20">
         <v>4900949</v>
       </c>
-      <c r="E279" s="19">
+      <c r="E279" s="20">
         <v>1213543</v>
       </c>
       <c r="F279" s="5">
@@ -9014,10 +9015,10 @@
       <c r="C280" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="D280" s="18">
+      <c r="D280" s="19">
         <v>4901346</v>
       </c>
-      <c r="E280" s="18">
+      <c r="E280" s="19">
         <v>1213479</v>
       </c>
       <c r="F280" s="3">
@@ -9037,10 +9038,10 @@
       <c r="C281" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="D281" s="19">
+      <c r="D281" s="20">
         <v>4901576</v>
       </c>
-      <c r="E281" s="19">
+      <c r="E281" s="20">
         <v>1212299</v>
       </c>
       <c r="F281" s="5">
@@ -9060,10 +9061,10 @@
       <c r="C282" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="D282" s="19">
+      <c r="D282" s="20">
         <v>4901527</v>
       </c>
-      <c r="E282" s="19">
+      <c r="E282" s="20">
         <v>1212346</v>
       </c>
       <c r="F282" s="5">
@@ -9083,10 +9084,10 @@
       <c r="C283" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="D283" s="18">
+      <c r="D283" s="19">
         <v>4901485</v>
       </c>
-      <c r="E283" s="18">
+      <c r="E283" s="19">
         <v>1212359</v>
       </c>
       <c r="F283" s="3">
@@ -9106,10 +9107,10 @@
       <c r="C284" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D284" s="19">
+      <c r="D284" s="20">
         <v>4901542</v>
       </c>
-      <c r="E284" s="19">
+      <c r="E284" s="20">
         <v>1212396</v>
       </c>
       <c r="F284" s="5">
@@ -9129,10 +9130,10 @@
       <c r="C285" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="D285" s="18">
+      <c r="D285" s="19">
         <v>4901611</v>
       </c>
-      <c r="E285" s="18">
+      <c r="E285" s="19">
         <v>1211954</v>
       </c>
       <c r="F285" s="3">
@@ -9152,10 +9153,10 @@
       <c r="C286" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="D286" s="18">
+      <c r="D286" s="19">
         <v>4901616</v>
       </c>
-      <c r="E286" s="18">
+      <c r="E286" s="19">
         <v>1211697</v>
       </c>
       <c r="F286" s="3">
@@ -9175,10 +9176,10 @@
       <c r="C287" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="D287" s="18">
+      <c r="D287" s="19">
         <v>4901664</v>
       </c>
-      <c r="E287" s="18">
+      <c r="E287" s="19">
         <v>1211526</v>
       </c>
       <c r="F287" s="3">
@@ -9198,10 +9199,10 @@
       <c r="C288" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="D288" s="19">
+      <c r="D288" s="20">
         <v>4901740</v>
       </c>
-      <c r="E288" s="19">
+      <c r="E288" s="20">
         <v>1211532</v>
       </c>
       <c r="F288" s="5">
@@ -9221,10 +9222,10 @@
       <c r="C289" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="D289" s="19">
+      <c r="D289" s="20">
         <v>4901785</v>
       </c>
-      <c r="E289" s="19">
+      <c r="E289" s="20">
         <v>1211558</v>
       </c>
       <c r="F289" s="5">
@@ -9244,10 +9245,10 @@
       <c r="C290" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="D290" s="18">
+      <c r="D290" s="19">
         <v>4901710</v>
       </c>
-      <c r="E290" s="18">
+      <c r="E290" s="19">
         <v>1211350</v>
       </c>
       <c r="F290" s="3">
@@ -9267,10 +9268,10 @@
       <c r="C291" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="D291" s="18">
+      <c r="D291" s="19">
         <v>4901848</v>
       </c>
-      <c r="E291" s="18">
+      <c r="E291" s="19">
         <v>1211198</v>
       </c>
       <c r="F291" s="3">
@@ -9290,10 +9291,10 @@
       <c r="C292" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="D292" s="19">
+      <c r="D292" s="20">
         <v>4901817</v>
       </c>
-      <c r="E292" s="19">
+      <c r="E292" s="20">
         <v>1211169</v>
       </c>
       <c r="F292" s="5">
@@ -9313,10 +9314,10 @@
       <c r="C293" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="D293" s="18">
+      <c r="D293" s="19">
         <v>4901815</v>
       </c>
-      <c r="E293" s="18">
+      <c r="E293" s="19">
         <v>1210951</v>
       </c>
       <c r="F293" s="3">
@@ -9336,10 +9337,10 @@
       <c r="C294" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="D294" s="18">
+      <c r="D294" s="19">
         <v>4901885</v>
       </c>
-      <c r="E294" s="18">
+      <c r="E294" s="19">
         <v>1210972</v>
       </c>
       <c r="F294" s="3">
@@ -9359,10 +9360,10 @@
       <c r="C295" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="D295" s="18">
+      <c r="D295" s="19">
         <v>4901567</v>
       </c>
-      <c r="E295" s="18">
+      <c r="E295" s="19">
         <v>1210683</v>
       </c>
       <c r="F295" s="3">
@@ -9382,10 +9383,10 @@
       <c r="C296" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="D296" s="18">
+      <c r="D296" s="19">
         <v>4901620</v>
       </c>
-      <c r="E296" s="18">
+      <c r="E296" s="19">
         <v>1210965</v>
       </c>
       <c r="F296" s="3">
@@ -9405,10 +9406,10 @@
       <c r="C297" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="D297" s="19">
+      <c r="D297" s="20">
         <v>4901393</v>
       </c>
-      <c r="E297" s="19">
+      <c r="E297" s="20">
         <v>1211616</v>
       </c>
       <c r="F297" s="5">
@@ -9428,10 +9429,10 @@
       <c r="C298" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="D298" s="19">
+      <c r="D298" s="20">
         <v>4901457</v>
       </c>
-      <c r="E298" s="19">
+      <c r="E298" s="20">
         <v>1211185</v>
       </c>
       <c r="F298" s="5">
@@ -9451,10 +9452,10 @@
       <c r="C299" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="D299" s="18">
+      <c r="D299" s="19">
         <v>4901464</v>
       </c>
-      <c r="E299" s="18">
+      <c r="E299" s="19">
         <v>1211308</v>
       </c>
       <c r="F299" s="3">
@@ -9474,10 +9475,10 @@
       <c r="C300" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="D300" s="18">
+      <c r="D300" s="19">
         <v>4901551</v>
       </c>
-      <c r="E300" s="18">
+      <c r="E300" s="19">
         <v>1211577</v>
       </c>
       <c r="F300" s="3">
@@ -9497,10 +9498,10 @@
       <c r="C301" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D301" s="18">
+      <c r="D301" s="19">
         <v>4899120</v>
       </c>
-      <c r="E301" s="18">
+      <c r="E301" s="19">
         <v>1212554</v>
       </c>
       <c r="F301" s="3">
@@ -9520,10 +9521,10 @@
       <c r="C302" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="D302" s="18">
+      <c r="D302" s="19">
         <v>4899101</v>
       </c>
-      <c r="E302" s="18">
+      <c r="E302" s="19">
         <v>1212511</v>
       </c>
       <c r="F302" s="3">
@@ -9543,10 +9544,10 @@
       <c r="C303" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D303" s="18">
+      <c r="D303" s="19">
         <v>4899145</v>
       </c>
-      <c r="E303" s="18">
+      <c r="E303" s="19">
         <v>1212700</v>
       </c>
       <c r="F303" s="3">
@@ -9566,10 +9567,10 @@
       <c r="C304" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D304" s="18">
+      <c r="D304" s="19">
         <v>4899113</v>
       </c>
-      <c r="E304" s="18">
+      <c r="E304" s="19">
         <v>1213063</v>
       </c>
       <c r="F304" s="3">
@@ -9589,10 +9590,10 @@
       <c r="C305" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D305" s="19">
+      <c r="D305" s="20">
         <v>4899091</v>
       </c>
-      <c r="E305" s="19">
+      <c r="E305" s="20">
         <v>1212869</v>
       </c>
       <c r="F305" s="5">
@@ -9612,10 +9613,10 @@
       <c r="C306" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="D306" s="18">
+      <c r="D306" s="19">
         <v>4898745</v>
       </c>
-      <c r="E306" s="18">
+      <c r="E306" s="19">
         <v>1214450</v>
       </c>
       <c r="F306" s="3">
@@ -9635,10 +9636,10 @@
       <c r="C307" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D307" s="18">
+      <c r="D307" s="19">
         <v>4898999</v>
       </c>
-      <c r="E307" s="18">
+      <c r="E307" s="19">
         <v>1212687</v>
       </c>
       <c r="F307" s="3">
@@ -9658,10 +9659,10 @@
       <c r="C308" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D308" s="18">
+      <c r="D308" s="19">
         <v>4898972</v>
       </c>
-      <c r="E308" s="18">
+      <c r="E308" s="19">
         <v>1212584</v>
       </c>
       <c r="F308" s="3">
@@ -9681,10 +9682,10 @@
       <c r="C309" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="D309" s="18">
+      <c r="D309" s="19">
         <v>4898804</v>
       </c>
-      <c r="E309" s="18">
+      <c r="E309" s="19">
         <v>1212685</v>
       </c>
       <c r="F309" s="3">
@@ -9704,10 +9705,10 @@
       <c r="C310" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D310" s="18">
+      <c r="D310" s="19">
         <v>4898809</v>
       </c>
-      <c r="E310" s="18">
+      <c r="E310" s="19">
         <v>1212934</v>
       </c>
       <c r="F310" s="3">
@@ -9727,10 +9728,10 @@
       <c r="C311" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="D311" s="18">
+      <c r="D311" s="19">
         <v>4898966</v>
       </c>
-      <c r="E311" s="18">
+      <c r="E311" s="19">
         <v>1212883</v>
       </c>
       <c r="F311" s="3">
@@ -9750,10 +9751,10 @@
       <c r="C312" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="D312" s="19">
+      <c r="D312" s="20">
         <v>4899030</v>
       </c>
-      <c r="E312" s="19">
+      <c r="E312" s="20">
         <v>1213080</v>
       </c>
       <c r="F312" s="5">
@@ -9773,10 +9774,10 @@
       <c r="C313" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D313" s="18">
+      <c r="D313" s="19">
         <v>4899013</v>
       </c>
-      <c r="E313" s="18">
+      <c r="E313" s="19">
         <v>1213133</v>
       </c>
       <c r="F313" s="3">
@@ -9796,10 +9797,10 @@
       <c r="C314" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D314" s="18">
+      <c r="D314" s="19">
         <v>4898873</v>
       </c>
-      <c r="E314" s="18">
+      <c r="E314" s="19">
         <v>1213177</v>
       </c>
       <c r="F314" s="3">
@@ -9819,10 +9820,10 @@
       <c r="C315" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D315" s="18">
+      <c r="D315" s="19">
         <v>4899086</v>
       </c>
-      <c r="E315" s="18">
+      <c r="E315" s="19">
         <v>1213641</v>
       </c>
       <c r="F315" s="3">
@@ -9842,10 +9843,10 @@
       <c r="C316" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D316" s="18">
+      <c r="D316" s="19">
         <v>4899128</v>
       </c>
-      <c r="E316" s="18">
+      <c r="E316" s="19">
         <v>1213378</v>
       </c>
       <c r="F316" s="3">
@@ -9865,10 +9866,10 @@
       <c r="C317" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D317" s="18">
+      <c r="D317" s="19">
         <v>4899298</v>
       </c>
-      <c r="E317" s="18">
+      <c r="E317" s="19">
         <v>1214074</v>
       </c>
       <c r="F317" s="3">
@@ -9888,10 +9889,10 @@
       <c r="C318" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D318" s="18">
+      <c r="D318" s="19">
         <v>4899175</v>
       </c>
-      <c r="E318" s="18">
+      <c r="E318" s="19">
         <v>1214339</v>
       </c>
       <c r="F318" s="3">
@@ -9911,10 +9912,10 @@
       <c r="C319" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D319" s="18">
+      <c r="D319" s="19">
         <v>4899023</v>
       </c>
-      <c r="E319" s="18">
+      <c r="E319" s="19">
         <v>1214268</v>
       </c>
       <c r="F319" s="3">
@@ -9934,10 +9935,10 @@
       <c r="C320" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="D320" s="18">
+      <c r="D320" s="19">
         <v>4898990</v>
       </c>
-      <c r="E320" s="18">
+      <c r="E320" s="19">
         <v>1214519</v>
       </c>
       <c r="F320" s="3">
@@ -9957,10 +9958,10 @@
       <c r="C321" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="D321" s="19">
+      <c r="D321" s="20">
         <v>4900546</v>
       </c>
-      <c r="E321" s="19">
+      <c r="E321" s="20">
         <v>1210588</v>
       </c>
       <c r="F321" s="5">
@@ -9980,10 +9981,10 @@
       <c r="C322" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D322" s="19">
+      <c r="D322" s="20">
         <v>4898516</v>
       </c>
-      <c r="E322" s="19">
+      <c r="E322" s="20">
         <v>1213740</v>
       </c>
       <c r="F322" s="5">
@@ -10003,10 +10004,10 @@
       <c r="C323" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D323" s="19">
+      <c r="D323" s="20">
         <v>4898528</v>
       </c>
-      <c r="E323" s="19">
+      <c r="E323" s="20">
         <v>1213632</v>
       </c>
       <c r="F323" s="5">
@@ -10026,10 +10027,10 @@
       <c r="C324" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="D324" s="19">
+      <c r="D324" s="20">
         <v>4898650</v>
       </c>
-      <c r="E324" s="19">
+      <c r="E324" s="20">
         <v>1213731</v>
       </c>
       <c r="F324" s="5">
@@ -10049,10 +10050,10 @@
       <c r="C325" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="D325" s="19">
+      <c r="D325" s="20">
         <v>4898697</v>
       </c>
-      <c r="E325" s="19">
+      <c r="E325" s="20">
         <v>1214293</v>
       </c>
       <c r="F325" s="5">
@@ -10072,10 +10073,10 @@
       <c r="C326" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="D326" s="19">
+      <c r="D326" s="20">
         <v>4898724</v>
       </c>
-      <c r="E326" s="19">
+      <c r="E326" s="20">
         <v>1214351</v>
       </c>
       <c r="F326" s="5">
@@ -10095,10 +10096,10 @@
       <c r="C327" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="D327" s="19">
+      <c r="D327" s="20">
         <v>4898874</v>
       </c>
-      <c r="E327" s="19">
+      <c r="E327" s="20">
         <v>1214571</v>
       </c>
       <c r="F327" s="5">
@@ -10118,10 +10119,10 @@
       <c r="C328" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D328" s="19">
+      <c r="D328" s="20">
         <v>4898804</v>
       </c>
-      <c r="E328" s="19">
+      <c r="E328" s="20">
         <v>1214274</v>
       </c>
       <c r="F328" s="5">
@@ -10141,10 +10142,10 @@
       <c r="C329" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D329" s="19">
+      <c r="D329" s="20">
         <v>4898917</v>
       </c>
-      <c r="E329" s="19">
+      <c r="E329" s="20">
         <v>1214671</v>
       </c>
       <c r="F329" s="5">
@@ -10164,10 +10165,10 @@
       <c r="C330" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="D330" s="19">
+      <c r="D330" s="20">
         <v>4898829</v>
       </c>
-      <c r="E330" s="19">
+      <c r="E330" s="20">
         <v>1214717</v>
       </c>
       <c r="F330" s="5">
@@ -10187,10 +10188,10 @@
       <c r="C331" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D331" s="19">
+      <c r="D331" s="20">
         <v>4898815</v>
       </c>
-      <c r="E331" s="19">
+      <c r="E331" s="20">
         <v>1214831</v>
       </c>
       <c r="F331" s="5">
@@ -10210,10 +10211,10 @@
       <c r="C332" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="D332" s="19">
+      <c r="D332" s="20">
         <v>4898735</v>
       </c>
-      <c r="E332" s="19">
+      <c r="E332" s="20">
         <v>1214906</v>
       </c>
       <c r="F332" s="5">
@@ -10233,10 +10234,10 @@
       <c r="C333" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="D333" s="18">
+      <c r="D333" s="19">
         <v>4898629</v>
       </c>
-      <c r="E333" s="18">
+      <c r="E333" s="19">
         <v>1214786</v>
       </c>
       <c r="F333" s="3">
@@ -10256,10 +10257,10 @@
       <c r="C334" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="D334" s="19">
+      <c r="D334" s="20">
         <v>4898813</v>
       </c>
-      <c r="E334" s="19">
+      <c r="E334" s="20">
         <v>1214839</v>
       </c>
       <c r="F334" s="5">
@@ -10279,10 +10280,10 @@
       <c r="C335" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="D335" s="19">
+      <c r="D335" s="20">
         <v>4898670</v>
       </c>
-      <c r="E335" s="19">
+      <c r="E335" s="20">
         <v>1214692</v>
       </c>
       <c r="F335" s="5">
@@ -10302,10 +10303,10 @@
       <c r="C336" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="D336" s="18">
+      <c r="D336" s="19">
         <v>4898640</v>
       </c>
-      <c r="E336" s="18">
+      <c r="E336" s="19">
         <v>1214521</v>
       </c>
       <c r="F336" s="3">
@@ -10325,10 +10326,10 @@
       <c r="C337" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D337" s="18">
+      <c r="D337" s="19">
         <v>4898503</v>
       </c>
-      <c r="E337" s="18">
+      <c r="E337" s="19">
         <v>1213241</v>
       </c>
       <c r="F337" s="3">
@@ -10348,10 +10349,10 @@
       <c r="C338" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D338" s="18">
+      <c r="D338" s="19">
         <v>4898554</v>
       </c>
-      <c r="E338" s="18">
+      <c r="E338" s="19">
         <v>1214148</v>
       </c>
       <c r="F338" s="3">
@@ -10371,10 +10372,10 @@
       <c r="C339" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D339" s="18">
+      <c r="D339" s="19">
         <v>4898980</v>
       </c>
-      <c r="E339" s="18">
+      <c r="E339" s="19">
         <v>1213871</v>
       </c>
       <c r="F339" s="3">
@@ -10394,10 +10395,10 @@
       <c r="C340" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D340" s="18">
+      <c r="D340" s="19">
         <v>4898847</v>
       </c>
-      <c r="E340" s="18">
+      <c r="E340" s="19">
         <v>1213860</v>
       </c>
       <c r="F340" s="3">
@@ -10417,10 +10418,10 @@
       <c r="C341" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="D341" s="19">
+      <c r="D341" s="20">
         <v>4898666</v>
       </c>
-      <c r="E341" s="19">
+      <c r="E341" s="20">
         <v>1213614</v>
       </c>
       <c r="F341" s="5">
@@ -10440,10 +10441,10 @@
       <c r="C342" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="D342" s="19">
+      <c r="D342" s="20">
         <v>4898650</v>
       </c>
-      <c r="E342" s="19">
+      <c r="E342" s="20">
         <v>1213527</v>
       </c>
       <c r="F342" s="5">
@@ -10463,10 +10464,10 @@
       <c r="C343" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="D343" s="19">
+      <c r="D343" s="20">
         <v>4898629</v>
       </c>
-      <c r="E343" s="19">
+      <c r="E343" s="20">
         <v>1213465</v>
       </c>
       <c r="F343" s="5">
@@ -10486,10 +10487,10 @@
       <c r="C344" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="D344" s="18">
+      <c r="D344" s="19">
         <v>4898653</v>
       </c>
-      <c r="E344" s="18">
+      <c r="E344" s="19">
         <v>1213879</v>
       </c>
       <c r="F344" s="3">
@@ -10509,10 +10510,10 @@
       <c r="C345" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="D345" s="18">
+      <c r="D345" s="19">
         <v>4898377</v>
       </c>
-      <c r="E345" s="18">
+      <c r="E345" s="19">
         <v>1213575</v>
       </c>
       <c r="F345" s="3">
@@ -10532,10 +10533,10 @@
       <c r="C346" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D346" s="18">
+      <c r="D346" s="19">
         <v>4898523</v>
       </c>
-      <c r="E346" s="18">
+      <c r="E346" s="19">
         <v>1213879</v>
       </c>
       <c r="F346" s="3">
@@ -10555,10 +10556,10 @@
       <c r="C347" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D347" s="18">
+      <c r="D347" s="19">
         <v>4898227</v>
       </c>
-      <c r="E347" s="18">
+      <c r="E347" s="19">
         <v>1213823</v>
       </c>
       <c r="F347" s="3">
@@ -10578,10 +10579,10 @@
       <c r="C348" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D348" s="18">
+      <c r="D348" s="19">
         <v>4898225</v>
       </c>
-      <c r="E348" s="18">
+      <c r="E348" s="19">
         <v>1214145</v>
       </c>
       <c r="F348" s="3">
@@ -10601,10 +10602,10 @@
       <c r="C349" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D349" s="18">
+      <c r="D349" s="19">
         <v>4898353</v>
       </c>
-      <c r="E349" s="18">
+      <c r="E349" s="19">
         <v>1214519</v>
       </c>
       <c r="F349" s="3">
@@ -10624,10 +10625,10 @@
       <c r="C350" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D350" s="18">
+      <c r="D350" s="19">
         <v>4898732</v>
       </c>
-      <c r="E350" s="18">
+      <c r="E350" s="19">
         <v>1213459</v>
       </c>
       <c r="F350" s="3">
@@ -10647,10 +10648,10 @@
       <c r="C351" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="D351" s="19">
+      <c r="D351" s="20">
         <v>4901633</v>
       </c>
-      <c r="E351" s="19">
+      <c r="E351" s="20">
         <v>1205995</v>
       </c>
       <c r="F351" s="5">
@@ -10670,10 +10671,10 @@
       <c r="C352" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D352" s="19">
+      <c r="D352" s="20">
         <v>4901809</v>
       </c>
-      <c r="E352" s="19">
+      <c r="E352" s="20">
         <v>1204631</v>
       </c>
       <c r="F352" s="5">
@@ -10693,10 +10694,10 @@
       <c r="C353" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D353" s="18">
+      <c r="D353" s="19">
         <v>4901821</v>
       </c>
-      <c r="E353" s="18">
+      <c r="E353" s="19">
         <v>1205050</v>
       </c>
       <c r="F353" s="3">
@@ -10716,10 +10717,10 @@
       <c r="C354" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="D354" s="18">
+      <c r="D354" s="19">
         <v>4902446</v>
       </c>
-      <c r="E354" s="18">
+      <c r="E354" s="19">
         <v>1205699</v>
       </c>
       <c r="F354" s="3">
@@ -10739,10 +10740,10 @@
       <c r="C355" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D355" s="18">
+      <c r="D355" s="19">
         <v>4902637</v>
       </c>
-      <c r="E355" s="18">
+      <c r="E355" s="19">
         <v>1205912</v>
       </c>
       <c r="F355" s="3">
@@ -10762,10 +10763,10 @@
       <c r="C356" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="D356" s="18">
+      <c r="D356" s="19">
         <v>4902472</v>
       </c>
-      <c r="E356" s="18">
+      <c r="E356" s="19">
         <v>1205874</v>
       </c>
       <c r="F356" s="3">
@@ -10785,10 +10786,10 @@
       <c r="C357" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="D357" s="19">
+      <c r="D357" s="20">
         <v>4902470</v>
       </c>
-      <c r="E357" s="19">
+      <c r="E357" s="20">
         <v>1205850</v>
       </c>
       <c r="F357" s="5">
@@ -10808,10 +10809,10 @@
       <c r="C358" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="D358" s="19">
+      <c r="D358" s="20">
         <v>4902386</v>
       </c>
-      <c r="E358" s="19">
+      <c r="E358" s="20">
         <v>1205737</v>
       </c>
       <c r="F358" s="5">
@@ -10831,10 +10832,10 @@
       <c r="C359" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D359" s="18">
+      <c r="D359" s="19">
         <v>4902684</v>
       </c>
-      <c r="E359" s="18">
+      <c r="E359" s="19">
         <v>1206241</v>
       </c>
       <c r="F359" s="3">
@@ -10854,10 +10855,10 @@
       <c r="C360" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="D360" s="18">
+      <c r="D360" s="19">
         <v>4902523</v>
       </c>
-      <c r="E360" s="18">
+      <c r="E360" s="19">
         <v>1206258</v>
       </c>
       <c r="F360" s="3">
@@ -10877,10 +10878,10 @@
       <c r="C361" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="D361" s="19">
+      <c r="D361" s="20">
         <v>4902321</v>
       </c>
-      <c r="E361" s="19">
+      <c r="E361" s="20">
         <v>1206458</v>
       </c>
       <c r="F361" s="5">
@@ -10900,10 +10901,10 @@
       <c r="C362" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D362" s="19">
+      <c r="D362" s="20">
         <v>4902611</v>
       </c>
-      <c r="E362" s="19">
+      <c r="E362" s="20">
         <v>1206493</v>
       </c>
       <c r="F362" s="5">
@@ -10923,10 +10924,10 @@
       <c r="C363" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D363" s="18">
+      <c r="D363" s="19">
         <v>4902589</v>
       </c>
-      <c r="E363" s="18">
+      <c r="E363" s="19">
         <v>1206472</v>
       </c>
       <c r="F363" s="3">
@@ -10946,10 +10947,10 @@
       <c r="C364" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="D364" s="19">
+      <c r="D364" s="20">
         <v>4902048</v>
       </c>
-      <c r="E364" s="19">
+      <c r="E364" s="20">
         <v>1206744</v>
       </c>
       <c r="F364" s="5">
@@ -10969,10 +10970,10 @@
       <c r="C365" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="D365" s="19">
+      <c r="D365" s="20">
         <v>4901943</v>
       </c>
-      <c r="E365" s="19">
+      <c r="E365" s="20">
         <v>1206440</v>
       </c>
       <c r="F365" s="5">
@@ -10992,10 +10993,10 @@
       <c r="C366" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="D366" s="19">
+      <c r="D366" s="20">
         <v>4901961</v>
       </c>
-      <c r="E366" s="19">
+      <c r="E366" s="20">
         <v>1206671</v>
       </c>
       <c r="F366" s="5">
@@ -11015,10 +11016,10 @@
       <c r="C367" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="D367" s="19">
+      <c r="D367" s="20">
         <v>4902044</v>
       </c>
-      <c r="E367" s="19">
+      <c r="E367" s="20">
         <v>1206769</v>
       </c>
       <c r="F367" s="5">
@@ -11038,10 +11039,10 @@
       <c r="C368" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="D368" s="19">
+      <c r="D368" s="20">
         <v>4901965</v>
       </c>
-      <c r="E368" s="19">
+      <c r="E368" s="20">
         <v>1206651</v>
       </c>
       <c r="F368" s="5">
@@ -11061,10 +11062,10 @@
       <c r="C369" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="D369" s="19">
+      <c r="D369" s="20">
         <v>4902055</v>
       </c>
-      <c r="E369" s="19">
+      <c r="E369" s="20">
         <v>1206746</v>
       </c>
       <c r="F369" s="5">
@@ -11084,10 +11085,10 @@
       <c r="C370" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="D370" s="19">
+      <c r="D370" s="20">
         <v>4901932</v>
       </c>
-      <c r="E370" s="19">
+      <c r="E370" s="20">
         <v>1206594</v>
       </c>
       <c r="F370" s="5">
@@ -11107,10 +11108,10 @@
       <c r="C371" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="D371" s="19">
+      <c r="D371" s="20">
         <v>4901950</v>
       </c>
-      <c r="E371" s="19">
+      <c r="E371" s="20">
         <v>1206544</v>
       </c>
       <c r="F371" s="5">
@@ -11130,10 +11131,10 @@
       <c r="C372" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="D372" s="19">
+      <c r="D372" s="20">
         <v>4901999</v>
       </c>
-      <c r="E372" s="19">
+      <c r="E372" s="20">
         <v>1206731</v>
       </c>
       <c r="F372" s="5">
@@ -11153,10 +11154,10 @@
       <c r="C373" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D373" s="19">
+      <c r="D373" s="20">
         <v>4902038</v>
       </c>
-      <c r="E373" s="19">
+      <c r="E373" s="20">
         <v>1206747</v>
       </c>
       <c r="F373" s="5">
@@ -11176,10 +11177,10 @@
       <c r="C374" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="D374" s="18">
+      <c r="D374" s="19">
         <v>4901940</v>
       </c>
-      <c r="E374" s="18">
+      <c r="E374" s="19">
         <v>1206379</v>
       </c>
       <c r="F374" s="3">
@@ -11199,10 +11200,10 @@
       <c r="C375" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="D375" s="18">
+      <c r="D375" s="19">
         <v>4901855</v>
       </c>
-      <c r="E375" s="18">
+      <c r="E375" s="19">
         <v>1206027</v>
       </c>
       <c r="F375" s="3">
@@ -11222,10 +11223,10 @@
       <c r="C376" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="D376" s="18">
+      <c r="D376" s="19">
         <v>4901590</v>
       </c>
-      <c r="E376" s="18">
+      <c r="E376" s="19">
         <v>1205784</v>
       </c>
       <c r="F376" s="3">
@@ -11245,10 +11246,10 @@
       <c r="C377" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="D377" s="18">
+      <c r="D377" s="19">
         <v>4901999</v>
       </c>
-      <c r="E377" s="18">
+      <c r="E377" s="19">
         <v>1205819</v>
       </c>
       <c r="F377" s="3">
@@ -11268,10 +11269,10 @@
       <c r="C378" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="D378" s="19">
+      <c r="D378" s="20">
         <v>4902149</v>
       </c>
-      <c r="E378" s="19">
+      <c r="E378" s="20">
         <v>1205679</v>
       </c>
       <c r="F378" s="5">
@@ -11291,10 +11292,10 @@
       <c r="C379" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="D379" s="19">
+      <c r="D379" s="20">
         <v>4901881</v>
       </c>
-      <c r="E379" s="19">
+      <c r="E379" s="20">
         <v>1206002</v>
       </c>
       <c r="F379" s="5">
@@ -11314,10 +11315,10 @@
       <c r="C380" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D380" s="18">
+      <c r="D380" s="19">
         <v>4901299</v>
       </c>
-      <c r="E380" s="18">
+      <c r="E380" s="19">
         <v>1205406</v>
       </c>
       <c r="F380" s="3">
@@ -11337,10 +11338,10 @@
       <c r="C381" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D381" s="18">
+      <c r="D381" s="19">
         <v>4901227</v>
       </c>
-      <c r="E381" s="18">
+      <c r="E381" s="19">
         <v>1203285</v>
       </c>
       <c r="F381" s="3">
@@ -11360,10 +11361,10 @@
       <c r="C382" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="D382" s="18">
+      <c r="D382" s="19">
         <v>4900699</v>
       </c>
-      <c r="E382" s="18">
+      <c r="E382" s="19">
         <v>1203413</v>
       </c>
       <c r="F382" s="3">
@@ -11383,10 +11384,10 @@
       <c r="C383" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D383" s="18">
+      <c r="D383" s="19">
         <v>4900928</v>
       </c>
-      <c r="E383" s="18">
+      <c r="E383" s="19">
         <v>1203345</v>
       </c>
       <c r="F383" s="3">
@@ -11406,10 +11407,10 @@
       <c r="C384" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D384" s="18">
+      <c r="D384" s="19">
         <v>4900963</v>
       </c>
-      <c r="E384" s="18">
+      <c r="E384" s="19">
         <v>1203692</v>
       </c>
       <c r="F384" s="3">
@@ -11429,10 +11430,10 @@
       <c r="C385" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="D385" s="18">
+      <c r="D385" s="19">
         <v>4901698</v>
       </c>
-      <c r="E385" s="18">
+      <c r="E385" s="19">
         <v>1207170</v>
       </c>
       <c r="F385" s="3">
@@ -11452,10 +11453,10 @@
       <c r="C386" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="D386" s="18">
+      <c r="D386" s="19">
         <v>4901944</v>
       </c>
-      <c r="E386" s="18">
+      <c r="E386" s="19">
         <v>1206687</v>
       </c>
       <c r="F386" s="3">
@@ -11475,10 +11476,10 @@
       <c r="C387" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="D387" s="18">
+      <c r="D387" s="19">
         <v>4901963</v>
       </c>
-      <c r="E387" s="18">
+      <c r="E387" s="19">
         <v>1207184</v>
       </c>
       <c r="F387" s="3">
@@ -11498,10 +11499,10 @@
       <c r="C388" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D388" s="18">
+      <c r="D388" s="19">
         <v>4902093</v>
       </c>
-      <c r="E388" s="18">
+      <c r="E388" s="19">
         <v>1206750</v>
       </c>
       <c r="F388" s="3">
@@ -11521,10 +11522,10 @@
       <c r="C389" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D389" s="18">
+      <c r="D389" s="19">
         <v>4902100</v>
       </c>
-      <c r="E389" s="18">
+      <c r="E389" s="19">
         <v>1207112</v>
       </c>
       <c r="F389" s="3">
@@ -11544,10 +11545,10 @@
       <c r="C390" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="D390" s="18">
+      <c r="D390" s="19">
         <v>4901555</v>
       </c>
-      <c r="E390" s="18">
+      <c r="E390" s="19">
         <v>1207219</v>
       </c>
       <c r="F390" s="3">
@@ -11567,10 +11568,10 @@
       <c r="C391" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="D391" s="19">
+      <c r="D391" s="20">
         <v>4901983</v>
       </c>
-      <c r="E391" s="19">
+      <c r="E391" s="20">
         <v>1207147</v>
       </c>
       <c r="F391" s="5">
@@ -11590,10 +11591,10 @@
       <c r="C392" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="D392" s="18">
+      <c r="D392" s="19">
         <v>4901680</v>
       </c>
-      <c r="E392" s="18">
+      <c r="E392" s="19">
         <v>1206792</v>
       </c>
       <c r="F392" s="3">
@@ -11613,10 +11614,10 @@
       <c r="C393" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D393" s="19">
+      <c r="D393" s="20">
         <v>4901733</v>
       </c>
-      <c r="E393" s="19">
+      <c r="E393" s="20">
         <v>1206766</v>
       </c>
       <c r="F393" s="5">
@@ -11636,10 +11637,10 @@
       <c r="C394" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D394" s="19">
+      <c r="D394" s="20">
         <v>4901745</v>
       </c>
-      <c r="E394" s="19">
+      <c r="E394" s="20">
         <v>1206768</v>
       </c>
       <c r="F394" s="5">
@@ -11659,10 +11660,10 @@
       <c r="C395" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="D395" s="18">
+      <c r="D395" s="19">
         <v>4901851</v>
       </c>
-      <c r="E395" s="18">
+      <c r="E395" s="19">
         <v>1206888</v>
       </c>
       <c r="F395" s="3">
@@ -11682,10 +11683,10 @@
       <c r="C396" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D396" s="19">
+      <c r="D396" s="20">
         <v>4901630</v>
       </c>
-      <c r="E396" s="19">
+      <c r="E396" s="20">
         <v>1207102</v>
       </c>
       <c r="F396" s="5">
@@ -11705,10 +11706,10 @@
       <c r="C397" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D397" s="19">
+      <c r="D397" s="20">
         <v>4902093</v>
       </c>
-      <c r="E397" s="19">
+      <c r="E397" s="20">
         <v>1207087</v>
       </c>
       <c r="F397" s="5">
@@ -11728,10 +11729,10 @@
       <c r="C398" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D398" s="19">
+      <c r="D398" s="20">
         <v>4902094</v>
       </c>
-      <c r="E398" s="19">
+      <c r="E398" s="20">
         <v>1206660</v>
       </c>
       <c r="F398" s="5">
@@ -11751,10 +11752,10 @@
       <c r="C399" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D399" s="18">
+      <c r="D399" s="19">
         <v>4902246</v>
       </c>
-      <c r="E399" s="18">
+      <c r="E399" s="19">
         <v>1206478</v>
       </c>
       <c r="F399" s="3">
@@ -11774,10 +11775,10 @@
       <c r="C400" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D400" s="19">
+      <c r="D400" s="20">
         <v>4902281</v>
       </c>
-      <c r="E400" s="19">
+      <c r="E400" s="20">
         <v>1206487</v>
       </c>
       <c r="F400" s="5">
@@ -11797,10 +11798,10 @@
       <c r="C401" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="D401" s="19">
+      <c r="D401" s="20">
         <v>4902273</v>
       </c>
-      <c r="E401" s="19">
+      <c r="E401" s="20">
         <v>1206000</v>
       </c>
       <c r="F401" s="5">
@@ -11820,10 +11821,10 @@
       <c r="C402" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="D402" s="19">
+      <c r="D402" s="20">
         <v>4902313</v>
       </c>
-      <c r="E402" s="19">
+      <c r="E402" s="20">
         <v>1206633</v>
       </c>
       <c r="F402" s="5">
@@ -11843,10 +11844,10 @@
       <c r="C403" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="D403" s="18">
+      <c r="D403" s="19">
         <v>4902254</v>
       </c>
-      <c r="E403" s="18">
+      <c r="E403" s="19">
         <v>1207419</v>
       </c>
       <c r="F403" s="3">
@@ -11866,10 +11867,10 @@
       <c r="C404" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="D404" s="18">
+      <c r="D404" s="19">
         <v>4901976</v>
       </c>
-      <c r="E404" s="18">
+      <c r="E404" s="19">
         <v>1207546</v>
       </c>
       <c r="F404" s="3">
@@ -11889,10 +11890,10 @@
       <c r="C405" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="D405" s="18">
+      <c r="D405" s="19">
         <v>4902039</v>
       </c>
-      <c r="E405" s="18">
+      <c r="E405" s="19">
         <v>1207511</v>
       </c>
       <c r="F405" s="3">
@@ -11912,10 +11913,10 @@
       <c r="C406" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D406" s="18">
+      <c r="D406" s="19">
         <v>4902121</v>
       </c>
-      <c r="E406" s="18">
+      <c r="E406" s="19">
         <v>1206983</v>
       </c>
       <c r="F406" s="3">
@@ -11935,10 +11936,10 @@
       <c r="C407" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="D407" s="19">
+      <c r="D407" s="20">
         <v>4902257</v>
       </c>
-      <c r="E407" s="19">
+      <c r="E407" s="20">
         <v>1205853</v>
       </c>
       <c r="F407" s="5">
@@ -11958,10 +11959,10 @@
       <c r="C408" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="D408" s="19">
+      <c r="D408" s="20">
         <v>4902126</v>
       </c>
-      <c r="E408" s="19">
+      <c r="E408" s="20">
         <v>1205704</v>
       </c>
       <c r="F408" s="5">
@@ -11981,10 +11982,10 @@
       <c r="C409" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="D409" s="18">
+      <c r="D409" s="19">
         <v>4901355</v>
       </c>
-      <c r="E409" s="18">
+      <c r="E409" s="19">
         <v>1209062</v>
       </c>
       <c r="F409" s="3">
@@ -12004,10 +12005,10 @@
       <c r="C410" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="D410" s="18">
+      <c r="D410" s="19">
         <v>4901302</v>
       </c>
-      <c r="E410" s="18">
+      <c r="E410" s="19">
         <v>1209020</v>
       </c>
       <c r="F410" s="3">
@@ -12027,10 +12028,10 @@
       <c r="C411" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="D411" s="18">
+      <c r="D411" s="19">
         <v>4901507</v>
       </c>
-      <c r="E411" s="18">
+      <c r="E411" s="19">
         <v>1207871</v>
       </c>
       <c r="F411" s="3">
@@ -12050,10 +12051,10 @@
       <c r="C412" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="D412" s="18">
+      <c r="D412" s="19">
         <v>4901657</v>
       </c>
-      <c r="E412" s="18">
+      <c r="E412" s="19">
         <v>1207710</v>
       </c>
       <c r="F412" s="3">
@@ -12073,10 +12074,10 @@
       <c r="C413" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="D413" s="19">
+      <c r="D413" s="20">
         <v>4901619</v>
       </c>
-      <c r="E413" s="19">
+      <c r="E413" s="20">
         <v>1207547</v>
       </c>
       <c r="F413" s="5">
@@ -12096,10 +12097,10 @@
       <c r="C414" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="D414" s="18">
+      <c r="D414" s="19">
         <v>4901805</v>
       </c>
-      <c r="E414" s="18">
+      <c r="E414" s="19">
         <v>1208389</v>
       </c>
       <c r="F414" s="3">
@@ -12119,10 +12120,10 @@
       <c r="C415" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="D415" s="18">
+      <c r="D415" s="19">
         <v>4901734</v>
       </c>
-      <c r="E415" s="18">
+      <c r="E415" s="19">
         <v>1208405</v>
       </c>
       <c r="F415" s="3">
@@ -12142,10 +12143,10 @@
       <c r="C416" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="D416" s="18">
+      <c r="D416" s="19">
         <v>4901413</v>
       </c>
-      <c r="E416" s="18">
+      <c r="E416" s="19">
         <v>1207838</v>
       </c>
       <c r="F416" s="3">
@@ -12165,10 +12166,10 @@
       <c r="C417" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="D417" s="18">
+      <c r="D417" s="19">
         <v>4901521</v>
       </c>
-      <c r="E417" s="18">
+      <c r="E417" s="19">
         <v>1207056</v>
       </c>
       <c r="F417" s="3">
@@ -12188,10 +12189,10 @@
       <c r="C418" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="D418" s="18">
+      <c r="D418" s="19">
         <v>4901399</v>
       </c>
-      <c r="E418" s="18">
+      <c r="E418" s="19">
         <v>1207072</v>
       </c>
       <c r="F418" s="3">
@@ -12211,10 +12212,10 @@
       <c r="C419" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D419" s="18">
+      <c r="D419" s="19">
         <v>4901523</v>
       </c>
-      <c r="E419" s="18">
+      <c r="E419" s="19">
         <v>1206797</v>
       </c>
       <c r="F419" s="3">
@@ -12234,10 +12235,10 @@
       <c r="C420" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="D420" s="18">
+      <c r="D420" s="19">
         <v>4901451</v>
       </c>
-      <c r="E420" s="18">
+      <c r="E420" s="19">
         <v>1206307</v>
       </c>
       <c r="F420" s="3">
@@ -12257,10 +12258,10 @@
       <c r="C421" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="D421" s="18">
+      <c r="D421" s="19">
         <v>4902284</v>
       </c>
-      <c r="E421" s="18">
+      <c r="E421" s="19">
         <v>1207209</v>
       </c>
       <c r="F421" s="3">
@@ -12280,10 +12281,10 @@
       <c r="C422" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D422" s="18">
+      <c r="D422" s="19">
         <v>4901135</v>
       </c>
-      <c r="E422" s="18">
+      <c r="E422" s="19">
         <v>1204013</v>
       </c>
       <c r="F422" s="3">
@@ -12303,10 +12304,10 @@
       <c r="C423" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="D423" s="19">
+      <c r="D423" s="20">
         <v>4901753</v>
       </c>
-      <c r="E423" s="19">
+      <c r="E423" s="20">
         <v>1207506</v>
       </c>
       <c r="F423" s="5">
@@ -12326,10 +12327,10 @@
       <c r="C424" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="D424" s="18">
+      <c r="D424" s="19">
         <v>4901717</v>
       </c>
-      <c r="E424" s="18">
+      <c r="E424" s="19">
         <v>1207517</v>
       </c>
       <c r="F424" s="3">
@@ -12349,10 +12350,10 @@
       <c r="C425" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D425" s="18">
+      <c r="D425" s="19">
         <v>4901541</v>
       </c>
-      <c r="E425" s="18">
+      <c r="E425" s="19">
         <v>1204333</v>
       </c>
       <c r="F425" s="3">
@@ -12372,10 +12373,10 @@
       <c r="C426" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="D426" s="19">
+      <c r="D426" s="20">
         <v>4902234</v>
       </c>
-      <c r="E426" s="19">
+      <c r="E426" s="20">
         <v>1205929</v>
       </c>
       <c r="F426" s="5">
@@ -12395,10 +12396,10 @@
       <c r="C427" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="D427" s="18">
+      <c r="D427" s="19">
         <v>4902239</v>
       </c>
-      <c r="E427" s="18">
+      <c r="E427" s="19">
         <v>1205953</v>
       </c>
       <c r="F427" s="3">
@@ -12418,10 +12419,10 @@
       <c r="C428" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="D428" s="18">
+      <c r="D428" s="19">
         <v>4902268</v>
       </c>
-      <c r="E428" s="18">
+      <c r="E428" s="19">
         <v>1206239</v>
       </c>
       <c r="F428" s="3">
@@ -12441,10 +12442,10 @@
       <c r="C429" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="D429" s="18">
+      <c r="D429" s="19">
         <v>4902130</v>
       </c>
-      <c r="E429" s="18">
+      <c r="E429" s="19">
         <v>1206289</v>
       </c>
       <c r="F429" s="3">
@@ -12464,10 +12465,10 @@
       <c r="C430" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D430" s="19">
+      <c r="D430" s="20">
         <v>4901583</v>
       </c>
-      <c r="E430" s="19">
+      <c r="E430" s="20">
         <v>1204195</v>
       </c>
       <c r="F430" s="5">
@@ -12487,10 +12488,10 @@
       <c r="C431" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D431" s="18">
+      <c r="D431" s="19">
         <v>4901263</v>
       </c>
-      <c r="E431" s="18">
+      <c r="E431" s="19">
         <v>1206358</v>
       </c>
       <c r="F431" s="3">
@@ -12510,10 +12511,10 @@
       <c r="C432" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="D432" s="18">
+      <c r="D432" s="19">
         <v>4901302</v>
       </c>
-      <c r="E432" s="18">
+      <c r="E432" s="19">
         <v>1206697</v>
       </c>
       <c r="F432" s="3">
@@ -12533,10 +12534,10 @@
       <c r="C433" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="D433" s="19">
+      <c r="D433" s="20">
         <v>4901490</v>
       </c>
-      <c r="E433" s="19">
+      <c r="E433" s="20">
         <v>1208433</v>
       </c>
       <c r="F433" s="5">
@@ -12556,10 +12557,10 @@
       <c r="C434" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="D434" s="18">
+      <c r="D434" s="19">
         <v>4901450</v>
       </c>
-      <c r="E434" s="18">
+      <c r="E434" s="19">
         <v>1208323</v>
       </c>
       <c r="F434" s="3">
@@ -12579,10 +12580,10 @@
       <c r="C435" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D435" s="18">
+      <c r="D435" s="19">
         <v>4901423</v>
       </c>
-      <c r="E435" s="18">
+      <c r="E435" s="19">
         <v>1203928</v>
       </c>
       <c r="F435" s="3">
@@ -12602,10 +12603,10 @@
       <c r="C436" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D436" s="18">
+      <c r="D436" s="19">
         <v>4901516</v>
       </c>
-      <c r="E436" s="18">
+      <c r="E436" s="19">
         <v>1203932</v>
       </c>
       <c r="F436" s="3">
@@ -12625,10 +12626,10 @@
       <c r="C437" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="D437" s="19">
+      <c r="D437" s="20">
         <v>4901712</v>
       </c>
-      <c r="E437" s="19">
+      <c r="E437" s="20">
         <v>1204259</v>
       </c>
       <c r="F437" s="5">
@@ -12648,10 +12649,10 @@
       <c r="C438" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="D438" s="18">
+      <c r="D438" s="19">
         <v>4901581</v>
       </c>
-      <c r="E438" s="18">
+      <c r="E438" s="19">
         <v>1204276</v>
       </c>
       <c r="F438" s="3">
@@ -12671,10 +12672,10 @@
       <c r="C439" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="D439" s="19">
+      <c r="D439" s="20">
         <v>4901542</v>
       </c>
-      <c r="E439" s="19">
+      <c r="E439" s="20">
         <v>1206224</v>
       </c>
       <c r="F439" s="5">
@@ -12694,10 +12695,10 @@
       <c r="C440" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D440" s="18">
+      <c r="D440" s="19">
         <v>4901458</v>
       </c>
-      <c r="E440" s="18">
+      <c r="E440" s="19">
         <v>1204185</v>
       </c>
       <c r="F440" s="3">
@@ -12717,10 +12718,10 @@
       <c r="C441" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D441" s="18">
+      <c r="D441" s="19">
         <v>4901608</v>
       </c>
-      <c r="E441" s="18">
+      <c r="E441" s="19">
         <v>1203871</v>
       </c>
       <c r="F441" s="3">
@@ -12740,10 +12741,10 @@
       <c r="C442" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D442" s="18">
+      <c r="D442" s="19">
         <v>4901303</v>
       </c>
-      <c r="E442" s="18">
+      <c r="E442" s="19">
         <v>1204041</v>
       </c>
       <c r="F442" s="3">
@@ -12763,10 +12764,10 @@
       <c r="C443" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D443" s="19">
+      <c r="D443" s="20">
         <v>4901815</v>
       </c>
-      <c r="E443" s="19">
+      <c r="E443" s="20">
         <v>1204486</v>
       </c>
       <c r="F443" s="5">
@@ -12786,10 +12787,10 @@
       <c r="C444" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D444" s="19">
+      <c r="D444" s="20">
         <v>4901779</v>
       </c>
-      <c r="E444" s="19">
+      <c r="E444" s="20">
         <v>1205241</v>
       </c>
       <c r="F444" s="5">
@@ -12809,10 +12810,10 @@
       <c r="C445" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D445" s="19">
+      <c r="D445" s="20">
         <v>4901831</v>
       </c>
-      <c r="E445" s="19">
+      <c r="E445" s="20">
         <v>1205182</v>
       </c>
       <c r="F445" s="5">
@@ -12832,10 +12833,10 @@
       <c r="C446" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="D446" s="19">
+      <c r="D446" s="20">
         <v>4902233</v>
       </c>
-      <c r="E446" s="19">
+      <c r="E446" s="20">
         <v>1205752</v>
       </c>
       <c r="F446" s="5">
@@ -12855,10 +12856,10 @@
       <c r="C447" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D447" s="18">
+      <c r="D447" s="19">
         <v>4901515</v>
       </c>
-      <c r="E447" s="18">
+      <c r="E447" s="19">
         <v>1203777</v>
       </c>
       <c r="F447" s="3">
@@ -12878,10 +12879,10 @@
       <c r="C448" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="D448" s="18">
+      <c r="D448" s="19">
         <v>4901689</v>
       </c>
-      <c r="E448" s="18">
+      <c r="E448" s="19">
         <v>1205157</v>
       </c>
       <c r="F448" s="3">
@@ -12901,10 +12902,10 @@
       <c r="C449" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D449" s="18">
+      <c r="D449" s="19">
         <v>4901733</v>
       </c>
-      <c r="E449" s="18">
+      <c r="E449" s="19">
         <v>1205325</v>
       </c>
       <c r="F449" s="3">
@@ -12924,10 +12925,10 @@
       <c r="C450" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D450" s="18">
+      <c r="D450" s="19">
         <v>4901575</v>
       </c>
-      <c r="E450" s="18">
+      <c r="E450" s="19">
         <v>1205305</v>
       </c>
       <c r="F450" s="3">
@@ -12947,10 +12948,10 @@
       <c r="C451" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D451" s="18">
+      <c r="D451" s="19">
         <v>4901498</v>
       </c>
-      <c r="E451" s="18">
+      <c r="E451" s="19">
         <v>1204998</v>
       </c>
       <c r="F451" s="3">
@@ -12970,10 +12971,10 @@
       <c r="C452" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D452" s="19">
+      <c r="D452" s="20">
         <v>4901753</v>
       </c>
-      <c r="E452" s="19">
+      <c r="E452" s="20">
         <v>1205279</v>
       </c>
       <c r="F452" s="5">
@@ -12993,10 +12994,10 @@
       <c r="C453" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D453" s="19">
+      <c r="D453" s="20">
         <v>4901488</v>
       </c>
-      <c r="E453" s="19">
+      <c r="E453" s="20">
         <v>1205246</v>
       </c>
       <c r="F453" s="5">
@@ -13016,10 +13017,10 @@
       <c r="C454" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D454" s="18">
+      <c r="D454" s="19">
         <v>4901417</v>
       </c>
-      <c r="E454" s="18">
+      <c r="E454" s="19">
         <v>1205280</v>
       </c>
       <c r="F454" s="3">
@@ -13039,10 +13040,10 @@
       <c r="C455" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D455" s="18">
+      <c r="D455" s="19">
         <v>4901534</v>
       </c>
-      <c r="E455" s="18">
+      <c r="E455" s="19">
         <v>1205175</v>
       </c>
       <c r="F455" s="3">
@@ -13062,10 +13063,10 @@
       <c r="C456" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D456" s="19">
+      <c r="D456" s="20">
         <v>4901540</v>
       </c>
-      <c r="E456" s="19">
+      <c r="E456" s="20">
         <v>1205299</v>
       </c>
       <c r="F456" s="5">
@@ -13085,10 +13086,10 @@
       <c r="C457" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="D457" s="19">
+      <c r="D457" s="20">
         <v>4901432</v>
       </c>
-      <c r="E457" s="19">
+      <c r="E457" s="20">
         <v>1204715</v>
       </c>
       <c r="F457" s="5">
@@ -13108,10 +13109,10 @@
       <c r="C458" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="D458" s="18">
+      <c r="D458" s="19">
         <v>4901528</v>
       </c>
-      <c r="E458" s="18">
+      <c r="E458" s="19">
         <v>1204747</v>
       </c>
       <c r="F458" s="3">
@@ -13131,10 +13132,10 @@
       <c r="C459" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="D459" s="19">
+      <c r="D459" s="20">
         <v>4901689</v>
       </c>
-      <c r="E459" s="19">
+      <c r="E459" s="20">
         <v>1205196</v>
       </c>
       <c r="F459" s="5">
@@ -13154,10 +13155,10 @@
       <c r="C460" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D460" s="18">
+      <c r="D460" s="19">
         <v>4901685</v>
       </c>
-      <c r="E460" s="18">
+      <c r="E460" s="19">
         <v>1204754</v>
       </c>
       <c r="F460" s="3">
@@ -13177,10 +13178,10 @@
       <c r="C461" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="D461" s="18">
+      <c r="D461" s="19">
         <v>4902032</v>
       </c>
-      <c r="E461" s="18">
+      <c r="E461" s="19">
         <v>1204662</v>
       </c>
       <c r="F461" s="3">
@@ -13200,10 +13201,10 @@
       <c r="C462" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D462" s="18">
+      <c r="D462" s="19">
         <v>4901265</v>
       </c>
-      <c r="E462" s="18">
+      <c r="E462" s="19">
         <v>1204811</v>
       </c>
       <c r="F462" s="3">
@@ -13223,10 +13224,10 @@
       <c r="C463" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="D463" s="18">
+      <c r="D463" s="19">
         <v>4902099</v>
       </c>
-      <c r="E463" s="18">
+      <c r="E463" s="19">
         <v>1204618</v>
       </c>
       <c r="F463" s="3">
@@ -13246,10 +13247,10 @@
       <c r="C464" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="D464" s="18">
+      <c r="D464" s="19">
         <v>4902010</v>
       </c>
-      <c r="E464" s="18">
+      <c r="E464" s="19">
         <v>1204289</v>
       </c>
       <c r="F464" s="3">
@@ -13269,10 +13270,10 @@
       <c r="C465" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="D465" s="18">
+      <c r="D465" s="19">
         <v>4901849</v>
       </c>
-      <c r="E465" s="18">
+      <c r="E465" s="19">
         <v>1204286</v>
       </c>
       <c r="F465" s="3">
@@ -13292,10 +13293,10 @@
       <c r="C466" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="D466" s="18">
+      <c r="D466" s="19">
         <v>4901895</v>
       </c>
-      <c r="E466" s="18">
+      <c r="E466" s="19">
         <v>1204245</v>
       </c>
       <c r="F466" s="3">
@@ -13315,10 +13316,10 @@
       <c r="C467" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="D467" s="18">
+      <c r="D467" s="19">
         <v>4902288</v>
       </c>
-      <c r="E467" s="18">
+      <c r="E467" s="19">
         <v>1208098</v>
       </c>
       <c r="F467" s="3">
@@ -13338,10 +13339,10 @@
       <c r="C468" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="D468" s="18">
+      <c r="D468" s="19">
         <v>4902275</v>
       </c>
-      <c r="E468" s="18">
+      <c r="E468" s="19">
         <v>1208100</v>
       </c>
       <c r="F468" s="3">
@@ -13361,10 +13362,10 @@
       <c r="C469" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="D469" s="18">
+      <c r="D469" s="19">
         <v>4901848</v>
       </c>
-      <c r="E469" s="18">
+      <c r="E469" s="19">
         <v>1208529</v>
       </c>
       <c r="F469" s="3">
@@ -13384,10 +13385,10 @@
       <c r="C470" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="D470" s="18">
+      <c r="D470" s="19">
         <v>4902709</v>
       </c>
-      <c r="E470" s="18">
+      <c r="E470" s="19">
         <v>1206727</v>
       </c>
       <c r="F470" s="3">
@@ -13407,10 +13408,10 @@
       <c r="C471" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D471" s="18">
+      <c r="D471" s="19">
         <v>4902743</v>
       </c>
-      <c r="E471" s="18">
+      <c r="E471" s="19">
         <v>1206559</v>
       </c>
       <c r="F471" s="3">
@@ -13430,10 +13431,10 @@
       <c r="C472" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D472" s="18">
+      <c r="D472" s="19">
         <v>4899140</v>
       </c>
-      <c r="E472" s="18">
+      <c r="E472" s="19">
         <v>1208380</v>
       </c>
       <c r="F472" s="3">
@@ -13453,10 +13454,10 @@
       <c r="C473" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="D473" s="18">
+      <c r="D473" s="19">
         <v>4902382</v>
       </c>
-      <c r="E473" s="18">
+      <c r="E473" s="19">
         <v>1207625</v>
       </c>
       <c r="F473" s="3">
@@ -13476,10 +13477,10 @@
       <c r="C474" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D474" s="19">
+      <c r="D474" s="20">
         <v>4902722</v>
       </c>
-      <c r="E474" s="19">
+      <c r="E474" s="20">
         <v>1206660</v>
       </c>
       <c r="F474" s="5">
@@ -13499,10 +13500,10 @@
       <c r="C475" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D475" s="19">
+      <c r="D475" s="20">
         <v>4902773</v>
       </c>
-      <c r="E475" s="19">
+      <c r="E475" s="20">
         <v>1206204</v>
       </c>
       <c r="F475" s="5">
@@ -13522,10 +13523,10 @@
       <c r="C476" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="D476" s="19">
+      <c r="D476" s="20">
         <v>4901433</v>
       </c>
-      <c r="E476" s="19">
+      <c r="E476" s="20">
         <v>1205569</v>
       </c>
       <c r="F476" s="5">
@@ -13545,10 +13546,10 @@
       <c r="C477" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D477" s="18">
+      <c r="D477" s="19">
         <v>4902607</v>
       </c>
-      <c r="E477" s="18">
+      <c r="E477" s="19">
         <v>1207207</v>
       </c>
       <c r="F477" s="3">
@@ -13568,10 +13569,10 @@
       <c r="C478" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="D478" s="18">
+      <c r="D478" s="19">
         <v>4902483</v>
       </c>
-      <c r="E478" s="18">
+      <c r="E478" s="19">
         <v>1207939</v>
       </c>
       <c r="F478" s="3">
@@ -13591,10 +13592,10 @@
       <c r="C479" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="D479" s="18">
+      <c r="D479" s="19">
         <v>4902259</v>
       </c>
-      <c r="E479" s="18">
+      <c r="E479" s="19">
         <v>1207864</v>
       </c>
       <c r="F479" s="3">
@@ -13614,10 +13615,10 @@
       <c r="C480" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="D480" s="18">
+      <c r="D480" s="19">
         <v>4902188</v>
       </c>
-      <c r="E480" s="18">
+      <c r="E480" s="19">
         <v>1208017</v>
       </c>
       <c r="F480" s="3">
@@ -13637,10 +13638,10 @@
       <c r="C481" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="D481" s="18">
+      <c r="D481" s="19">
         <v>4902218</v>
       </c>
-      <c r="E481" s="18">
+      <c r="E481" s="19">
         <v>1207987</v>
       </c>
       <c r="F481" s="3">
@@ -13660,10 +13661,10 @@
       <c r="C482" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="D482" s="18">
+      <c r="D482" s="19">
         <v>4902185</v>
       </c>
-      <c r="E482" s="18">
+      <c r="E482" s="19">
         <v>1207961</v>
       </c>
       <c r="F482" s="3">
@@ -13683,10 +13684,10 @@
       <c r="C483" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D483" s="18">
+      <c r="D483" s="19">
         <v>4902787</v>
       </c>
-      <c r="E483" s="18">
+      <c r="E483" s="19">
         <v>1205877</v>
       </c>
       <c r="F483" s="3">
@@ -13706,10 +13707,10 @@
       <c r="C484" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="D484" s="18">
+      <c r="D484" s="19">
         <v>4902566</v>
       </c>
-      <c r="E484" s="18">
+      <c r="E484" s="19">
         <v>1207736</v>
       </c>
       <c r="F484" s="3">
@@ -13729,10 +13730,10 @@
       <c r="C485" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D485" s="18">
+      <c r="D485" s="19">
         <v>4902485</v>
       </c>
-      <c r="E485" s="18">
+      <c r="E485" s="19">
         <v>1207513</v>
       </c>
       <c r="F485" s="3">
@@ -13752,10 +13753,10 @@
       <c r="C486" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="D486" s="18">
+      <c r="D486" s="19">
         <v>4902477</v>
       </c>
-      <c r="E486" s="18">
+      <c r="E486" s="19">
         <v>1207104</v>
       </c>
       <c r="F486" s="3">
@@ -13775,10 +13776,10 @@
       <c r="C487" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D487" s="19">
+      <c r="D487" s="20">
         <v>4902069</v>
       </c>
-      <c r="E487" s="19">
+      <c r="E487" s="20">
         <v>1208012</v>
       </c>
       <c r="F487" s="5">
@@ -13798,10 +13799,10 @@
       <c r="C488" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D488" s="18">
+      <c r="D488" s="19">
         <v>4902118</v>
       </c>
-      <c r="E488" s="18">
+      <c r="E488" s="19">
         <v>1207301</v>
       </c>
       <c r="F488" s="3">
@@ -13821,10 +13822,10 @@
       <c r="C489" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D489" s="19">
+      <c r="D489" s="20">
         <v>4902089</v>
       </c>
-      <c r="E489" s="19">
+      <c r="E489" s="20">
         <v>1206482</v>
       </c>
       <c r="F489" s="5">
@@ -13844,10 +13845,10 @@
       <c r="C490" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="D490" s="18">
+      <c r="D490" s="19">
         <v>4901450</v>
       </c>
-      <c r="E490" s="18">
+      <c r="E490" s="19">
         <v>1208156</v>
       </c>
       <c r="F490" s="3">
@@ -13867,10 +13868,10 @@
       <c r="C491" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="D491" s="18">
+      <c r="D491" s="19">
         <v>4901852</v>
       </c>
-      <c r="E491" s="18">
+      <c r="E491" s="19">
         <v>1207650</v>
       </c>
       <c r="F491" s="3">
@@ -13890,10 +13891,10 @@
       <c r="C492" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="D492" s="18">
+      <c r="D492" s="19">
         <v>4902268</v>
       </c>
-      <c r="E492" s="18">
+      <c r="E492" s="19">
         <v>1207816</v>
       </c>
       <c r="F492" s="3">
@@ -13913,10 +13914,10 @@
       <c r="C493" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D493" s="18">
+      <c r="D493" s="19">
         <v>4902124</v>
       </c>
-      <c r="E493" s="18">
+      <c r="E493" s="19">
         <v>1206519</v>
       </c>
       <c r="F493" s="3">
@@ -13936,10 +13937,10 @@
       <c r="C494" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="D494" s="19">
+      <c r="D494" s="20">
         <v>4902832</v>
       </c>
-      <c r="E494" s="19">
+      <c r="E494" s="20">
         <v>1209839</v>
       </c>
       <c r="F494" s="5">
@@ -13959,10 +13960,10 @@
       <c r="C495" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D495" s="19">
+      <c r="D495" s="20">
         <v>4902072</v>
       </c>
-      <c r="E495" s="19">
+      <c r="E495" s="20">
         <v>1207626</v>
       </c>
       <c r="F495" s="5">
@@ -13982,10 +13983,10 @@
       <c r="C496" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="D496" s="18">
+      <c r="D496" s="19">
         <v>4901825</v>
       </c>
-      <c r="E496" s="18">
+      <c r="E496" s="19">
         <v>1208627</v>
       </c>
       <c r="F496" s="3">
@@ -14005,10 +14006,10 @@
       <c r="C497" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="D497" s="18">
+      <c r="D497" s="19">
         <v>4903214</v>
       </c>
-      <c r="E497" s="18">
+      <c r="E497" s="19">
         <v>1205856</v>
       </c>
       <c r="F497" s="3">
@@ -14028,10 +14029,10 @@
       <c r="C498" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="D498" s="18">
+      <c r="D498" s="19">
         <v>4902933</v>
       </c>
-      <c r="E498" s="18">
+      <c r="E498" s="19">
         <v>1208572</v>
       </c>
       <c r="F498" s="3">
@@ -14051,10 +14052,10 @@
       <c r="C499" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="D499" s="18">
+      <c r="D499" s="19">
         <v>4903228</v>
       </c>
-      <c r="E499" s="18">
+      <c r="E499" s="19">
         <v>1205129</v>
       </c>
       <c r="F499" s="3">
@@ -14074,10 +14075,10 @@
       <c r="C500" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="D500" s="19">
+      <c r="D500" s="20">
         <v>4902934</v>
       </c>
-      <c r="E500" s="19">
+      <c r="E500" s="20">
         <v>1209013</v>
       </c>
       <c r="F500" s="5">
@@ -14097,10 +14098,10 @@
       <c r="C501" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="D501" s="18">
+      <c r="D501" s="19">
         <v>4903209</v>
       </c>
-      <c r="E501" s="18">
+      <c r="E501" s="19">
         <v>1206876</v>
       </c>
       <c r="F501" s="3">
@@ -14120,10 +14121,10 @@
       <c r="C502" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D502" s="19">
+      <c r="D502" s="20">
         <v>4902755</v>
       </c>
-      <c r="E502" s="19">
+      <c r="E502" s="20">
         <v>1209352</v>
       </c>
       <c r="F502" s="5">
@@ -14143,10 +14144,10 @@
       <c r="C503" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="D503" s="18">
+      <c r="D503" s="19">
         <v>4903034</v>
       </c>
-      <c r="E503" s="18">
+      <c r="E503" s="19">
         <v>1207688</v>
       </c>
       <c r="F503" s="3">
@@ -14166,10 +14167,10 @@
       <c r="C504" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D504" s="18">
+      <c r="D504" s="19">
         <v>4903283</v>
       </c>
-      <c r="E504" s="18">
+      <c r="E504" s="19">
         <v>1208806</v>
       </c>
       <c r="F504" s="3">
@@ -14189,10 +14190,10 @@
       <c r="C505" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D505" s="18">
+      <c r="D505" s="19">
         <v>4903319</v>
       </c>
-      <c r="E505" s="18">
+      <c r="E505" s="19">
         <v>1203753</v>
       </c>
       <c r="F505" s="3">
@@ -14212,10 +14213,10 @@
       <c r="C506" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="D506" s="19">
+      <c r="D506" s="20">
         <v>4901643</v>
       </c>
-      <c r="E506" s="19">
+      <c r="E506" s="20">
         <v>1206936</v>
       </c>
       <c r="F506" s="5">
@@ -14235,10 +14236,10 @@
       <c r="C507" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D507" s="18">
+      <c r="D507" s="19">
         <v>4902992</v>
       </c>
-      <c r="E507" s="18">
+      <c r="E507" s="19">
         <v>1210116</v>
       </c>
       <c r="F507" s="3">
@@ -14258,10 +14259,10 @@
       <c r="C508" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="D508" s="18">
+      <c r="D508" s="19">
         <v>4903166</v>
       </c>
-      <c r="E508" s="18">
+      <c r="E508" s="19">
         <v>1209938</v>
       </c>
       <c r="F508" s="3">
@@ -14281,10 +14282,10 @@
       <c r="C509" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D509" s="18">
+      <c r="D509" s="19">
         <v>4903279</v>
       </c>
-      <c r="E509" s="18">
+      <c r="E509" s="19">
         <v>1209630</v>
       </c>
       <c r="F509" s="3">
@@ -14304,10 +14305,10 @@
       <c r="C510" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="D510" s="19">
+      <c r="D510" s="20">
         <v>4903266</v>
       </c>
-      <c r="E510" s="19">
+      <c r="E510" s="20">
         <v>1209686</v>
       </c>
       <c r="F510" s="5">
@@ -14327,10 +14328,10 @@
       <c r="C511" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="D511" s="19">
+      <c r="D511" s="20">
         <v>4903502</v>
       </c>
-      <c r="E511" s="19">
+      <c r="E511" s="20">
         <v>1209608</v>
       </c>
       <c r="F511" s="5">
@@ -14350,10 +14351,10 @@
       <c r="C512" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="D512" s="18">
+      <c r="D512" s="19">
         <v>4903338</v>
       </c>
-      <c r="E512" s="18">
+      <c r="E512" s="19">
         <v>1209908</v>
       </c>
       <c r="F512" s="3">
@@ -14373,10 +14374,10 @@
       <c r="C513" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="D513" s="18">
+      <c r="D513" s="19">
         <v>4903531</v>
       </c>
-      <c r="E513" s="18">
+      <c r="E513" s="19">
         <v>1209666</v>
       </c>
       <c r="F513" s="3">
@@ -14396,10 +14397,10 @@
       <c r="C514" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="D514" s="19">
+      <c r="D514" s="20">
         <v>4902442</v>
       </c>
-      <c r="E514" s="19">
+      <c r="E514" s="20">
         <v>1208729</v>
       </c>
       <c r="F514" s="5">
@@ -14419,10 +14420,10 @@
       <c r="C515" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="D515" s="18">
+      <c r="D515" s="19">
         <v>4902375</v>
       </c>
-      <c r="E515" s="18">
+      <c r="E515" s="19">
         <v>1208958</v>
       </c>
       <c r="F515" s="3">
@@ -14442,10 +14443,10 @@
       <c r="C516" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D516" s="18">
+      <c r="D516" s="19">
         <v>4902560</v>
       </c>
-      <c r="E516" s="18">
+      <c r="E516" s="19">
         <v>1209900</v>
       </c>
       <c r="F516" s="3">
@@ -14465,10 +14466,10 @@
       <c r="C517" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D517" s="18">
+      <c r="D517" s="19">
         <v>4902350</v>
       </c>
-      <c r="E517" s="18">
+      <c r="E517" s="19">
         <v>1208821</v>
       </c>
       <c r="F517" s="3">
@@ -14488,10 +14489,10 @@
       <c r="C518" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D518" s="18">
+      <c r="D518" s="19">
         <v>4902619</v>
       </c>
-      <c r="E518" s="18">
+      <c r="E518" s="19">
         <v>1209262</v>
       </c>
       <c r="F518" s="3">
@@ -14511,10 +14512,10 @@
       <c r="C519" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="D519" s="18">
+      <c r="D519" s="19">
         <v>4902521</v>
       </c>
-      <c r="E519" s="18">
+      <c r="E519" s="19">
         <v>1209494</v>
       </c>
       <c r="F519" s="3">
@@ -14534,10 +14535,10 @@
       <c r="C520" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D520" s="18">
+      <c r="D520" s="19">
         <v>4902639</v>
       </c>
-      <c r="E520" s="18">
+      <c r="E520" s="19">
         <v>1209576</v>
       </c>
       <c r="F520" s="3">
@@ -14557,10 +14558,10 @@
       <c r="C521" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="D521" s="18">
+      <c r="D521" s="19">
         <v>4902929</v>
       </c>
-      <c r="E521" s="18">
+      <c r="E521" s="19">
         <v>1209826</v>
       </c>
       <c r="F521" s="3">
@@ -14580,10 +14581,10 @@
       <c r="C522" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="D522" s="18">
+      <c r="D522" s="19">
         <v>4902454</v>
       </c>
-      <c r="E522" s="18">
+      <c r="E522" s="19">
         <v>1210054</v>
       </c>
       <c r="F522" s="3">
@@ -14603,10 +14604,10 @@
       <c r="C523" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="D523" s="18">
+      <c r="D523" s="19">
         <v>4902869</v>
       </c>
-      <c r="E523" s="18">
+      <c r="E523" s="19">
         <v>1209292</v>
       </c>
       <c r="F523" s="3">
@@ -14626,10 +14627,10 @@
       <c r="C524" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="D524" s="18">
+      <c r="D524" s="19">
         <v>4902962</v>
       </c>
-      <c r="E524" s="18">
+      <c r="E524" s="19">
         <v>1209296</v>
       </c>
       <c r="F524" s="3">
@@ -14649,10 +14650,10 @@
       <c r="C525" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="D525" s="18">
+      <c r="D525" s="19">
         <v>4902935</v>
       </c>
-      <c r="E525" s="18">
+      <c r="E525" s="19">
         <v>1208937</v>
       </c>
       <c r="F525" s="3">
@@ -14672,10 +14673,10 @@
       <c r="C526" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="D526" s="19">
+      <c r="D526" s="20">
         <v>4902970</v>
       </c>
-      <c r="E526" s="19">
+      <c r="E526" s="20">
         <v>1208998</v>
       </c>
       <c r="F526" s="5">
@@ -14695,10 +14696,10 @@
       <c r="C527" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="D527" s="18">
+      <c r="D527" s="19">
         <v>4902929</v>
       </c>
-      <c r="E527" s="18">
+      <c r="E527" s="19">
         <v>1209598</v>
       </c>
       <c r="F527" s="3">
@@ -14718,10 +14719,10 @@
       <c r="C528" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="D528" s="18">
+      <c r="D528" s="19">
         <v>4902929</v>
       </c>
-      <c r="E528" s="18">
+      <c r="E528" s="19">
         <v>1209826</v>
       </c>
       <c r="F528" s="3">
@@ -14741,10 +14742,10 @@
       <c r="C529" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D529" s="18">
+      <c r="D529" s="19">
         <v>4903570</v>
       </c>
-      <c r="E529" s="18">
+      <c r="E529" s="19">
         <v>1209470</v>
       </c>
       <c r="F529" s="3">
@@ -14764,10 +14765,10 @@
       <c r="C530" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D530" s="18">
+      <c r="D530" s="19">
         <v>4902701</v>
       </c>
-      <c r="E530" s="18">
+      <c r="E530" s="19">
         <v>1209692</v>
       </c>
       <c r="F530" s="3">
@@ -14787,10 +14788,10 @@
       <c r="C531" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="D531" s="18">
+      <c r="D531" s="19">
         <v>4903729</v>
       </c>
-      <c r="E531" s="18">
+      <c r="E531" s="19">
         <v>1209615</v>
       </c>
       <c r="F531" s="3">
@@ -14810,10 +14811,10 @@
       <c r="C532" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="D532" s="18">
+      <c r="D532" s="19">
         <v>4903881</v>
       </c>
-      <c r="E532" s="18">
+      <c r="E532" s="19">
         <v>1209479</v>
       </c>
       <c r="F532" s="3">
@@ -14833,10 +14834,10 @@
       <c r="C533" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D533" s="18">
+      <c r="D533" s="19">
         <v>4903781</v>
       </c>
-      <c r="E533" s="18">
+      <c r="E533" s="19">
         <v>1212439</v>
       </c>
       <c r="F533" s="3">
@@ -14856,10 +14857,10 @@
       <c r="C534" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="D534" s="18">
+      <c r="D534" s="19">
         <v>4903779</v>
       </c>
-      <c r="E534" s="18">
+      <c r="E534" s="19">
         <v>1212245</v>
       </c>
       <c r="F534" s="3">
@@ -14879,10 +14880,10 @@
       <c r="C535" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="D535" s="18">
+      <c r="D535" s="19">
         <v>4903796</v>
       </c>
-      <c r="E535" s="18">
+      <c r="E535" s="19">
         <v>1212088</v>
       </c>
       <c r="F535" s="3">
@@ -14902,10 +14903,10 @@
       <c r="C536" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="D536" s="18">
+      <c r="D536" s="19">
         <v>4903888</v>
       </c>
-      <c r="E536" s="18">
+      <c r="E536" s="19">
         <v>1211562</v>
       </c>
       <c r="F536" s="3">
@@ -14925,10 +14926,10 @@
       <c r="C537" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="D537" s="18">
+      <c r="D537" s="19">
         <v>4903951</v>
       </c>
-      <c r="E537" s="18">
+      <c r="E537" s="19">
         <v>1211449</v>
       </c>
       <c r="F537" s="3">
@@ -14948,10 +14949,10 @@
       <c r="C538" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="D538" s="19">
+      <c r="D538" s="20">
         <v>4903951</v>
       </c>
-      <c r="E538" s="19">
+      <c r="E538" s="20">
         <v>1211449</v>
       </c>
       <c r="F538" s="5">
@@ -14971,10 +14972,10 @@
       <c r="C539" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="D539" s="18">
+      <c r="D539" s="19">
         <v>4903914</v>
       </c>
-      <c r="E539" s="18">
+      <c r="E539" s="19">
         <v>1211033</v>
       </c>
       <c r="F539" s="3">
@@ -14994,10 +14995,10 @@
       <c r="C540" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="D540" s="19">
+      <c r="D540" s="20">
         <v>4903942</v>
       </c>
-      <c r="E540" s="19">
+      <c r="E540" s="20">
         <v>1210913</v>
       </c>
       <c r="F540" s="5">
@@ -15017,10 +15018,10 @@
       <c r="C541" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="D541" s="18">
+      <c r="D541" s="19">
         <v>4904024</v>
       </c>
-      <c r="E541" s="18">
+      <c r="E541" s="19">
         <v>1210672</v>
       </c>
       <c r="F541" s="3">
@@ -15040,10 +15041,10 @@
       <c r="C542" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="D542" s="18">
+      <c r="D542" s="19">
         <v>4904347</v>
       </c>
-      <c r="E542" s="18">
+      <c r="E542" s="19">
         <v>1210447</v>
       </c>
       <c r="F542" s="3">
@@ -15063,10 +15064,10 @@
       <c r="C543" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="D543" s="18">
+      <c r="D543" s="19">
         <v>4904417</v>
       </c>
-      <c r="E543" s="18">
+      <c r="E543" s="19">
         <v>1210344</v>
       </c>
       <c r="F543" s="3">
@@ -15086,10 +15087,10 @@
       <c r="C544" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="D544" s="18">
+      <c r="D544" s="19">
         <v>4904257</v>
       </c>
-      <c r="E544" s="18">
+      <c r="E544" s="19">
         <v>1210237</v>
       </c>
       <c r="F544" s="3">
@@ -15109,10 +15110,10 @@
       <c r="C545" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="D545" s="18">
+      <c r="D545" s="19">
         <v>4904065</v>
       </c>
-      <c r="E545" s="18">
+      <c r="E545" s="19">
         <v>1210387</v>
       </c>
       <c r="F545" s="3">
@@ -15132,10 +15133,10 @@
       <c r="C546" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="D546" s="18">
+      <c r="D546" s="19">
         <v>4903920</v>
       </c>
-      <c r="E546" s="18">
+      <c r="E546" s="19">
         <v>1210332</v>
       </c>
       <c r="F546" s="3">
@@ -15155,10 +15156,10 @@
       <c r="C547" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="D547" s="18">
+      <c r="D547" s="19">
         <v>4903839</v>
       </c>
-      <c r="E547" s="18">
+      <c r="E547" s="19">
         <v>1210737</v>
       </c>
       <c r="F547" s="3">
@@ -15178,10 +15179,10 @@
       <c r="C548" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="D548" s="18">
+      <c r="D548" s="19">
         <v>4903732</v>
       </c>
-      <c r="E548" s="18">
+      <c r="E548" s="19">
         <v>1211061</v>
       </c>
       <c r="F548" s="3">
@@ -15201,10 +15202,10 @@
       <c r="C549" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="D549" s="18">
+      <c r="D549" s="19">
         <v>4903572</v>
       </c>
-      <c r="E549" s="18">
+      <c r="E549" s="19">
         <v>1211448</v>
       </c>
       <c r="F549" s="3">
@@ -15224,10 +15225,10 @@
       <c r="C550" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="D550" s="19">
+      <c r="D550" s="20">
         <v>4903430</v>
       </c>
-      <c r="E550" s="19">
+      <c r="E550" s="20">
         <v>1211451</v>
       </c>
       <c r="F550" s="5">
@@ -15247,10 +15248,10 @@
       <c r="C551" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="D551" s="18">
+      <c r="D551" s="19">
         <v>4903669</v>
       </c>
-      <c r="E551" s="18">
+      <c r="E551" s="19">
         <v>1211665</v>
       </c>
       <c r="F551" s="3">
@@ -15270,10 +15271,10 @@
       <c r="C552" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="D552" s="18">
+      <c r="D552" s="19">
         <v>4904026</v>
       </c>
-      <c r="E552" s="18">
+      <c r="E552" s="19">
         <v>1212552</v>
       </c>
       <c r="F552" s="3">
@@ -15293,10 +15294,10 @@
       <c r="C553" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="D553" s="18">
+      <c r="D553" s="19">
         <v>4903714</v>
       </c>
-      <c r="E553" s="18">
+      <c r="E553" s="19">
         <v>1212747</v>
       </c>
       <c r="F553" s="3">
@@ -15316,10 +15317,10 @@
       <c r="C554" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="D554" s="19">
+      <c r="D554" s="20">
         <v>4903988</v>
       </c>
-      <c r="E554" s="19">
+      <c r="E554" s="20">
         <v>1212655</v>
       </c>
       <c r="F554" s="5">
@@ -15339,10 +15340,10 @@
       <c r="C555" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="D555" s="18">
+      <c r="D555" s="19">
         <v>4903929</v>
       </c>
-      <c r="E555" s="18">
+      <c r="E555" s="19">
         <v>1212677</v>
       </c>
       <c r="F555" s="3">
@@ -15362,10 +15363,10 @@
       <c r="C556" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="D556" s="18">
+      <c r="D556" s="19">
         <v>4903714</v>
       </c>
-      <c r="E556" s="18">
+      <c r="E556" s="19">
         <v>1212511</v>
       </c>
       <c r="F556" s="3">
@@ -15385,10 +15386,10 @@
       <c r="C557" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="D557" s="19">
+      <c r="D557" s="20">
         <v>4904104</v>
       </c>
-      <c r="E557" s="19">
+      <c r="E557" s="20">
         <v>1212232</v>
       </c>
       <c r="F557" s="5">
@@ -15408,10 +15409,10 @@
       <c r="C558" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="D558" s="18">
+      <c r="D558" s="19">
         <v>4904158</v>
       </c>
-      <c r="E558" s="18">
+      <c r="E558" s="19">
         <v>1212096</v>
       </c>
       <c r="F558" s="3">
@@ -15431,10 +15432,10 @@
       <c r="C559" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="D559" s="18">
+      <c r="D559" s="19">
         <v>4904113</v>
       </c>
-      <c r="E559" s="18">
+      <c r="E559" s="19">
         <v>1212319</v>
       </c>
       <c r="F559" s="3">
@@ -15454,10 +15455,10 @@
       <c r="C560" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="D560" s="18">
+      <c r="D560" s="19">
         <v>4903917</v>
       </c>
-      <c r="E560" s="18">
+      <c r="E560" s="19">
         <v>1212156</v>
       </c>
       <c r="F560" s="3">
@@ -15477,10 +15478,10 @@
       <c r="C561" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="D561" s="18">
+      <c r="D561" s="19">
         <v>4903972</v>
       </c>
-      <c r="E561" s="18">
+      <c r="E561" s="19">
         <v>1211824</v>
       </c>
       <c r="F561" s="3">
@@ -15500,10 +15501,10 @@
       <c r="C562" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="D562" s="18">
+      <c r="D562" s="19">
         <v>4904105</v>
       </c>
-      <c r="E562" s="18">
+      <c r="E562" s="19">
         <v>1211656</v>
       </c>
       <c r="F562" s="3">
@@ -15523,10 +15524,10 @@
       <c r="C563" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="D563" s="18">
+      <c r="D563" s="19">
         <v>4904424</v>
       </c>
-      <c r="E563" s="18">
+      <c r="E563" s="19">
         <v>1211703</v>
       </c>
       <c r="F563" s="3">
@@ -15546,10 +15547,10 @@
       <c r="C564" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="D564" s="18">
+      <c r="D564" s="19">
         <v>4904706</v>
       </c>
-      <c r="E564" s="18">
+      <c r="E564" s="19">
         <v>1211704</v>
       </c>
       <c r="F564" s="3">
@@ -15569,10 +15570,10 @@
       <c r="C565" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="D565" s="18">
+      <c r="D565" s="19">
         <v>4904959</v>
       </c>
-      <c r="E565" s="18">
+      <c r="E565" s="19">
         <v>1212169</v>
       </c>
       <c r="F565" s="3">
@@ -15592,10 +15593,10 @@
       <c r="C566" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="D566" s="18">
+      <c r="D566" s="19">
         <v>4904861</v>
       </c>
-      <c r="E566" s="18">
+      <c r="E566" s="19">
         <v>1211908</v>
       </c>
       <c r="F566" s="3">
@@ -15615,10 +15616,10 @@
       <c r="C567" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="D567" s="18">
+      <c r="D567" s="19">
         <v>4904717</v>
       </c>
-      <c r="E567" s="18">
+      <c r="E567" s="19">
         <v>1211213</v>
       </c>
       <c r="F567" s="3">
@@ -15638,10 +15639,10 @@
       <c r="C568" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D568" s="18">
+      <c r="D568" s="19">
         <v>4904738</v>
       </c>
-      <c r="E568" s="18">
+      <c r="E568" s="19">
         <v>1210768</v>
       </c>
       <c r="F568" s="3">
@@ -15661,10 +15662,10 @@
       <c r="C569" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D569" s="18">
+      <c r="D569" s="19">
         <v>4904710</v>
       </c>
-      <c r="E569" s="18">
+      <c r="E569" s="19">
         <v>1210354</v>
       </c>
       <c r="F569" s="3">
@@ -15684,10 +15685,10 @@
       <c r="C570" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D570" s="18">
+      <c r="D570" s="19">
         <v>4904870</v>
       </c>
-      <c r="E570" s="18">
+      <c r="E570" s="19">
         <v>1210436</v>
       </c>
       <c r="F570" s="3">
@@ -15707,10 +15708,10 @@
       <c r="C571" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D571" s="18">
+      <c r="D571" s="19">
         <v>4904682</v>
       </c>
-      <c r="E571" s="18">
+      <c r="E571" s="19">
         <v>1209921</v>
       </c>
       <c r="F571" s="3">
@@ -15730,10 +15731,10 @@
       <c r="C572" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D572" s="18">
+      <c r="D572" s="19">
         <v>4904698</v>
       </c>
-      <c r="E572" s="18">
+      <c r="E572" s="19">
         <v>1212377</v>
       </c>
       <c r="F572" s="3">
@@ -15753,10 +15754,10 @@
       <c r="C573" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D573" s="18">
+      <c r="D573" s="19">
         <v>4904728</v>
       </c>
-      <c r="E573" s="18">
+      <c r="E573" s="19">
         <v>1212655</v>
       </c>
       <c r="F573" s="3">
@@ -15776,10 +15777,10 @@
       <c r="C574" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D574" s="18">
+      <c r="D574" s="19">
         <v>4904714</v>
       </c>
-      <c r="E574" s="18">
+      <c r="E574" s="19">
         <v>1212595</v>
       </c>
       <c r="F574" s="3">
@@ -15799,10 +15800,10 @@
       <c r="C575" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D575" s="18">
+      <c r="D575" s="19">
         <v>4904738</v>
       </c>
-      <c r="E575" s="18">
+      <c r="E575" s="19">
         <v>1212957</v>
       </c>
       <c r="F575" s="3">
@@ -15822,10 +15823,10 @@
       <c r="C576" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="D576" s="18">
+      <c r="D576" s="19">
         <v>4904841</v>
       </c>
-      <c r="E576" s="18">
+      <c r="E576" s="19">
         <v>1212687</v>
       </c>
       <c r="F576" s="3">
@@ -15845,10 +15846,10 @@
       <c r="C577" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="D577" s="18">
+      <c r="D577" s="19">
         <v>4904847</v>
       </c>
-      <c r="E577" s="18">
+      <c r="E577" s="19">
         <v>1212595</v>
       </c>
       <c r="F577" s="3">
@@ -15868,10 +15869,10 @@
       <c r="C578" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="D578" s="18">
+      <c r="D578" s="19">
         <v>4905031</v>
       </c>
-      <c r="E578" s="18">
+      <c r="E578" s="19">
         <v>1212523</v>
       </c>
       <c r="F578" s="3">
@@ -15891,10 +15892,10 @@
       <c r="C579" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="D579" s="19">
+      <c r="D579" s="20">
         <v>4905057</v>
       </c>
-      <c r="E579" s="19">
+      <c r="E579" s="20">
         <v>1212486</v>
       </c>
       <c r="F579" s="5">
@@ -15914,10 +15915,10 @@
       <c r="C580" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="D580" s="18">
+      <c r="D580" s="19">
         <v>4904427</v>
       </c>
-      <c r="E580" s="18">
+      <c r="E580" s="19">
         <v>1212841</v>
       </c>
       <c r="F580" s="3">
@@ -15937,10 +15938,10 @@
       <c r="C581" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="D581" s="18">
+      <c r="D581" s="19">
         <v>4904033</v>
       </c>
-      <c r="E581" s="18">
+      <c r="E581" s="19">
         <v>1212879</v>
       </c>
       <c r="F581" s="3">
@@ -15960,10 +15961,10 @@
       <c r="C582" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="D582" s="18">
+      <c r="D582" s="19">
         <v>4903931</v>
       </c>
-      <c r="E582" s="18">
+      <c r="E582" s="19">
         <v>1213226</v>
       </c>
       <c r="F582" s="3">
@@ -15983,10 +15984,10 @@
       <c r="C583" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="D583" s="18">
+      <c r="D583" s="19">
         <v>4904155</v>
       </c>
-      <c r="E583" s="18">
+      <c r="E583" s="19">
         <v>1213198</v>
       </c>
       <c r="F583" s="3">
@@ -16006,10 +16007,10 @@
       <c r="C584" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="D584" s="18">
+      <c r="D584" s="19">
         <v>4904372</v>
       </c>
-      <c r="E584" s="18">
+      <c r="E584" s="19">
         <v>1213157</v>
       </c>
       <c r="F584" s="3">
@@ -16029,10 +16030,10 @@
       <c r="C585" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="D585" s="18">
+      <c r="D585" s="19">
         <v>4904507</v>
       </c>
-      <c r="E585" s="18">
+      <c r="E585" s="19">
         <v>1213102</v>
       </c>
       <c r="F585" s="3">
@@ -16052,10 +16053,10 @@
       <c r="C586" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="D586" s="18">
+      <c r="D586" s="19">
         <v>4904256</v>
       </c>
-      <c r="E586" s="18">
+      <c r="E586" s="19">
         <v>1213027</v>
       </c>
       <c r="F586" s="3">
@@ -16075,10 +16076,10 @@
       <c r="C587" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="D587" s="18">
+      <c r="D587" s="19">
         <v>4904374</v>
       </c>
-      <c r="E587" s="18">
+      <c r="E587" s="19">
         <v>1212594</v>
       </c>
       <c r="F587" s="3">
@@ -16098,10 +16099,10 @@
       <c r="C588" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="D588" s="18">
+      <c r="D588" s="19">
         <v>4904586</v>
       </c>
-      <c r="E588" s="18">
+      <c r="E588" s="19">
         <v>1212735</v>
       </c>
       <c r="F588" s="3">
@@ -16121,10 +16122,10 @@
       <c r="C589" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="D589" s="18">
+      <c r="D589" s="19">
         <v>4903694</v>
       </c>
-      <c r="E589" s="18">
+      <c r="E589" s="19">
         <v>1213186</v>
       </c>
       <c r="F589" s="3">
@@ -16144,10 +16145,10 @@
       <c r="C590" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="D590" s="18">
+      <c r="D590" s="19">
         <v>4903596</v>
       </c>
-      <c r="E590" s="18">
+      <c r="E590" s="19">
         <v>1212859</v>
       </c>
       <c r="F590" s="3">
@@ -16167,10 +16168,10 @@
       <c r="C591" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="D591" s="19">
+      <c r="D591" s="20">
         <v>4903596</v>
       </c>
-      <c r="E591" s="19">
+      <c r="E591" s="20">
         <v>1212814</v>
       </c>
       <c r="F591" s="5">
@@ -16190,10 +16191,10 @@
       <c r="C592" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="D592" s="19">
+      <c r="D592" s="20">
         <v>4903518</v>
       </c>
-      <c r="E592" s="19">
+      <c r="E592" s="20">
         <v>1212228</v>
       </c>
       <c r="F592" s="5">
@@ -16213,10 +16214,10 @@
       <c r="C593" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="D593" s="19">
+      <c r="D593" s="20">
         <v>4903343</v>
       </c>
-      <c r="E593" s="19">
+      <c r="E593" s="20">
         <v>1211832</v>
       </c>
       <c r="F593" s="5">
@@ -16236,10 +16237,10 @@
       <c r="C594" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="D594" s="18">
+      <c r="D594" s="19">
         <v>4903551</v>
       </c>
-      <c r="E594" s="18">
+      <c r="E594" s="19">
         <v>1212184</v>
       </c>
       <c r="F594" s="3">
@@ -16259,10 +16260,10 @@
       <c r="C595" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="D595" s="19">
+      <c r="D595" s="20">
         <v>4903335</v>
       </c>
-      <c r="E595" s="19">
+      <c r="E595" s="20">
         <v>1212069</v>
       </c>
       <c r="F595" s="5">
@@ -16282,10 +16283,10 @@
       <c r="C596" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="D596" s="18">
+      <c r="D596" s="19">
         <v>4903515</v>
       </c>
-      <c r="E596" s="18">
+      <c r="E596" s="19">
         <v>1211691</v>
       </c>
       <c r="F596" s="3">
@@ -16305,10 +16306,10 @@
       <c r="C597" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="D597" s="19">
+      <c r="D597" s="20">
         <v>4903373</v>
       </c>
-      <c r="E597" s="19">
+      <c r="E597" s="20">
         <v>1212199</v>
       </c>
       <c r="F597" s="5">
@@ -16328,10 +16329,10 @@
       <c r="C598" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="D598" s="19">
+      <c r="D598" s="20">
         <v>4903352</v>
       </c>
-      <c r="E598" s="19">
+      <c r="E598" s="20">
         <v>1212557</v>
       </c>
       <c r="F598" s="5">
@@ -16351,10 +16352,10 @@
       <c r="C599" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="D599" s="18">
+      <c r="D599" s="19">
         <v>4903380</v>
       </c>
-      <c r="E599" s="18">
+      <c r="E599" s="19">
         <v>1211786</v>
       </c>
       <c r="F599" s="3">
@@ -16374,10 +16375,10 @@
       <c r="C600" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="D600" s="18">
+      <c r="D600" s="19">
         <v>4903382</v>
       </c>
-      <c r="E600" s="18">
+      <c r="E600" s="19">
         <v>1212464</v>
       </c>
       <c r="F600" s="3">
@@ -16397,10 +16398,10 @@
       <c r="C601" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="D601" s="19">
+      <c r="D601" s="20">
         <v>4903333</v>
       </c>
-      <c r="E601" s="19">
+      <c r="E601" s="20">
         <v>1212612</v>
       </c>
       <c r="F601" s="5">
@@ -16420,10 +16421,10 @@
       <c r="C602" s="5" t="s">
         <v>650</v>
       </c>
-      <c r="D602" s="19">
+      <c r="D602" s="20">
         <v>4903323</v>
       </c>
-      <c r="E602" s="19">
+      <c r="E602" s="20">
         <v>1212612</v>
       </c>
       <c r="F602" s="5">
@@ -16443,10 +16444,10 @@
       <c r="C603" s="5" t="s">
         <v>651</v>
       </c>
-      <c r="D603" s="19">
+      <c r="D603" s="20">
         <v>4903285</v>
       </c>
-      <c r="E603" s="19">
+      <c r="E603" s="20">
         <v>1212614</v>
       </c>
       <c r="F603" s="5">
@@ -16466,10 +16467,10 @@
       <c r="C604" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="D604" s="19">
+      <c r="D604" s="20">
         <v>4903391</v>
       </c>
-      <c r="E604" s="19">
+      <c r="E604" s="20">
         <v>1212572</v>
       </c>
       <c r="F604" s="5">
@@ -16489,10 +16490,10 @@
       <c r="C605" s="5" t="s">
         <v>653</v>
       </c>
-      <c r="D605" s="19">
+      <c r="D605" s="20">
         <v>4903334</v>
       </c>
-      <c r="E605" s="19">
+      <c r="E605" s="20">
         <v>1212024</v>
       </c>
       <c r="F605" s="5">
@@ -16512,10 +16513,10 @@
       <c r="C606" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="D606" s="19">
+      <c r="D606" s="20">
         <v>4903392</v>
       </c>
-      <c r="E606" s="19">
+      <c r="E606" s="20">
         <v>1212674</v>
       </c>
       <c r="F606" s="5">
@@ -16535,10 +16536,10 @@
       <c r="C607" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="D607" s="19">
+      <c r="D607" s="20">
         <v>4903342</v>
       </c>
-      <c r="E607" s="19">
+      <c r="E607" s="20">
         <v>1212794</v>
       </c>
       <c r="F607" s="5">
@@ -16558,10 +16559,10 @@
       <c r="C608" s="5" t="s">
         <v>656</v>
       </c>
-      <c r="D608" s="19">
+      <c r="D608" s="20">
         <v>4903317</v>
       </c>
-      <c r="E608" s="19">
+      <c r="E608" s="20">
         <v>1212839</v>
       </c>
       <c r="F608" s="5">
@@ -16581,10 +16582,10 @@
       <c r="C609" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="D609" s="19">
+      <c r="D609" s="20">
         <v>4903345</v>
       </c>
-      <c r="E609" s="19">
+      <c r="E609" s="20">
         <v>1213030</v>
       </c>
       <c r="F609" s="5">
@@ -16604,10 +16605,10 @@
       <c r="C610" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="D610" s="19">
+      <c r="D610" s="20">
         <v>4903403</v>
       </c>
-      <c r="E610" s="19">
+      <c r="E610" s="20">
         <v>1212938</v>
       </c>
       <c r="F610" s="5">
@@ -16627,10 +16628,10 @@
       <c r="C611" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="D611" s="18">
+      <c r="D611" s="19">
         <v>4904237</v>
       </c>
-      <c r="E611" s="18">
+      <c r="E611" s="19">
         <v>1212349</v>
       </c>
       <c r="F611" s="3">
@@ -16650,10 +16651,10 @@
       <c r="C612" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D612" s="18">
+      <c r="D612" s="19">
         <v>4904414</v>
       </c>
-      <c r="E612" s="18">
+      <c r="E612" s="19">
         <v>1212142</v>
       </c>
       <c r="F612" s="3">
@@ -16673,10 +16674,10 @@
       <c r="C613" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="D613" s="19">
+      <c r="D613" s="20">
         <v>4904538</v>
       </c>
-      <c r="E613" s="19">
+      <c r="E613" s="20">
         <v>1212218</v>
       </c>
       <c r="F613" s="5">
@@ -16696,10 +16697,10 @@
       <c r="C614" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="D614" s="19">
+      <c r="D614" s="20">
         <v>4904752</v>
       </c>
-      <c r="E614" s="19">
+      <c r="E614" s="20">
         <v>1211927</v>
       </c>
       <c r="F614" s="5">
@@ -16719,10 +16720,10 @@
       <c r="C615" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="D615" s="19">
+      <c r="D615" s="20">
         <v>4904695</v>
       </c>
-      <c r="E615" s="19">
+      <c r="E615" s="20">
         <v>1211845</v>
       </c>
       <c r="F615" s="5">
@@ -16742,10 +16743,10 @@
       <c r="C616" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="D616" s="18">
+      <c r="D616" s="19">
         <v>4904423</v>
       </c>
-      <c r="E616" s="18">
+      <c r="E616" s="19">
         <v>1211864</v>
       </c>
       <c r="F616" s="3">
@@ -16765,10 +16766,10 @@
       <c r="C617" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="D617" s="19">
+      <c r="D617" s="20">
         <v>4904649</v>
       </c>
-      <c r="E617" s="19">
+      <c r="E617" s="20">
         <v>1211985</v>
       </c>
       <c r="F617" s="5">
@@ -16788,10 +16789,10 @@
       <c r="C618" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="D618" s="18">
+      <c r="D618" s="19">
         <v>4904349</v>
       </c>
-      <c r="E618" s="18">
+      <c r="E618" s="19">
         <v>1212388</v>
       </c>
       <c r="F618" s="3">
@@ -16811,10 +16812,10 @@
       <c r="C619" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="D619" s="19">
+      <c r="D619" s="20">
         <v>4904685</v>
       </c>
-      <c r="E619" s="19">
+      <c r="E619" s="20">
         <v>1212198</v>
       </c>
       <c r="F619" s="5">
@@ -16834,10 +16835,10 @@
       <c r="C620" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="D620" s="18">
+      <c r="D620" s="19">
         <v>4904520</v>
       </c>
-      <c r="E620" s="18">
+      <c r="E620" s="19">
         <v>1212375</v>
       </c>
       <c r="F620" s="3">
@@ -16857,10 +16858,10 @@
       <c r="C621" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="D621" s="18">
+      <c r="D621" s="19">
         <v>4903132</v>
       </c>
-      <c r="E621" s="18">
+      <c r="E621" s="19">
         <v>1210468</v>
       </c>
       <c r="F621" s="3">
@@ -16880,10 +16881,10 @@
       <c r="C622" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="D622" s="18">
+      <c r="D622" s="19">
         <v>4903528</v>
       </c>
-      <c r="E622" s="18">
+      <c r="E622" s="19">
         <v>1210646</v>
       </c>
       <c r="F622" s="3">
@@ -16903,10 +16904,10 @@
       <c r="C623" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D623" s="18">
+      <c r="D623" s="19">
         <v>4903653</v>
       </c>
-      <c r="E623" s="18">
+      <c r="E623" s="19">
         <v>1210666</v>
       </c>
       <c r="F623" s="3">
@@ -16926,10 +16927,10 @@
       <c r="C624" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D624" s="19">
+      <c r="D624" s="20">
         <v>4903631</v>
       </c>
-      <c r="E624" s="19">
+      <c r="E624" s="20">
         <v>1210513</v>
       </c>
       <c r="F624" s="5">
@@ -16949,10 +16950,10 @@
       <c r="C625" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="D625" s="18">
+      <c r="D625" s="19">
         <v>4903426</v>
       </c>
-      <c r="E625" s="18">
+      <c r="E625" s="19">
         <v>1210297</v>
       </c>
       <c r="F625" s="3">
@@ -16972,10 +16973,10 @@
       <c r="C626" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="D626" s="18">
+      <c r="D626" s="19">
         <v>4903678</v>
       </c>
-      <c r="E626" s="18">
+      <c r="E626" s="19">
         <v>1210269</v>
       </c>
       <c r="F626" s="3">
@@ -16995,10 +16996,10 @@
       <c r="C627" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D627" s="18">
+      <c r="D627" s="19">
         <v>4904223</v>
       </c>
-      <c r="E627" s="18">
+      <c r="E627" s="19">
         <v>1209977</v>
       </c>
       <c r="F627" s="3">
@@ -17018,10 +17019,10 @@
       <c r="C628" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="D628" s="18">
+      <c r="D628" s="19">
         <v>4904514</v>
       </c>
-      <c r="E628" s="18">
+      <c r="E628" s="19">
         <v>1210079</v>
       </c>
       <c r="F628" s="3">
@@ -17041,10 +17042,10 @@
       <c r="C629" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="D629" s="18">
+      <c r="D629" s="19">
         <v>4903516</v>
       </c>
-      <c r="E629" s="18">
+      <c r="E629" s="19">
         <v>1211088</v>
       </c>
       <c r="F629" s="3">
@@ -17064,10 +17065,10 @@
       <c r="C630" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="D630" s="18">
+      <c r="D630" s="19">
         <v>4903335</v>
       </c>
-      <c r="E630" s="18">
+      <c r="E630" s="19">
         <v>1210973</v>
       </c>
       <c r="F630" s="3">
@@ -17087,10 +17088,10 @@
       <c r="C631" s="5" t="s">
         <v>675</v>
       </c>
-      <c r="D631" s="19">
+      <c r="D631" s="20">
         <v>4903138</v>
       </c>
-      <c r="E631" s="19">
+      <c r="E631" s="20">
         <v>1211546</v>
       </c>
       <c r="F631" s="5">
@@ -17110,10 +17111,10 @@
       <c r="C632" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="D632" s="19">
+      <c r="D632" s="20">
         <v>4903287</v>
       </c>
-      <c r="E632" s="19">
+      <c r="E632" s="20">
         <v>1211530</v>
       </c>
       <c r="F632" s="5">
@@ -17133,10 +17134,10 @@
       <c r="C633" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D633" s="18">
+      <c r="D633" s="19">
         <v>4903173</v>
       </c>
-      <c r="E633" s="18">
+      <c r="E633" s="19">
         <v>1212031</v>
       </c>
       <c r="F633" s="3">
@@ -17156,10 +17157,10 @@
       <c r="C634" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="D634" s="18">
+      <c r="D634" s="19">
         <v>4903034</v>
       </c>
-      <c r="E634" s="18">
+      <c r="E634" s="19">
         <v>1211873</v>
       </c>
       <c r="F634" s="3">
@@ -17179,10 +17180,10 @@
       <c r="C635" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="D635" s="18">
+      <c r="D635" s="19">
         <v>4903052</v>
       </c>
-      <c r="E635" s="18">
+      <c r="E635" s="19">
         <v>1212090</v>
       </c>
       <c r="F635" s="3">
@@ -17202,10 +17203,10 @@
       <c r="C636" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D636" s="18">
+      <c r="D636" s="19">
         <v>4902343</v>
       </c>
-      <c r="E636" s="18">
+      <c r="E636" s="19">
         <v>1211290</v>
       </c>
       <c r="F636" s="3">
@@ -17225,10 +17226,10 @@
       <c r="C637" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="D637" s="18">
+      <c r="D637" s="19">
         <v>4902366</v>
       </c>
-      <c r="E637" s="18">
+      <c r="E637" s="19">
         <v>1211700</v>
       </c>
       <c r="F637" s="3">
@@ -17248,10 +17249,10 @@
       <c r="C638" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="D638" s="18">
+      <c r="D638" s="19">
         <v>4902256</v>
       </c>
-      <c r="E638" s="18">
+      <c r="E638" s="19">
         <v>1211735</v>
       </c>
       <c r="F638" s="3">
@@ -17271,10 +17272,10 @@
       <c r="C639" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="D639" s="18">
+      <c r="D639" s="19">
         <v>4902653</v>
       </c>
-      <c r="E639" s="18">
+      <c r="E639" s="19">
         <v>1211940</v>
       </c>
       <c r="F639" s="3">
@@ -17294,10 +17295,10 @@
       <c r="C640" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="D640" s="18">
+      <c r="D640" s="19">
         <v>4902513</v>
       </c>
-      <c r="E640" s="18">
+      <c r="E640" s="19">
         <v>1212271</v>
       </c>
       <c r="F640" s="3">
@@ -17317,10 +17318,10 @@
       <c r="C641" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="D641" s="18">
+      <c r="D641" s="19">
         <v>4902449</v>
       </c>
-      <c r="E641" s="18">
+      <c r="E641" s="19">
         <v>1212180</v>
       </c>
       <c r="F641" s="3">
@@ -17340,10 +17341,10 @@
       <c r="C642" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D642" s="18">
+      <c r="D642" s="19">
         <v>4902356</v>
       </c>
-      <c r="E642" s="18">
+      <c r="E642" s="19">
         <v>1212240</v>
       </c>
       <c r="F642" s="3">
@@ -17363,10 +17364,10 @@
       <c r="C643" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="D643" s="18">
+      <c r="D643" s="19">
         <v>4902805</v>
       </c>
-      <c r="E643" s="18">
+      <c r="E643" s="19">
         <v>1213110</v>
       </c>
       <c r="F643" s="3">
@@ -17386,10 +17387,10 @@
       <c r="C644" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="D644" s="18">
+      <c r="D644" s="19">
         <v>4902894</v>
       </c>
-      <c r="E644" s="18">
+      <c r="E644" s="19">
         <v>1211027</v>
       </c>
       <c r="F644" s="3">
@@ -17409,10 +17410,10 @@
       <c r="C645" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="D645" s="18">
+      <c r="D645" s="19">
         <v>4902883</v>
       </c>
-      <c r="E645" s="18">
+      <c r="E645" s="19">
         <v>1210627</v>
       </c>
       <c r="F645" s="3">
@@ -17432,10 +17433,10 @@
       <c r="C646" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="D646" s="18">
+      <c r="D646" s="19">
         <v>4902978</v>
       </c>
-      <c r="E646" s="18">
+      <c r="E646" s="19">
         <v>1210398</v>
       </c>
       <c r="F646" s="3">
@@ -17455,10 +17456,10 @@
       <c r="C647" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="D647" s="18">
+      <c r="D647" s="19">
         <v>4902924</v>
       </c>
-      <c r="E647" s="18">
+      <c r="E647" s="19">
         <v>1211263</v>
       </c>
       <c r="F647" s="3">
@@ -17478,10 +17479,10 @@
       <c r="C648" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="D648" s="18">
+      <c r="D648" s="19">
         <v>4903027</v>
       </c>
-      <c r="E648" s="18">
+      <c r="E648" s="19">
         <v>1210857</v>
       </c>
       <c r="F648" s="3">
@@ -17501,10 +17502,10 @@
       <c r="C649" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D649" s="18">
+      <c r="D649" s="19">
         <v>4902992</v>
       </c>
-      <c r="E649" s="18">
+      <c r="E649" s="19">
         <v>1210116</v>
       </c>
       <c r="F649" s="3">
@@ -17524,10 +17525,10 @@
       <c r="C650" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="D650" s="18">
+      <c r="D650" s="19">
         <v>4902738</v>
       </c>
-      <c r="E650" s="18">
+      <c r="E650" s="19">
         <v>1210602</v>
       </c>
       <c r="F650" s="3">
@@ -17547,10 +17548,10 @@
       <c r="C651" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="D651" s="18">
+      <c r="D651" s="19">
         <v>4902508</v>
       </c>
-      <c r="E651" s="18">
+      <c r="E651" s="19">
         <v>1210878</v>
       </c>
       <c r="F651" s="3">
@@ -17570,10 +17571,10 @@
       <c r="C652" s="5" t="s">
         <v>692</v>
       </c>
-      <c r="D652" s="19">
+      <c r="D652" s="20">
         <v>4902597</v>
       </c>
-      <c r="E652" s="19">
+      <c r="E652" s="20">
         <v>1210637</v>
       </c>
       <c r="F652" s="5">
@@ -17593,10 +17594,10 @@
       <c r="C653" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="D653" s="19">
+      <c r="D653" s="20">
         <v>4902474</v>
       </c>
-      <c r="E653" s="19">
+      <c r="E653" s="20">
         <v>1210871</v>
       </c>
       <c r="F653" s="5">
@@ -17616,10 +17617,10 @@
       <c r="C654" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="D654" s="19">
+      <c r="D654" s="20">
         <v>4902475</v>
       </c>
-      <c r="E654" s="19">
+      <c r="E654" s="20">
         <v>1210921</v>
       </c>
       <c r="F654" s="5">
@@ -17639,10 +17640,10 @@
       <c r="C655" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="D655" s="18">
+      <c r="D655" s="19">
         <v>4902640</v>
       </c>
-      <c r="E655" s="18">
+      <c r="E655" s="19">
         <v>1211003</v>
       </c>
       <c r="F655" s="3">
@@ -17662,10 +17663,10 @@
       <c r="C656" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="D656" s="18">
+      <c r="D656" s="19">
         <v>4902582</v>
       </c>
-      <c r="E656" s="18">
+      <c r="E656" s="19">
         <v>1211134</v>
       </c>
       <c r="F656" s="3">
@@ -17685,10 +17686,10 @@
       <c r="C657" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D657" s="18">
+      <c r="D657" s="19">
         <v>4903827</v>
       </c>
-      <c r="E657" s="18">
+      <c r="E657" s="19">
         <v>1213593</v>
       </c>
       <c r="F657" s="3">
@@ -17708,10 +17709,10 @@
       <c r="C658" s="5" t="s">
         <v>697</v>
       </c>
-      <c r="D658" s="19">
+      <c r="D658" s="20">
         <v>4903933</v>
       </c>
-      <c r="E658" s="19">
+      <c r="E658" s="20">
         <v>1215718</v>
       </c>
       <c r="F658" s="5">
@@ -17731,10 +17732,10 @@
       <c r="C659" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="D659" s="18">
+      <c r="D659" s="19">
         <v>4904570</v>
       </c>
-      <c r="E659" s="18">
+      <c r="E659" s="19">
         <v>1216103</v>
       </c>
       <c r="F659" s="3">
@@ -17754,10 +17755,10 @@
       <c r="C660" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="D660" s="18">
+      <c r="D660" s="19">
         <v>4902360</v>
       </c>
-      <c r="E660" s="18">
+      <c r="E660" s="19">
         <v>1214995</v>
       </c>
       <c r="F660" s="3">
@@ -17777,10 +17778,10 @@
       <c r="C661" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="D661" s="18">
+      <c r="D661" s="19">
         <v>4904087</v>
       </c>
-      <c r="E661" s="18">
+      <c r="E661" s="19">
         <v>1216095</v>
       </c>
       <c r="F661" s="3">
@@ -17800,10 +17801,10 @@
       <c r="C662" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D662" s="18">
+      <c r="D662" s="19">
         <v>4903969</v>
       </c>
-      <c r="E662" s="18">
+      <c r="E662" s="19">
         <v>1215234</v>
       </c>
       <c r="F662" s="3">
@@ -17823,10 +17824,10 @@
       <c r="C663" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D663" s="18">
+      <c r="D663" s="19">
         <v>4903811</v>
       </c>
-      <c r="E663" s="18">
+      <c r="E663" s="19">
         <v>1215843</v>
       </c>
       <c r="F663" s="3">
@@ -17846,10 +17847,10 @@
       <c r="C664" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D664" s="18">
+      <c r="D664" s="19">
         <v>4899082</v>
       </c>
-      <c r="E664" s="18">
+      <c r="E664" s="19">
         <v>1213627</v>
       </c>
       <c r="F664" s="3">
@@ -17869,10 +17870,10 @@
       <c r="C665" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D665" s="18">
+      <c r="D665" s="19">
         <v>4904181</v>
       </c>
-      <c r="E665" s="18">
+      <c r="E665" s="19">
         <v>1215529</v>
       </c>
       <c r="F665" s="3">
@@ -17892,10 +17893,10 @@
       <c r="C666" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="D666" s="18">
+      <c r="D666" s="19">
         <v>4904464</v>
       </c>
-      <c r="E666" s="18">
+      <c r="E666" s="19">
         <v>1215846</v>
       </c>
       <c r="F666" s="3">
@@ -17915,10 +17916,10 @@
       <c r="C667" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D667" s="18">
+      <c r="D667" s="19">
         <v>4902138</v>
       </c>
-      <c r="E667" s="18">
+      <c r="E667" s="19">
         <v>1215435</v>
       </c>
       <c r="F667" s="3">
@@ -17938,10 +17939,10 @@
       <c r="C668" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="D668" s="18">
+      <c r="D668" s="19">
         <v>4902674</v>
       </c>
-      <c r="E668" s="18">
+      <c r="E668" s="19">
         <v>1215423</v>
       </c>
       <c r="F668" s="3">
@@ -17961,10 +17962,10 @@
       <c r="C669" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="D669" s="18">
+      <c r="D669" s="19">
         <v>4902423</v>
       </c>
-      <c r="E669" s="18">
+      <c r="E669" s="19">
         <v>1215260</v>
       </c>
       <c r="F669" s="3">
@@ -17984,10 +17985,10 @@
       <c r="C670" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="D670" s="18">
+      <c r="D670" s="19">
         <v>4902317</v>
       </c>
-      <c r="E670" s="18">
+      <c r="E670" s="19">
         <v>1215530</v>
       </c>
       <c r="F670" s="3">
@@ -18007,10 +18008,10 @@
       <c r="C671" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D671" s="18">
+      <c r="D671" s="19">
         <v>4902662</v>
       </c>
-      <c r="E671" s="18">
+      <c r="E671" s="19">
         <v>1215170</v>
       </c>
       <c r="F671" s="3">
@@ -18030,10 +18031,10 @@
       <c r="C672" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="D672" s="18">
+      <c r="D672" s="19">
         <v>4902532</v>
       </c>
-      <c r="E672" s="18">
+      <c r="E672" s="19">
         <v>1215658</v>
       </c>
       <c r="F672" s="3">
@@ -18053,10 +18054,10 @@
       <c r="C673" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="D673" s="18">
+      <c r="D673" s="19">
         <v>4902507</v>
       </c>
-      <c r="E673" s="18">
+      <c r="E673" s="19">
         <v>1215271</v>
       </c>
       <c r="F673" s="3">
@@ -18076,10 +18077,10 @@
       <c r="C674" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="D674" s="18">
+      <c r="D674" s="19">
         <v>4902608</v>
       </c>
-      <c r="E674" s="18">
+      <c r="E674" s="19">
         <v>1214817</v>
       </c>
       <c r="F674" s="3">
@@ -18099,10 +18100,10 @@
       <c r="C675" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="D675" s="18">
+      <c r="D675" s="19">
         <v>4902611</v>
       </c>
-      <c r="E675" s="18">
+      <c r="E675" s="19">
         <v>1214866</v>
       </c>
       <c r="F675" s="3">
@@ -18122,10 +18123,10 @@
       <c r="C676" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="D676" s="18">
+      <c r="D676" s="19">
         <v>4902191</v>
       </c>
-      <c r="E676" s="18">
+      <c r="E676" s="19">
         <v>1215127</v>
       </c>
       <c r="F676" s="3">
@@ -18145,10 +18146,10 @@
       <c r="C677" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="D677" s="18">
+      <c r="D677" s="19">
         <v>4902289</v>
       </c>
-      <c r="E677" s="18">
+      <c r="E677" s="19">
         <v>1214839</v>
       </c>
       <c r="F677" s="3">
@@ -18168,10 +18169,10 @@
       <c r="C678" s="5" t="s">
         <v>711</v>
       </c>
-      <c r="D678" s="19">
+      <c r="D678" s="20">
         <v>4902375</v>
       </c>
-      <c r="E678" s="19">
+      <c r="E678" s="20">
         <v>1214595</v>
       </c>
       <c r="F678" s="5">
@@ -18191,10 +18192,10 @@
       <c r="C679" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="D679" s="18">
+      <c r="D679" s="19">
         <v>4902405</v>
       </c>
-      <c r="E679" s="18">
+      <c r="E679" s="19">
         <v>1214564</v>
       </c>
       <c r="F679" s="3">
@@ -18214,10 +18215,10 @@
       <c r="C680" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D680" s="18">
+      <c r="D680" s="19">
         <v>4902540</v>
       </c>
-      <c r="E680" s="18">
+      <c r="E680" s="19">
         <v>1215100</v>
       </c>
       <c r="F680" s="3">
@@ -18237,10 +18238,10 @@
       <c r="C681" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D681" s="18">
+      <c r="D681" s="19">
         <v>4906547</v>
       </c>
-      <c r="E681" s="18">
+      <c r="E681" s="19">
         <v>1211659</v>
       </c>
       <c r="F681" s="3">
@@ -18260,10 +18261,10 @@
       <c r="C682" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D682" s="18">
+      <c r="D682" s="19">
         <v>4906394</v>
       </c>
-      <c r="E682" s="18">
+      <c r="E682" s="19">
         <v>1211995</v>
       </c>
       <c r="F682" s="3">
@@ -18283,10 +18284,10 @@
       <c r="C683" s="9" t="s">
         <v>713</v>
       </c>
-      <c r="D683" s="20">
+      <c r="D683" s="21">
         <v>4901392</v>
       </c>
-      <c r="E683" s="20">
+      <c r="E683" s="21">
         <v>1210602</v>
       </c>
       <c r="F683" s="9">
@@ -18306,10 +18307,10 @@
       <c r="C684" s="9" t="s">
         <v>714</v>
       </c>
-      <c r="D684" s="20">
+      <c r="D684" s="21">
         <v>4901222</v>
       </c>
-      <c r="E684" s="20">
+      <c r="E684" s="21">
         <v>1210715</v>
       </c>
       <c r="F684" s="9">
@@ -18329,10 +18330,10 @@
       <c r="C685" s="9" t="s">
         <v>715</v>
       </c>
-      <c r="D685" s="20">
+      <c r="D685" s="21">
         <v>4901221</v>
       </c>
-      <c r="E685" s="20">
+      <c r="E685" s="21">
         <v>1210556</v>
       </c>
       <c r="F685" s="9">
@@ -18352,10 +18353,10 @@
       <c r="C686" s="12" t="s">
         <v>716</v>
       </c>
-      <c r="D686" s="21">
+      <c r="D686" s="22">
         <v>4901272</v>
       </c>
-      <c r="E686" s="21">
+      <c r="E686" s="22">
         <v>1210569</v>
       </c>
       <c r="F686" s="12">
@@ -18375,10 +18376,10 @@
       <c r="C687" s="9" t="s">
         <v>717</v>
       </c>
-      <c r="D687" s="20">
+      <c r="D687" s="21">
         <v>4901493</v>
       </c>
-      <c r="E687" s="20">
+      <c r="E687" s="21">
         <v>1210497</v>
       </c>
       <c r="F687" s="9">
@@ -18398,10 +18399,10 @@
       <c r="C688" s="9" t="s">
         <v>718</v>
       </c>
-      <c r="D688" s="20">
+      <c r="D688" s="21">
         <v>4901632</v>
       </c>
-      <c r="E688" s="20">
+      <c r="E688" s="21">
         <v>1210438</v>
       </c>
       <c r="F688" s="9">
@@ -18421,10 +18422,10 @@
       <c r="C689" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D689" s="20">
+      <c r="D689" s="21">
         <v>4901734</v>
       </c>
-      <c r="E689" s="20">
+      <c r="E689" s="21">
         <v>1210702</v>
       </c>
       <c r="F689" s="9">
@@ -18444,10 +18445,10 @@
       <c r="C690" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="D690" s="20">
+      <c r="D690" s="21">
         <v>4901815</v>
       </c>
-      <c r="E690" s="20">
+      <c r="E690" s="21">
         <v>1210470</v>
       </c>
       <c r="F690" s="9">
@@ -18467,10 +18468,10 @@
       <c r="C691" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="D691" s="21">
+      <c r="D691" s="22">
         <v>4901833</v>
       </c>
-      <c r="E691" s="21">
+      <c r="E691" s="22">
         <v>1210686</v>
       </c>
       <c r="F691" s="12">
@@ -18490,10 +18491,10 @@
       <c r="C692" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="D692" s="20">
+      <c r="D692" s="21">
         <v>4901888</v>
       </c>
-      <c r="E692" s="20">
+      <c r="E692" s="21">
         <v>1210580</v>
       </c>
       <c r="F692" s="9">
@@ -18513,10 +18514,10 @@
       <c r="C693" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="D693" s="20">
+      <c r="D693" s="21">
         <v>4901861</v>
       </c>
-      <c r="E693" s="20">
+      <c r="E693" s="21">
         <v>1210209</v>
       </c>
       <c r="F693" s="9">
@@ -18536,10 +18537,10 @@
       <c r="C694" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="D694" s="20">
+      <c r="D694" s="21">
         <v>4902139</v>
       </c>
-      <c r="E694" s="20">
+      <c r="E694" s="21">
         <v>1210853</v>
       </c>
       <c r="F694" s="9">
@@ -18559,10 +18560,10 @@
       <c r="C695" s="12" t="s">
         <v>719</v>
       </c>
-      <c r="D695" s="21">
+      <c r="D695" s="22">
         <v>4902144</v>
       </c>
-      <c r="E695" s="21">
+      <c r="E695" s="22">
         <v>1210667</v>
       </c>
       <c r="F695" s="12">
@@ -18582,10 +18583,10 @@
       <c r="C696" s="9" t="s">
         <v>720</v>
       </c>
-      <c r="D696" s="20">
+      <c r="D696" s="21">
         <v>4902166</v>
       </c>
-      <c r="E696" s="20">
+      <c r="E696" s="21">
         <v>1210623</v>
       </c>
       <c r="F696" s="9">
@@ -18605,10 +18606,10 @@
       <c r="C697" s="9" t="s">
         <v>721</v>
       </c>
-      <c r="D697" s="20">
+      <c r="D697" s="21">
         <v>4902248</v>
       </c>
-      <c r="E697" s="20">
+      <c r="E697" s="21">
         <v>1210435</v>
       </c>
       <c r="F697" s="9">
@@ -18628,10 +18629,10 @@
       <c r="C698" s="9" t="s">
         <v>722</v>
       </c>
-      <c r="D698" s="20">
+      <c r="D698" s="21">
         <v>4902203</v>
       </c>
-      <c r="E698" s="20">
+      <c r="E698" s="21">
         <v>1210342</v>
       </c>
       <c r="F698" s="9">
@@ -18651,10 +18652,10 @@
       <c r="C699" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D699" s="20">
+      <c r="D699" s="21">
         <v>4901981</v>
       </c>
-      <c r="E699" s="20">
+      <c r="E699" s="21">
         <v>1210542</v>
       </c>
       <c r="F699" s="9">
@@ -18674,10 +18675,10 @@
       <c r="C700" s="9" t="s">
         <v>723</v>
       </c>
-      <c r="D700" s="20">
+      <c r="D700" s="21">
         <v>4902085</v>
       </c>
-      <c r="E700" s="20">
+      <c r="E700" s="21">
         <v>1209850</v>
       </c>
       <c r="F700" s="9">
@@ -18697,10 +18698,10 @@
       <c r="C701" s="9" t="s">
         <v>724</v>
       </c>
-      <c r="D701" s="20">
+      <c r="D701" s="21">
         <v>4902141</v>
       </c>
-      <c r="E701" s="20">
+      <c r="E701" s="21">
         <v>1209285</v>
       </c>
       <c r="F701" s="9">
@@ -18720,10 +18721,10 @@
       <c r="C702" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="D702" s="20">
+      <c r="D702" s="21">
         <v>4902168</v>
       </c>
-      <c r="E702" s="20">
+      <c r="E702" s="21">
         <v>1209159</v>
       </c>
       <c r="F702" s="9">
@@ -18743,10 +18744,10 @@
       <c r="C703" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="D703" s="20">
+      <c r="D703" s="21">
         <v>4902168</v>
       </c>
-      <c r="E703" s="20">
+      <c r="E703" s="21">
         <v>1209151</v>
       </c>
       <c r="F703" s="9">
@@ -18766,10 +18767,10 @@
       <c r="C704" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="D704" s="20">
+      <c r="D704" s="21">
         <v>4902192</v>
       </c>
-      <c r="E704" s="20">
+      <c r="E704" s="21">
         <v>1208855</v>
       </c>
       <c r="F704" s="9">
@@ -18789,10 +18790,10 @@
       <c r="C705" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="D705" s="20">
+      <c r="D705" s="21">
         <v>4902277</v>
       </c>
-      <c r="E705" s="20">
+      <c r="E705" s="21">
         <v>1208372</v>
       </c>
       <c r="F705" s="9">
@@ -18812,10 +18813,10 @@
       <c r="C706" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="D706" s="20">
+      <c r="D706" s="21">
         <v>4902158</v>
       </c>
-      <c r="E706" s="20">
+      <c r="E706" s="21">
         <v>1208354</v>
       </c>
       <c r="F706" s="9">
@@ -18835,10 +18836,10 @@
       <c r="C707" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="D707" s="20">
+      <c r="D707" s="21">
         <v>4902079</v>
       </c>
-      <c r="E707" s="20">
+      <c r="E707" s="21">
         <v>1208413</v>
       </c>
       <c r="F707" s="9">
@@ -18858,10 +18859,10 @@
       <c r="C708" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="D708" s="21">
+      <c r="D708" s="22">
         <v>4902053</v>
       </c>
-      <c r="E708" s="21">
+      <c r="E708" s="22">
         <v>1208523</v>
       </c>
       <c r="F708" s="12">
@@ -18881,10 +18882,10 @@
       <c r="C709" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="D709" s="21">
+      <c r="D709" s="22">
         <v>4901960</v>
       </c>
-      <c r="E709" s="21">
+      <c r="E709" s="22">
         <v>1208890</v>
       </c>
       <c r="F709" s="12">
@@ -18904,10 +18905,10 @@
       <c r="C710" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="D710" s="20">
+      <c r="D710" s="21">
         <v>4902035</v>
       </c>
-      <c r="E710" s="20">
+      <c r="E710" s="21">
         <v>1208831</v>
       </c>
       <c r="F710" s="9">
@@ -18927,10 +18928,10 @@
       <c r="C711" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="D711" s="20">
+      <c r="D711" s="21">
         <v>4902022</v>
       </c>
-      <c r="E711" s="20">
+      <c r="E711" s="21">
         <v>1208566</v>
       </c>
       <c r="F711" s="9">
@@ -18950,10 +18951,10 @@
       <c r="C712" s="9" t="s">
         <v>725</v>
       </c>
-      <c r="D712" s="20">
+      <c r="D712" s="21">
         <v>4902099</v>
       </c>
-      <c r="E712" s="20">
+      <c r="E712" s="21">
         <v>1208610</v>
       </c>
       <c r="F712" s="9">
@@ -18973,10 +18974,10 @@
       <c r="C713" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="D713" s="20">
+      <c r="D713" s="21">
         <v>4902145</v>
       </c>
-      <c r="E713" s="20">
+      <c r="E713" s="21">
         <v>1208648</v>
       </c>
       <c r="F713" s="9">
@@ -18996,10 +18997,10 @@
       <c r="C714" s="9" t="s">
         <v>726</v>
       </c>
-      <c r="D714" s="20">
+      <c r="D714" s="21">
         <v>4901891</v>
       </c>
-      <c r="E714" s="20">
+      <c r="E714" s="21">
         <v>1208747</v>
       </c>
       <c r="F714" s="9">
@@ -19019,10 +19020,10 @@
       <c r="C715" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="D715" s="20">
+      <c r="D715" s="21">
         <v>4902055</v>
       </c>
-      <c r="E715" s="20">
+      <c r="E715" s="21">
         <v>1209039</v>
       </c>
       <c r="F715" s="9">
@@ -19042,10 +19043,10 @@
       <c r="C716" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="D716" s="21">
+      <c r="D716" s="22">
         <v>4902047</v>
       </c>
-      <c r="E716" s="21">
+      <c r="E716" s="22">
         <v>1209045</v>
       </c>
       <c r="F716" s="12">
@@ -19065,10 +19066,10 @@
       <c r="C717" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="D717" s="20">
+      <c r="D717" s="21">
         <v>4901837</v>
       </c>
-      <c r="E717" s="20">
+      <c r="E717" s="21">
         <v>1208972</v>
       </c>
       <c r="F717" s="9">
@@ -19088,10 +19089,10 @@
       <c r="C718" s="9" t="s">
         <v>727</v>
       </c>
-      <c r="D718" s="20">
+      <c r="D718" s="21">
         <v>4901859</v>
       </c>
-      <c r="E718" s="20">
+      <c r="E718" s="21">
         <v>1209179</v>
       </c>
       <c r="F718" s="9">
@@ -19111,10 +19112,10 @@
       <c r="C719" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="D719" s="20">
+      <c r="D719" s="21">
         <v>4901792</v>
       </c>
-      <c r="E719" s="20">
+      <c r="E719" s="21">
         <v>1209178</v>
       </c>
       <c r="F719" s="9">
@@ -19134,10 +19135,10 @@
       <c r="C720" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="D720" s="20">
+      <c r="D720" s="21">
         <v>4901697</v>
       </c>
-      <c r="E720" s="20">
+      <c r="E720" s="21">
         <v>1209031</v>
       </c>
       <c r="F720" s="9">
@@ -19157,10 +19158,10 @@
       <c r="C721" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="D721" s="20">
+      <c r="D721" s="21">
         <v>4901783</v>
       </c>
-      <c r="E721" s="20">
+      <c r="E721" s="21">
         <v>1209338</v>
       </c>
       <c r="F721" s="9">
@@ -19180,10 +19181,10 @@
       <c r="C722" s="12" t="s">
         <v>728</v>
       </c>
-      <c r="D722" s="21">
+      <c r="D722" s="22">
         <v>4901971</v>
       </c>
-      <c r="E722" s="21">
+      <c r="E722" s="22">
         <v>1209117</v>
       </c>
       <c r="F722" s="12">
@@ -19203,10 +19204,10 @@
       <c r="C723" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="D723" s="20">
+      <c r="D723" s="21">
         <v>4902003</v>
       </c>
-      <c r="E723" s="20">
+      <c r="E723" s="21">
         <v>1209093</v>
       </c>
       <c r="F723" s="9">
@@ -19226,10 +19227,10 @@
       <c r="C724" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="D724" s="20">
+      <c r="D724" s="21">
         <v>4901844</v>
       </c>
-      <c r="E724" s="20">
+      <c r="E724" s="21">
         <v>1209860</v>
       </c>
       <c r="F724" s="9">
@@ -19249,10 +19250,10 @@
       <c r="C725" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D725" s="20">
+      <c r="D725" s="21">
         <v>4901722</v>
       </c>
-      <c r="E725" s="20">
+      <c r="E725" s="21">
         <v>1209870</v>
       </c>
       <c r="F725" s="9">
@@ -19272,10 +19273,10 @@
       <c r="C726" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="D726" s="20">
+      <c r="D726" s="21">
         <v>4901525</v>
       </c>
-      <c r="E726" s="20">
+      <c r="E726" s="21">
         <v>1209917</v>
       </c>
       <c r="F726" s="9">
@@ -19295,10 +19296,10 @@
       <c r="C727" s="9" t="s">
         <v>729</v>
       </c>
-      <c r="D727" s="20">
+      <c r="D727" s="21">
         <v>4901668</v>
       </c>
-      <c r="E727" s="20">
+      <c r="E727" s="21">
         <v>1209557</v>
       </c>
       <c r="F727" s="9">
@@ -19318,10 +19319,10 @@
       <c r="C728" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="D728" s="20">
+      <c r="D728" s="21">
         <v>4901759</v>
       </c>
-      <c r="E728" s="20">
+      <c r="E728" s="21">
         <v>1209684</v>
       </c>
       <c r="F728" s="9">
@@ -19341,10 +19342,10 @@
       <c r="C729" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="D729" s="21">
+      <c r="D729" s="22">
         <v>4901943</v>
       </c>
-      <c r="E729" s="21">
+      <c r="E729" s="22">
         <v>1210040</v>
       </c>
       <c r="F729" s="12">
@@ -19364,10 +19365,10 @@
       <c r="C730" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="D730" s="20">
+      <c r="D730" s="21">
         <v>4901855</v>
       </c>
-      <c r="E730" s="20">
+      <c r="E730" s="21">
         <v>1210046</v>
       </c>
       <c r="F730" s="9">
@@ -19387,10 +19388,10 @@
       <c r="C731" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="D731" s="20">
+      <c r="D731" s="21">
         <v>4901418</v>
       </c>
-      <c r="E731" s="20">
+      <c r="E731" s="21">
         <v>1210142</v>
       </c>
       <c r="F731" s="9">
@@ -19410,10 +19411,10 @@
       <c r="C732" s="9" t="s">
         <v>730</v>
       </c>
-      <c r="D732" s="20">
+      <c r="D732" s="21">
         <v>4901323</v>
       </c>
-      <c r="E732" s="20">
+      <c r="E732" s="21">
         <v>1210209</v>
       </c>
       <c r="F732" s="9">
@@ -19433,10 +19434,10 @@
       <c r="C733" s="9" t="s">
         <v>731</v>
       </c>
-      <c r="D733" s="20">
+      <c r="D733" s="21">
         <v>4901246</v>
       </c>
-      <c r="E733" s="20">
+      <c r="E733" s="21">
         <v>1210171</v>
       </c>
       <c r="F733" s="9">
@@ -19456,10 +19457,10 @@
       <c r="C734" s="9" t="s">
         <v>732</v>
       </c>
-      <c r="D734" s="20">
+      <c r="D734" s="21">
         <v>4901354</v>
       </c>
-      <c r="E734" s="20">
+      <c r="E734" s="21">
         <v>1209678</v>
       </c>
       <c r="F734" s="9">
@@ -19479,10 +19480,10 @@
       <c r="C735" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="D735" s="20">
+      <c r="D735" s="21">
         <v>4901598</v>
       </c>
-      <c r="E735" s="20">
+      <c r="E735" s="21">
         <v>1209365</v>
       </c>
       <c r="F735" s="9">
@@ -19502,10 +19503,10 @@
       <c r="C736" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="D736" s="20">
+      <c r="D736" s="21">
         <v>4901628</v>
       </c>
-      <c r="E736" s="20">
+      <c r="E736" s="21">
         <v>1209295</v>
       </c>
       <c r="F736" s="9">
@@ -19525,10 +19526,10 @@
       <c r="C737" s="12" t="s">
         <v>733</v>
       </c>
-      <c r="D737" s="21">
+      <c r="D737" s="22">
         <v>4901302</v>
       </c>
-      <c r="E737" s="21">
+      <c r="E737" s="22">
         <v>1210389</v>
       </c>
       <c r="F737" s="12">
@@ -19548,10 +19549,10 @@
       <c r="C738" s="9" t="s">
         <v>734</v>
       </c>
-      <c r="D738" s="20">
+      <c r="D738" s="21">
         <v>4901674</v>
       </c>
-      <c r="E738" s="20">
+      <c r="E738" s="21">
         <v>1210165</v>
       </c>
       <c r="F738" s="9">
@@ -19571,10 +19572,10 @@
       <c r="C739" s="9" t="s">
         <v>735</v>
       </c>
-      <c r="D739" s="20">
+      <c r="D739" s="21">
         <v>4901254</v>
       </c>
-      <c r="E739" s="20">
+      <c r="E739" s="21">
         <v>1209314</v>
       </c>
       <c r="F739" s="9">
@@ -19594,10 +19595,10 @@
       <c r="C740" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="D740" s="20">
+      <c r="D740" s="21">
         <v>4901330</v>
       </c>
-      <c r="E740" s="20">
+      <c r="E740" s="21">
         <v>1209053</v>
       </c>
       <c r="F740" s="9">
@@ -19617,10 +19618,10 @@
       <c r="C741" s="9" t="s">
         <v>736</v>
       </c>
-      <c r="D741" s="20">
+      <c r="D741" s="21">
         <v>4901340</v>
       </c>
-      <c r="E741" s="20">
+      <c r="E741" s="21">
         <v>1209013</v>
       </c>
       <c r="F741" s="9">
@@ -19628,6 +19629,12 @@
       </c>
       <c r="G741" s="10" t="s">
         <v>186</v>
+      </c>
+    </row>
+    <row r="743" spans="1:7">
+      <c r="F743" s="25">
+        <f>SUM(F6:F741)</f>
+        <v>879</v>
       </c>
     </row>
   </sheetData>
